--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,88 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>11600</v>
+        <v>14800</v>
       </c>
       <c r="E8" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F8" s="3">
         <v>1700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5100</v>
       </c>
-      <c r="G8" s="3">
-        <v>8900</v>
-      </c>
       <c r="H8" s="3">
-        <v>15400</v>
+        <v>9000</v>
       </c>
       <c r="I8" s="3">
-        <v>22400</v>
+        <v>15500</v>
       </c>
       <c r="J8" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K8" s="3">
         <v>17100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,9 +774,12 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,38 +825,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>153100</v>
+        <v>165600</v>
       </c>
       <c r="E12" s="3">
-        <v>108600</v>
+        <v>154500</v>
       </c>
       <c r="F12" s="3">
-        <v>71800</v>
+        <v>109500</v>
       </c>
       <c r="G12" s="3">
-        <v>43900</v>
+        <v>72400</v>
       </c>
       <c r="H12" s="3">
-        <v>21100</v>
+        <v>44300</v>
       </c>
       <c r="I12" s="3">
-        <v>14000</v>
+        <v>21300</v>
       </c>
       <c r="J12" s="3">
+        <v>14100</v>
+      </c>
+      <c r="K12" s="3">
         <v>12500</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,9 +888,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -902,29 +921,32 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>700</v>
-      </c>
-      <c r="G15" s="3">
-        <v>600</v>
       </c>
       <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>600</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,68 +969,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>181500</v>
+        <v>265900</v>
       </c>
       <c r="E17" s="3">
-        <v>124200</v>
+        <v>183100</v>
       </c>
       <c r="F17" s="3">
-        <v>85100</v>
+        <v>125200</v>
       </c>
       <c r="G17" s="3">
-        <v>54800</v>
+        <v>85900</v>
       </c>
       <c r="H17" s="3">
-        <v>28500</v>
+        <v>55300</v>
       </c>
       <c r="I17" s="3">
-        <v>16600</v>
+        <v>28800</v>
       </c>
       <c r="J17" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K17" s="3">
         <v>15400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-169900</v>
+        <v>-251100</v>
       </c>
       <c r="E18" s="3">
-        <v>-122500</v>
+        <v>-171400</v>
       </c>
       <c r="F18" s="3">
-        <v>-80100</v>
+        <v>-123500</v>
       </c>
       <c r="G18" s="3">
-        <v>-45900</v>
+        <v>-80800</v>
       </c>
       <c r="H18" s="3">
-        <v>-13200</v>
+        <v>-46300</v>
       </c>
       <c r="I18" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="J18" s="3">
         <v>5800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,79 +1050,86 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>26800</v>
+        <v>10700</v>
       </c>
       <c r="E20" s="3">
-        <v>-14000</v>
+        <v>27000</v>
       </c>
       <c r="F20" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="G20" s="3">
         <v>4600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>9100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-142200</v>
+        <v>-233000</v>
       </c>
       <c r="E21" s="3">
-        <v>-135600</v>
+        <v>-143400</v>
       </c>
       <c r="F21" s="3">
-        <v>-74700</v>
+        <v>-136800</v>
       </c>
       <c r="G21" s="3">
-        <v>-36200</v>
+        <v>-75400</v>
       </c>
       <c r="H21" s="3">
-        <v>-10800</v>
+        <v>-36600</v>
       </c>
       <c r="I21" s="3">
-        <v>5600</v>
+        <v>-10900</v>
       </c>
       <c r="J21" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>100</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
         <v>100</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1104,72 +1143,81 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-143300</v>
+        <v>-241700</v>
       </c>
       <c r="E23" s="3">
-        <v>-136600</v>
+        <v>-144500</v>
       </c>
       <c r="F23" s="3">
-        <v>-75500</v>
+        <v>-137800</v>
       </c>
       <c r="G23" s="3">
-        <v>-36900</v>
+        <v>-76100</v>
       </c>
       <c r="H23" s="3">
-        <v>-11400</v>
+        <v>-37200</v>
       </c>
       <c r="I23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="J23" s="3">
         <v>5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
-        <v>-200</v>
-      </c>
       <c r="G24" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="H24" s="3">
         <v>-700</v>
       </c>
       <c r="I24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J24" s="3">
         <v>700</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,69 +1245,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-142800</v>
+        <v>-241500</v>
       </c>
       <c r="E26" s="3">
-        <v>-136000</v>
+        <v>-144100</v>
       </c>
       <c r="F26" s="3">
-        <v>-75200</v>
+        <v>-137200</v>
       </c>
       <c r="G26" s="3">
-        <v>-36100</v>
+        <v>-75900</v>
       </c>
       <c r="H26" s="3">
-        <v>-10600</v>
+        <v>-36500</v>
       </c>
       <c r="I26" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J26" s="3">
         <v>4500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-142800</v>
+        <v>-241500</v>
       </c>
       <c r="E27" s="3">
-        <v>-136000</v>
+        <v>-144100</v>
       </c>
       <c r="F27" s="3">
-        <v>-75200</v>
+        <v>-137200</v>
       </c>
       <c r="G27" s="3">
-        <v>-36100</v>
+        <v>-75900</v>
       </c>
       <c r="H27" s="3">
-        <v>-10600</v>
+        <v>-36500</v>
       </c>
       <c r="I27" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J27" s="3">
         <v>4500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,69 +1443,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-26800</v>
+        <v>-10700</v>
       </c>
       <c r="E32" s="3">
-        <v>14000</v>
+        <v>-27000</v>
       </c>
       <c r="F32" s="3">
+        <v>14100</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-9100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-142800</v>
+        <v>-241500</v>
       </c>
       <c r="E33" s="3">
-        <v>-136000</v>
+        <v>-144100</v>
       </c>
       <c r="F33" s="3">
-        <v>-75200</v>
+        <v>-137200</v>
       </c>
       <c r="G33" s="3">
-        <v>-36100</v>
+        <v>-75900</v>
       </c>
       <c r="H33" s="3">
-        <v>-10600</v>
+        <v>-36500</v>
       </c>
       <c r="I33" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J33" s="3">
         <v>4500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,74 +1542,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-142800</v>
+        <v>-241500</v>
       </c>
       <c r="E35" s="3">
-        <v>-136000</v>
+        <v>-144100</v>
       </c>
       <c r="F35" s="3">
-        <v>-75200</v>
+        <v>-137200</v>
       </c>
       <c r="G35" s="3">
-        <v>-36100</v>
+        <v>-75900</v>
       </c>
       <c r="H35" s="3">
-        <v>-10600</v>
+        <v>-36500</v>
       </c>
       <c r="I35" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J35" s="3">
         <v>4500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,38 +1646,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>305100</v>
+        <v>657400</v>
       </c>
       <c r="E41" s="3">
-        <v>214500</v>
+        <v>308400</v>
       </c>
       <c r="F41" s="3">
-        <v>198000</v>
+        <v>216800</v>
       </c>
       <c r="G41" s="3">
-        <v>131400</v>
+        <v>200100</v>
       </c>
       <c r="H41" s="3">
-        <v>55100</v>
+        <v>132800</v>
       </c>
       <c r="I41" s="3">
-        <v>21300</v>
+        <v>55700</v>
       </c>
       <c r="J41" s="3">
+        <v>21600</v>
+      </c>
+      <c r="K41" s="3">
         <v>16000</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1620,39 +1709,45 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E43" s="3">
         <v>2900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="F43" s="3">
-        <v>1800</v>
-      </c>
       <c r="G43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1680,77 +1775,86 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>13600</v>
+        <v>14900</v>
       </c>
       <c r="E45" s="3">
-        <v>7600</v>
+        <v>13800</v>
       </c>
       <c r="F45" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G45" s="3">
         <v>2200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>700</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>321600</v>
+        <v>678300</v>
       </c>
       <c r="E46" s="3">
-        <v>224700</v>
+        <v>325100</v>
       </c>
       <c r="F46" s="3">
-        <v>202000</v>
+        <v>227100</v>
       </c>
       <c r="G46" s="3">
-        <v>138000</v>
+        <v>204200</v>
       </c>
       <c r="H46" s="3">
-        <v>58400</v>
+        <v>139500</v>
       </c>
       <c r="I46" s="3">
-        <v>23300</v>
+        <v>59000</v>
       </c>
       <c r="J46" s="3">
+        <v>23500</v>
+      </c>
+      <c r="K46" s="3">
         <v>22700</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18800</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
+        <v>17200</v>
+      </c>
+      <c r="E47" s="3">
+        <v>19000</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1767,72 +1871,81 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4700</v>
+        <v>50000</v>
       </c>
       <c r="E48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F48" s="3">
         <v>2800</v>
-      </c>
-      <c r="F48" s="3">
-        <v>2600</v>
       </c>
       <c r="G48" s="3">
         <v>2600</v>
       </c>
       <c r="H48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3800</v>
       </c>
-      <c r="E49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3800</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,17 +2006,20 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E52" s="3">
         <v>1300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -1909,20 +2028,23 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,39 +2072,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>350200</v>
+        <v>751000</v>
       </c>
       <c r="E54" s="3">
-        <v>231700</v>
+        <v>354000</v>
       </c>
       <c r="F54" s="3">
-        <v>208700</v>
+        <v>234100</v>
       </c>
       <c r="G54" s="3">
-        <v>144700</v>
+        <v>210900</v>
       </c>
       <c r="H54" s="3">
-        <v>64400</v>
+        <v>146200</v>
       </c>
       <c r="I54" s="3">
-        <v>29300</v>
+        <v>65100</v>
       </c>
       <c r="J54" s="3">
+        <v>29600</v>
+      </c>
+      <c r="K54" s="3">
         <v>27900</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,43 +2138,47 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>21700</v>
+        <v>30800</v>
       </c>
       <c r="E57" s="3">
-        <v>26100</v>
+        <v>21900</v>
       </c>
       <c r="F57" s="3">
-        <v>14400</v>
+        <v>26400</v>
       </c>
       <c r="G57" s="3">
-        <v>9200</v>
+        <v>14500</v>
       </c>
       <c r="H57" s="3">
-        <v>5400</v>
+        <v>9300</v>
       </c>
       <c r="I57" s="3">
-        <v>2800</v>
+        <v>5500</v>
       </c>
       <c r="J57" s="3">
         <v>2800</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>6500</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2056,86 +2189,95 @@
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
-        <v>0</v>
+      <c r="H58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
       </c>
       <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>21100</v>
+        <v>15900</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>21300</v>
       </c>
       <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
         <v>400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3400</v>
       </c>
-      <c r="H59" s="3">
-        <v>8700</v>
-      </c>
       <c r="I59" s="3">
-        <v>19600</v>
+        <v>8800</v>
       </c>
       <c r="J59" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K59" s="3">
         <v>23200</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>42700</v>
+        <v>53300</v>
       </c>
       <c r="E60" s="3">
-        <v>26100</v>
+        <v>43200</v>
       </c>
       <c r="F60" s="3">
-        <v>14800</v>
+        <v>26400</v>
       </c>
       <c r="G60" s="3">
-        <v>12600</v>
+        <v>14900</v>
       </c>
       <c r="H60" s="3">
-        <v>14100</v>
+        <v>12700</v>
       </c>
       <c r="I60" s="3">
-        <v>22400</v>
+        <v>14300</v>
       </c>
       <c r="J60" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K60" s="3">
         <v>26200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>34100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2158,39 +2300,45 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,39 +2432,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>42700</v>
+        <v>88400</v>
       </c>
       <c r="E66" s="3">
-        <v>26100</v>
+        <v>43200</v>
       </c>
       <c r="F66" s="3">
-        <v>14800</v>
+        <v>26400</v>
       </c>
       <c r="G66" s="3">
-        <v>12600</v>
+        <v>14900</v>
       </c>
       <c r="H66" s="3">
-        <v>14100</v>
+        <v>12700</v>
       </c>
       <c r="I66" s="3">
-        <v>22400</v>
+        <v>14300</v>
       </c>
       <c r="J66" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K66" s="3">
         <v>26200</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,39 +2612,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-589700</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="3">
-        <v>189100</v>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>128400</v>
+        <v>191200</v>
       </c>
       <c r="H72" s="3">
-        <v>47800</v>
+        <v>129800</v>
       </c>
       <c r="I72" s="3">
-        <v>5300</v>
+        <v>48300</v>
       </c>
       <c r="J72" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K72" s="3">
         <v>1300</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,39 +2744,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>307500</v>
+        <v>662700</v>
       </c>
       <c r="E76" s="3">
-        <v>205600</v>
+        <v>310800</v>
       </c>
       <c r="F76" s="3">
-        <v>193900</v>
+        <v>207800</v>
       </c>
       <c r="G76" s="3">
-        <v>132100</v>
+        <v>196000</v>
       </c>
       <c r="H76" s="3">
-        <v>50300</v>
+        <v>133500</v>
       </c>
       <c r="I76" s="3">
-        <v>6900</v>
+        <v>50800</v>
       </c>
       <c r="J76" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,74 +2810,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-142800</v>
+        <v>-241500</v>
       </c>
       <c r="E81" s="3">
-        <v>-136000</v>
+        <v>-144100</v>
       </c>
       <c r="F81" s="3">
-        <v>-75200</v>
+        <v>-137200</v>
       </c>
       <c r="G81" s="3">
-        <v>-36100</v>
+        <v>-75900</v>
       </c>
       <c r="H81" s="3">
-        <v>-10600</v>
+        <v>-36500</v>
       </c>
       <c r="I81" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J81" s="3">
         <v>4500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,38 +2899,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>600</v>
       </c>
       <c r="H83" s="3">
         <v>600</v>
       </c>
       <c r="I83" s="3">
+        <v>600</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,39 +3094,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-152400</v>
+        <v>-194900</v>
       </c>
       <c r="E89" s="3">
-        <v>-104400</v>
+        <v>-153700</v>
       </c>
       <c r="F89" s="3">
-        <v>-66100</v>
+        <v>-105300</v>
       </c>
       <c r="G89" s="3">
-        <v>-47700</v>
+        <v>-66700</v>
       </c>
       <c r="H89" s="3">
-        <v>-20200</v>
+        <v>-48100</v>
       </c>
       <c r="I89" s="3">
-        <v>6900</v>
+        <v>-20400</v>
       </c>
       <c r="J89" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,38 +3145,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,39 +3241,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
-        <v>-1100</v>
-      </c>
       <c r="H94" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-1300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,97 +3421,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>223200</v>
+        <v>546700</v>
       </c>
       <c r="E100" s="3">
-        <v>136900</v>
+        <v>225100</v>
       </c>
       <c r="F100" s="3">
-        <v>129000</v>
+        <v>138100</v>
       </c>
       <c r="G100" s="3">
-        <v>116100</v>
+        <v>130100</v>
       </c>
       <c r="H100" s="3">
-        <v>52600</v>
+        <v>117100</v>
       </c>
       <c r="I100" s="3">
-        <v>-200</v>
+        <v>53100</v>
       </c>
       <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K100" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>22700</v>
+        <v>8600</v>
       </c>
       <c r="E101" s="3">
-        <v>-15000</v>
+        <v>22900</v>
       </c>
       <c r="F101" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="G101" s="3">
         <v>4500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>9100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1800</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>90600</v>
+        <v>354700</v>
       </c>
       <c r="E102" s="3">
-        <v>16500</v>
+        <v>91400</v>
       </c>
       <c r="F102" s="3">
-        <v>66600</v>
+        <v>16600</v>
       </c>
       <c r="G102" s="3">
-        <v>76300</v>
+        <v>67200</v>
       </c>
       <c r="H102" s="3">
-        <v>33700</v>
+        <v>77000</v>
       </c>
       <c r="I102" s="3">
+        <v>34000</v>
+      </c>
+      <c r="J102" s="3">
         <v>5400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-1300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>14800</v>
+        <v>15800</v>
       </c>
       <c r="E8" s="3">
-        <v>11700</v>
+        <v>12500</v>
       </c>
       <c r="F8" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="G8" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="H8" s="3">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="I8" s="3">
-        <v>15500</v>
+        <v>16500</v>
       </c>
       <c r="J8" s="3">
-        <v>22600</v>
+        <v>24100</v>
       </c>
       <c r="K8" s="3">
         <v>17100</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>165600</v>
+        <v>176800</v>
       </c>
       <c r="E12" s="3">
-        <v>154500</v>
+        <v>165000</v>
       </c>
       <c r="F12" s="3">
-        <v>109500</v>
+        <v>117000</v>
       </c>
       <c r="G12" s="3">
-        <v>72400</v>
+        <v>77300</v>
       </c>
       <c r="H12" s="3">
-        <v>44300</v>
+        <v>47300</v>
       </c>
       <c r="I12" s="3">
-        <v>21300</v>
+        <v>22700</v>
       </c>
       <c r="J12" s="3">
-        <v>14100</v>
+        <v>15000</v>
       </c>
       <c r="K12" s="3">
         <v>12500</v>
@@ -931,19 +931,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13200</v>
+        <v>14100</v>
       </c>
       <c r="E15" s="3">
         <v>1000</v>
       </c>
       <c r="F15" s="3">
+        <v>900</v>
+      </c>
+      <c r="G15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>700</v>
-      </c>
-      <c r="H15" s="3">
-        <v>600</v>
       </c>
       <c r="I15" s="3">
         <v>600</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>265900</v>
+        <v>284000</v>
       </c>
       <c r="E17" s="3">
-        <v>183100</v>
+        <v>195600</v>
       </c>
       <c r="F17" s="3">
-        <v>125200</v>
+        <v>133800</v>
       </c>
       <c r="G17" s="3">
-        <v>85900</v>
+        <v>91700</v>
       </c>
       <c r="H17" s="3">
-        <v>55300</v>
+        <v>59100</v>
       </c>
       <c r="I17" s="3">
-        <v>28800</v>
+        <v>30700</v>
       </c>
       <c r="J17" s="3">
-        <v>16800</v>
+        <v>17900</v>
       </c>
       <c r="K17" s="3">
         <v>15400</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-251100</v>
+        <v>-268200</v>
       </c>
       <c r="E18" s="3">
-        <v>-171400</v>
+        <v>-183100</v>
       </c>
       <c r="F18" s="3">
-        <v>-123500</v>
+        <v>-131900</v>
       </c>
       <c r="G18" s="3">
-        <v>-80800</v>
+        <v>-86300</v>
       </c>
       <c r="H18" s="3">
-        <v>-46300</v>
+        <v>-49500</v>
       </c>
       <c r="I18" s="3">
-        <v>-13300</v>
+        <v>-14200</v>
       </c>
       <c r="J18" s="3">
-        <v>5800</v>
+        <v>6200</v>
       </c>
       <c r="K18" s="3">
         <v>1700</v>
@@ -1057,25 +1057,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>10700</v>
+        <v>11500</v>
       </c>
       <c r="E20" s="3">
-        <v>27000</v>
+        <v>28900</v>
       </c>
       <c r="F20" s="3">
-        <v>-14100</v>
+        <v>-15100</v>
       </c>
       <c r="G20" s="3">
-        <v>4600</v>
+        <v>5000</v>
       </c>
       <c r="H20" s="3">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="I20" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="J20" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K20" s="3">
         <v>-200</v>
@@ -1090,25 +1090,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-233000</v>
+        <v>-248800</v>
       </c>
       <c r="E21" s="3">
-        <v>-143400</v>
+        <v>-153200</v>
       </c>
       <c r="F21" s="3">
-        <v>-136800</v>
+        <v>-146100</v>
       </c>
       <c r="G21" s="3">
-        <v>-75400</v>
+        <v>-80500</v>
       </c>
       <c r="H21" s="3">
-        <v>-36600</v>
+        <v>-39000</v>
       </c>
       <c r="I21" s="3">
-        <v>-10900</v>
+        <v>-11600</v>
       </c>
       <c r="J21" s="3">
-        <v>5700</v>
+        <v>6100</v>
       </c>
       <c r="K21" s="3">
         <v>1900</v>
@@ -1126,7 +1126,7 @@
         <v>1400</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
@@ -1156,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-241700</v>
+        <v>-258200</v>
       </c>
       <c r="E23" s="3">
-        <v>-144500</v>
+        <v>-154400</v>
       </c>
       <c r="F23" s="3">
-        <v>-137800</v>
+        <v>-147100</v>
       </c>
       <c r="G23" s="3">
-        <v>-76100</v>
+        <v>-81300</v>
       </c>
       <c r="H23" s="3">
-        <v>-37200</v>
+        <v>-39700</v>
       </c>
       <c r="I23" s="3">
-        <v>-11500</v>
+        <v>-12200</v>
       </c>
       <c r="J23" s="3">
-        <v>5200</v>
+        <v>5600</v>
       </c>
       <c r="K23" s="3">
         <v>1400</v>
@@ -1192,16 +1192,16 @@
         <v>-300</v>
       </c>
       <c r="E24" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F24" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="G24" s="3">
         <v>-300</v>
       </c>
       <c r="H24" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="I24" s="3">
         <v>-800</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-241500</v>
+        <v>-257900</v>
       </c>
       <c r="E26" s="3">
-        <v>-144100</v>
+        <v>-153900</v>
       </c>
       <c r="F26" s="3">
-        <v>-137200</v>
+        <v>-146600</v>
       </c>
       <c r="G26" s="3">
-        <v>-75900</v>
+        <v>-81000</v>
       </c>
       <c r="H26" s="3">
-        <v>-36500</v>
+        <v>-38900</v>
       </c>
       <c r="I26" s="3">
-        <v>-10700</v>
+        <v>-11400</v>
       </c>
       <c r="J26" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="K26" s="3">
         <v>1400</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-241500</v>
+        <v>-257900</v>
       </c>
       <c r="E27" s="3">
-        <v>-144100</v>
+        <v>-153900</v>
       </c>
       <c r="F27" s="3">
-        <v>-137200</v>
+        <v>-146600</v>
       </c>
       <c r="G27" s="3">
-        <v>-75900</v>
+        <v>-81000</v>
       </c>
       <c r="H27" s="3">
-        <v>-36500</v>
+        <v>-38900</v>
       </c>
       <c r="I27" s="3">
-        <v>-10700</v>
+        <v>-11400</v>
       </c>
       <c r="J27" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="K27" s="3">
         <v>1400</v>
@@ -1453,25 +1453,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-10700</v>
+        <v>-11500</v>
       </c>
       <c r="E32" s="3">
-        <v>-27000</v>
+        <v>-28900</v>
       </c>
       <c r="F32" s="3">
-        <v>14100</v>
+        <v>15100</v>
       </c>
       <c r="G32" s="3">
-        <v>-4600</v>
+        <v>-5000</v>
       </c>
       <c r="H32" s="3">
-        <v>-9100</v>
+        <v>-9800</v>
       </c>
       <c r="I32" s="3">
-        <v>-1800</v>
+        <v>-2000</v>
       </c>
       <c r="J32" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K32" s="3">
         <v>200</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-241500</v>
+        <v>-257900</v>
       </c>
       <c r="E33" s="3">
-        <v>-144100</v>
+        <v>-153900</v>
       </c>
       <c r="F33" s="3">
-        <v>-137200</v>
+        <v>-146600</v>
       </c>
       <c r="G33" s="3">
-        <v>-75900</v>
+        <v>-81000</v>
       </c>
       <c r="H33" s="3">
-        <v>-36500</v>
+        <v>-38900</v>
       </c>
       <c r="I33" s="3">
-        <v>-10700</v>
+        <v>-11400</v>
       </c>
       <c r="J33" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="K33" s="3">
         <v>1400</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-241500</v>
+        <v>-257900</v>
       </c>
       <c r="E35" s="3">
-        <v>-144100</v>
+        <v>-153900</v>
       </c>
       <c r="F35" s="3">
-        <v>-137200</v>
+        <v>-146600</v>
       </c>
       <c r="G35" s="3">
-        <v>-75900</v>
+        <v>-81000</v>
       </c>
       <c r="H35" s="3">
-        <v>-36500</v>
+        <v>-38900</v>
       </c>
       <c r="I35" s="3">
-        <v>-10700</v>
+        <v>-11400</v>
       </c>
       <c r="J35" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="K35" s="3">
         <v>1400</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>657400</v>
+        <v>700700</v>
       </c>
       <c r="E41" s="3">
-        <v>308400</v>
+        <v>328700</v>
       </c>
       <c r="F41" s="3">
-        <v>216800</v>
+        <v>231100</v>
       </c>
       <c r="G41" s="3">
-        <v>200100</v>
+        <v>213300</v>
       </c>
       <c r="H41" s="3">
-        <v>132800</v>
+        <v>141500</v>
       </c>
       <c r="I41" s="3">
-        <v>55700</v>
+        <v>59300</v>
       </c>
       <c r="J41" s="3">
-        <v>21600</v>
+        <v>23000</v>
       </c>
       <c r="K41" s="3">
         <v>16000</v>
@@ -1719,25 +1719,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6000</v>
+        <v>6400</v>
       </c>
       <c r="E43" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="F43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2400</v>
-      </c>
       <c r="I43" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="J43" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K43" s="3">
         <v>6700</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>14900</v>
+        <v>15900</v>
       </c>
       <c r="E45" s="3">
-        <v>13800</v>
+        <v>14700</v>
       </c>
       <c r="F45" s="3">
-        <v>7700</v>
+        <v>8200</v>
       </c>
       <c r="G45" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="H45" s="3">
-        <v>4200</v>
+        <v>4500</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>678300</v>
+        <v>722900</v>
       </c>
       <c r="E46" s="3">
-        <v>325100</v>
+        <v>346500</v>
       </c>
       <c r="F46" s="3">
-        <v>227100</v>
+        <v>242100</v>
       </c>
       <c r="G46" s="3">
-        <v>204200</v>
+        <v>217600</v>
       </c>
       <c r="H46" s="3">
-        <v>139500</v>
+        <v>148600</v>
       </c>
       <c r="I46" s="3">
-        <v>59000</v>
+        <v>62900</v>
       </c>
       <c r="J46" s="3">
-        <v>23500</v>
+        <v>25100</v>
       </c>
       <c r="K46" s="3">
         <v>22700</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>17200</v>
+        <v>18400</v>
       </c>
       <c r="E47" s="3">
-        <v>19000</v>
+        <v>20200</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1884,25 +1884,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>50000</v>
+        <v>53300</v>
       </c>
       <c r="E48" s="3">
-        <v>4800</v>
+        <v>5100</v>
       </c>
       <c r="F48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
-        <v>2600</v>
-      </c>
       <c r="H48" s="3">
-        <v>2600</v>
+        <v>2800</v>
       </c>
       <c r="I48" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="J48" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K48" s="3">
         <v>1300</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="E49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="F49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="G49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="H49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="I49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="J49" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="K49" s="3">
         <v>3800</v>
@@ -2016,10 +2016,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E52" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>751000</v>
+        <v>800500</v>
       </c>
       <c r="E54" s="3">
-        <v>354000</v>
+        <v>377300</v>
       </c>
       <c r="F54" s="3">
-        <v>234100</v>
+        <v>249600</v>
       </c>
       <c r="G54" s="3">
-        <v>210900</v>
+        <v>224800</v>
       </c>
       <c r="H54" s="3">
-        <v>146200</v>
+        <v>155900</v>
       </c>
       <c r="I54" s="3">
-        <v>65100</v>
+        <v>69400</v>
       </c>
       <c r="J54" s="3">
-        <v>29600</v>
+        <v>31600</v>
       </c>
       <c r="K54" s="3">
         <v>27900</v>
@@ -2145,25 +2145,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>30800</v>
+        <v>32800</v>
       </c>
       <c r="E57" s="3">
-        <v>21900</v>
+        <v>23400</v>
       </c>
       <c r="F57" s="3">
-        <v>26400</v>
+        <v>28100</v>
       </c>
       <c r="G57" s="3">
-        <v>14500</v>
+        <v>15500</v>
       </c>
       <c r="H57" s="3">
-        <v>9300</v>
+        <v>9900</v>
       </c>
       <c r="I57" s="3">
-        <v>5500</v>
+        <v>5900</v>
       </c>
       <c r="J57" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="K57" s="3">
         <v>2800</v>
@@ -2178,7 +2178,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6500</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2211,10 +2211,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>15900</v>
+        <v>16900</v>
       </c>
       <c r="E59" s="3">
-        <v>21300</v>
+        <v>22700</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
@@ -2223,13 +2223,13 @@
         <v>400</v>
       </c>
       <c r="H59" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="I59" s="3">
-        <v>8800</v>
+        <v>9400</v>
       </c>
       <c r="J59" s="3">
-        <v>19800</v>
+        <v>21100</v>
       </c>
       <c r="K59" s="3">
         <v>23200</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>53300</v>
+        <v>56800</v>
       </c>
       <c r="E60" s="3">
-        <v>43200</v>
+        <v>46000</v>
       </c>
       <c r="F60" s="3">
-        <v>26400</v>
+        <v>28100</v>
       </c>
       <c r="G60" s="3">
-        <v>14900</v>
+        <v>15900</v>
       </c>
       <c r="H60" s="3">
-        <v>12700</v>
+        <v>13500</v>
       </c>
       <c r="I60" s="3">
-        <v>14300</v>
+        <v>15200</v>
       </c>
       <c r="J60" s="3">
-        <v>22600</v>
+        <v>24100</v>
       </c>
       <c r="K60" s="3">
         <v>26200</v>
@@ -2277,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34100</v>
+        <v>36300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2310,7 +2310,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>3</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>88400</v>
+        <v>94200</v>
       </c>
       <c r="E66" s="3">
-        <v>43200</v>
+        <v>46000</v>
       </c>
       <c r="F66" s="3">
-        <v>26400</v>
+        <v>28100</v>
       </c>
       <c r="G66" s="3">
-        <v>14900</v>
+        <v>15900</v>
       </c>
       <c r="H66" s="3">
-        <v>12700</v>
+        <v>13500</v>
       </c>
       <c r="I66" s="3">
-        <v>14300</v>
+        <v>15200</v>
       </c>
       <c r="J66" s="3">
-        <v>22600</v>
+        <v>24100</v>
       </c>
       <c r="K66" s="3">
         <v>26200</v>
@@ -2622,7 +2622,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-589700</v>
+        <v>-628600</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2631,16 +2631,16 @@
         <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>191200</v>
+        <v>203800</v>
       </c>
       <c r="H72" s="3">
-        <v>129800</v>
+        <v>138300</v>
       </c>
       <c r="I72" s="3">
-        <v>48300</v>
+        <v>51500</v>
       </c>
       <c r="J72" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="K72" s="3">
         <v>1300</v>
@@ -2754,25 +2754,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>662700</v>
+        <v>706300</v>
       </c>
       <c r="E76" s="3">
-        <v>310800</v>
+        <v>331300</v>
       </c>
       <c r="F76" s="3">
-        <v>207800</v>
+        <v>221500</v>
       </c>
       <c r="G76" s="3">
-        <v>196000</v>
+        <v>208900</v>
       </c>
       <c r="H76" s="3">
-        <v>133500</v>
+        <v>142300</v>
       </c>
       <c r="I76" s="3">
-        <v>50800</v>
+        <v>54200</v>
       </c>
       <c r="J76" s="3">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="K76" s="3">
         <v>1700</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-241500</v>
+        <v>-257900</v>
       </c>
       <c r="E81" s="3">
-        <v>-144100</v>
+        <v>-153900</v>
       </c>
       <c r="F81" s="3">
-        <v>-137200</v>
+        <v>-146600</v>
       </c>
       <c r="G81" s="3">
-        <v>-75900</v>
+        <v>-81000</v>
       </c>
       <c r="H81" s="3">
-        <v>-36500</v>
+        <v>-38900</v>
       </c>
       <c r="I81" s="3">
-        <v>-10700</v>
+        <v>-11400</v>
       </c>
       <c r="J81" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="K81" s="3">
         <v>1400</v>
@@ -2906,25 +2906,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7400</v>
+        <v>7900</v>
       </c>
       <c r="E83" s="3">
         <v>1000</v>
       </c>
       <c r="F83" s="3">
+        <v>900</v>
+      </c>
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>600</v>
       </c>
       <c r="I83" s="3">
         <v>600</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
@@ -3104,25 +3104,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-194900</v>
+        <v>-208100</v>
       </c>
       <c r="E89" s="3">
-        <v>-153700</v>
+        <v>-164200</v>
       </c>
       <c r="F89" s="3">
-        <v>-105300</v>
+        <v>-112500</v>
       </c>
       <c r="G89" s="3">
-        <v>-66700</v>
+        <v>-71200</v>
       </c>
       <c r="H89" s="3">
-        <v>-48100</v>
+        <v>-51400</v>
       </c>
       <c r="I89" s="3">
-        <v>-20400</v>
+        <v>-21800</v>
       </c>
       <c r="J89" s="3">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="K89" s="3">
         <v>-700</v>
@@ -3152,25 +3152,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="E91" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="F91" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G91" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H91" s="3">
         <v>-1200</v>
       </c>
       <c r="I91" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J91" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K91" s="3">
         <v>-300</v>
@@ -3251,25 +3251,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5700</v>
+        <v>-6100</v>
       </c>
       <c r="E94" s="3">
-        <v>-2900</v>
+        <v>-3100</v>
       </c>
       <c r="F94" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="G94" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H94" s="3">
         <v>-1200</v>
       </c>
       <c r="I94" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J94" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K94" s="3">
         <v>-300</v>
@@ -3431,25 +3431,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>546700</v>
+        <v>583900</v>
       </c>
       <c r="E100" s="3">
-        <v>225100</v>
+        <v>240400</v>
       </c>
       <c r="F100" s="3">
-        <v>138100</v>
+        <v>147500</v>
       </c>
       <c r="G100" s="3">
-        <v>130100</v>
+        <v>138900</v>
       </c>
       <c r="H100" s="3">
-        <v>117100</v>
+        <v>125100</v>
       </c>
       <c r="I100" s="3">
-        <v>53100</v>
+        <v>56700</v>
       </c>
       <c r="J100" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K100" s="3">
         <v>-200</v>
@@ -3464,22 +3464,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8600</v>
+        <v>9200</v>
       </c>
       <c r="E101" s="3">
-        <v>22900</v>
+        <v>24500</v>
       </c>
       <c r="F101" s="3">
-        <v>-15100</v>
+        <v>-16200</v>
       </c>
       <c r="G101" s="3">
-        <v>4500</v>
+        <v>4800</v>
       </c>
       <c r="H101" s="3">
-        <v>9100</v>
+        <v>9800</v>
       </c>
       <c r="I101" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>354700</v>
+        <v>378800</v>
       </c>
       <c r="E102" s="3">
-        <v>91400</v>
+        <v>97600</v>
       </c>
       <c r="F102" s="3">
-        <v>16600</v>
+        <v>17800</v>
       </c>
       <c r="G102" s="3">
-        <v>67200</v>
+        <v>71800</v>
       </c>
       <c r="H102" s="3">
-        <v>77000</v>
+        <v>82200</v>
       </c>
       <c r="I102" s="3">
-        <v>34000</v>
+        <v>36400</v>
       </c>
       <c r="J102" s="3">
-        <v>5400</v>
+        <v>5800</v>
       </c>
       <c r="K102" s="3">
         <v>-1300</v>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -718,25 +718,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>15800</v>
+        <v>16000</v>
       </c>
       <c r="E8" s="3">
-        <v>12500</v>
+        <v>12700</v>
       </c>
       <c r="F8" s="3">
         <v>1800</v>
       </c>
       <c r="G8" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="H8" s="3">
-        <v>9600</v>
+        <v>9700</v>
       </c>
       <c r="I8" s="3">
-        <v>16500</v>
+        <v>16700</v>
       </c>
       <c r="J8" s="3">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="K8" s="3">
         <v>17100</v>
@@ -832,25 +832,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>176800</v>
+        <v>218200</v>
       </c>
       <c r="E12" s="3">
-        <v>165000</v>
+        <v>166800</v>
       </c>
       <c r="F12" s="3">
-        <v>117000</v>
+        <v>118300</v>
       </c>
       <c r="G12" s="3">
-        <v>77300</v>
+        <v>78200</v>
       </c>
       <c r="H12" s="3">
-        <v>47300</v>
+        <v>47800</v>
       </c>
       <c r="I12" s="3">
-        <v>22700</v>
+        <v>23000</v>
       </c>
       <c r="J12" s="3">
-        <v>15000</v>
+        <v>15200</v>
       </c>
       <c r="K12" s="3">
         <v>12500</v>
@@ -931,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14100</v>
+        <v>14300</v>
       </c>
       <c r="E15" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F15" s="3">
         <v>900</v>
@@ -976,25 +976,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>284000</v>
+        <v>287200</v>
       </c>
       <c r="E17" s="3">
-        <v>195600</v>
+        <v>197800</v>
       </c>
       <c r="F17" s="3">
-        <v>133800</v>
+        <v>135300</v>
       </c>
       <c r="G17" s="3">
-        <v>91700</v>
+        <v>92700</v>
       </c>
       <c r="H17" s="3">
-        <v>59100</v>
+        <v>59700</v>
       </c>
       <c r="I17" s="3">
-        <v>30700</v>
+        <v>31100</v>
       </c>
       <c r="J17" s="3">
-        <v>17900</v>
+        <v>18100</v>
       </c>
       <c r="K17" s="3">
         <v>15400</v>
@@ -1009,25 +1009,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-268200</v>
+        <v>-271200</v>
       </c>
       <c r="E18" s="3">
-        <v>-183100</v>
+        <v>-185100</v>
       </c>
       <c r="F18" s="3">
-        <v>-131900</v>
+        <v>-133400</v>
       </c>
       <c r="G18" s="3">
-        <v>-86300</v>
+        <v>-87200</v>
       </c>
       <c r="H18" s="3">
-        <v>-49500</v>
+        <v>-50000</v>
       </c>
       <c r="I18" s="3">
-        <v>-14200</v>
+        <v>-14300</v>
       </c>
       <c r="J18" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="K18" s="3">
         <v>1700</v>
@@ -1057,19 +1057,19 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="E20" s="3">
-        <v>28900</v>
+        <v>29200</v>
       </c>
       <c r="F20" s="3">
-        <v>-15100</v>
+        <v>-15200</v>
       </c>
       <c r="G20" s="3">
         <v>5000</v>
       </c>
       <c r="H20" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="I20" s="3">
         <v>2000</v>
@@ -1090,22 +1090,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-248800</v>
+        <v>-251600</v>
       </c>
       <c r="E21" s="3">
-        <v>-153200</v>
+        <v>-154900</v>
       </c>
       <c r="F21" s="3">
-        <v>-146100</v>
+        <v>-147800</v>
       </c>
       <c r="G21" s="3">
-        <v>-80500</v>
+        <v>-81400</v>
       </c>
       <c r="H21" s="3">
-        <v>-39000</v>
+        <v>-39500</v>
       </c>
       <c r="I21" s="3">
-        <v>-11600</v>
+        <v>-11700</v>
       </c>
       <c r="J21" s="3">
         <v>6100</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E22" s="3">
         <v>200</v>
@@ -1156,22 +1156,22 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-258200</v>
+        <v>-261100</v>
       </c>
       <c r="E23" s="3">
-        <v>-154400</v>
+        <v>-156100</v>
       </c>
       <c r="F23" s="3">
-        <v>-147100</v>
+        <v>-148800</v>
       </c>
       <c r="G23" s="3">
-        <v>-81300</v>
+        <v>-82200</v>
       </c>
       <c r="H23" s="3">
-        <v>-39700</v>
+        <v>-40200</v>
       </c>
       <c r="I23" s="3">
-        <v>-12200</v>
+        <v>-12400</v>
       </c>
       <c r="J23" s="3">
         <v>5600</v>
@@ -1255,25 +1255,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-257900</v>
+        <v>-260800</v>
       </c>
       <c r="E26" s="3">
-        <v>-153900</v>
+        <v>-155600</v>
       </c>
       <c r="F26" s="3">
-        <v>-146600</v>
+        <v>-148200</v>
       </c>
       <c r="G26" s="3">
-        <v>-81000</v>
+        <v>-81900</v>
       </c>
       <c r="H26" s="3">
-        <v>-38900</v>
+        <v>-39400</v>
       </c>
       <c r="I26" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J26" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K26" s="3">
         <v>1400</v>
@@ -1288,25 +1288,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-257900</v>
+        <v>-260800</v>
       </c>
       <c r="E27" s="3">
-        <v>-153900</v>
+        <v>-155600</v>
       </c>
       <c r="F27" s="3">
-        <v>-146600</v>
+        <v>-148200</v>
       </c>
       <c r="G27" s="3">
-        <v>-81000</v>
+        <v>-81900</v>
       </c>
       <c r="H27" s="3">
-        <v>-38900</v>
+        <v>-39400</v>
       </c>
       <c r="I27" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J27" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K27" s="3">
         <v>1400</v>
@@ -1453,19 +1453,19 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11500</v>
+        <v>-11600</v>
       </c>
       <c r="E32" s="3">
-        <v>-28900</v>
+        <v>-29200</v>
       </c>
       <c r="F32" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="G32" s="3">
         <v>-5000</v>
       </c>
       <c r="H32" s="3">
-        <v>-9800</v>
+        <v>-9900</v>
       </c>
       <c r="I32" s="3">
         <v>-2000</v>
@@ -1486,25 +1486,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-257900</v>
+        <v>-260800</v>
       </c>
       <c r="E33" s="3">
-        <v>-153900</v>
+        <v>-155600</v>
       </c>
       <c r="F33" s="3">
-        <v>-146600</v>
+        <v>-148200</v>
       </c>
       <c r="G33" s="3">
-        <v>-81000</v>
+        <v>-81900</v>
       </c>
       <c r="H33" s="3">
-        <v>-38900</v>
+        <v>-39400</v>
       </c>
       <c r="I33" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J33" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K33" s="3">
         <v>1400</v>
@@ -1552,25 +1552,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-257900</v>
+        <v>-260800</v>
       </c>
       <c r="E35" s="3">
-        <v>-153900</v>
+        <v>-155600</v>
       </c>
       <c r="F35" s="3">
-        <v>-146600</v>
+        <v>-148200</v>
       </c>
       <c r="G35" s="3">
-        <v>-81000</v>
+        <v>-81900</v>
       </c>
       <c r="H35" s="3">
-        <v>-38900</v>
+        <v>-39400</v>
       </c>
       <c r="I35" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J35" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K35" s="3">
         <v>1400</v>
@@ -1653,25 +1653,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>700700</v>
+        <v>708500</v>
       </c>
       <c r="E41" s="3">
-        <v>328700</v>
+        <v>332400</v>
       </c>
       <c r="F41" s="3">
-        <v>231100</v>
+        <v>233700</v>
       </c>
       <c r="G41" s="3">
-        <v>213300</v>
+        <v>215700</v>
       </c>
       <c r="H41" s="3">
-        <v>141500</v>
+        <v>143100</v>
       </c>
       <c r="I41" s="3">
-        <v>59300</v>
+        <v>60000</v>
       </c>
       <c r="J41" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="K41" s="3">
         <v>16000</v>
@@ -1719,7 +1719,7 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="E43" s="3">
         <v>3100</v>
@@ -1785,19 +1785,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="E45" s="3">
-        <v>14700</v>
+        <v>14900</v>
       </c>
       <c r="F45" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="G45" s="3">
         <v>2300</v>
       </c>
       <c r="H45" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="I45" s="3">
         <v>700</v>
@@ -1818,25 +1818,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>722900</v>
+        <v>731100</v>
       </c>
       <c r="E46" s="3">
-        <v>346500</v>
+        <v>350400</v>
       </c>
       <c r="F46" s="3">
-        <v>242100</v>
+        <v>244800</v>
       </c>
       <c r="G46" s="3">
-        <v>217600</v>
+        <v>220100</v>
       </c>
       <c r="H46" s="3">
-        <v>148600</v>
+        <v>150300</v>
       </c>
       <c r="I46" s="3">
-        <v>62900</v>
+        <v>63600</v>
       </c>
       <c r="J46" s="3">
-        <v>25100</v>
+        <v>25400</v>
       </c>
       <c r="K46" s="3">
         <v>22700</v>
@@ -1851,10 +1851,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18400</v>
+        <v>18600</v>
       </c>
       <c r="E47" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
@@ -1884,13 +1884,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53300</v>
+        <v>53900</v>
       </c>
       <c r="E48" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="F48" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G48" s="3">
         <v>2800</v>
@@ -1902,7 +1902,7 @@
         <v>2200</v>
       </c>
       <c r="J48" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K48" s="3">
         <v>1300</v>
@@ -1917,25 +1917,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="E49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="H49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="I49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J49" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="K49" s="3">
         <v>3800</v>
@@ -2016,13 +2016,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E52" s="3">
         <v>1400</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2082,25 +2082,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>800500</v>
+        <v>809500</v>
       </c>
       <c r="E54" s="3">
-        <v>377300</v>
+        <v>381500</v>
       </c>
       <c r="F54" s="3">
-        <v>249600</v>
+        <v>252400</v>
       </c>
       <c r="G54" s="3">
-        <v>224800</v>
+        <v>227400</v>
       </c>
       <c r="H54" s="3">
-        <v>155900</v>
+        <v>157600</v>
       </c>
       <c r="I54" s="3">
-        <v>69400</v>
+        <v>70200</v>
       </c>
       <c r="J54" s="3">
-        <v>31600</v>
+        <v>31900</v>
       </c>
       <c r="K54" s="3">
         <v>27900</v>
@@ -2145,19 +2145,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>32800</v>
+        <v>33200</v>
       </c>
       <c r="E57" s="3">
-        <v>23400</v>
+        <v>23600</v>
       </c>
       <c r="F57" s="3">
-        <v>28100</v>
+        <v>28400</v>
       </c>
       <c r="G57" s="3">
-        <v>15500</v>
+        <v>15600</v>
       </c>
       <c r="H57" s="3">
-        <v>9900</v>
+        <v>10000</v>
       </c>
       <c r="I57" s="3">
         <v>5900</v>
@@ -2178,7 +2178,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7000</v>
+        <v>7100</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2211,25 +2211,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>16900</v>
+        <v>17100</v>
       </c>
       <c r="E59" s="3">
-        <v>22700</v>
+        <v>22900</v>
       </c>
       <c r="F59" s="3">
         <v>0</v>
       </c>
       <c r="G59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="H59" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="I59" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="J59" s="3">
-        <v>21100</v>
+        <v>21400</v>
       </c>
       <c r="K59" s="3">
         <v>23200</v>
@@ -2244,25 +2244,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>56800</v>
+        <v>57400</v>
       </c>
       <c r="E60" s="3">
-        <v>46000</v>
+        <v>46600</v>
       </c>
       <c r="F60" s="3">
-        <v>28100</v>
+        <v>28400</v>
       </c>
       <c r="G60" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="H60" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="I60" s="3">
-        <v>15200</v>
+        <v>15400</v>
       </c>
       <c r="J60" s="3">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="K60" s="3">
         <v>26200</v>
@@ -2277,7 +2277,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36300</v>
+        <v>36700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2442,25 +2442,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>94200</v>
+        <v>95200</v>
       </c>
       <c r="E66" s="3">
-        <v>46000</v>
+        <v>46600</v>
       </c>
       <c r="F66" s="3">
-        <v>28100</v>
+        <v>28400</v>
       </c>
       <c r="G66" s="3">
-        <v>15900</v>
+        <v>16100</v>
       </c>
       <c r="H66" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="I66" s="3">
-        <v>15200</v>
+        <v>15400</v>
       </c>
       <c r="J66" s="3">
-        <v>24100</v>
+        <v>24400</v>
       </c>
       <c r="K66" s="3">
         <v>26200</v>
@@ -2622,7 +2622,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-628600</v>
+        <v>-635700</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2631,16 +2631,16 @@
         <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>203800</v>
+        <v>206100</v>
       </c>
       <c r="H72" s="3">
-        <v>138300</v>
+        <v>139900</v>
       </c>
       <c r="I72" s="3">
-        <v>51500</v>
+        <v>52100</v>
       </c>
       <c r="J72" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K72" s="3">
         <v>1300</v>
@@ -2754,22 +2754,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>706300</v>
+        <v>714300</v>
       </c>
       <c r="E76" s="3">
-        <v>331300</v>
+        <v>335000</v>
       </c>
       <c r="F76" s="3">
-        <v>221500</v>
+        <v>223900</v>
       </c>
       <c r="G76" s="3">
-        <v>208900</v>
+        <v>211300</v>
       </c>
       <c r="H76" s="3">
-        <v>142300</v>
+        <v>143900</v>
       </c>
       <c r="I76" s="3">
-        <v>54200</v>
+        <v>54800</v>
       </c>
       <c r="J76" s="3">
         <v>7500</v>
@@ -2858,25 +2858,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-257900</v>
+        <v>-260800</v>
       </c>
       <c r="E81" s="3">
-        <v>-153900</v>
+        <v>-155600</v>
       </c>
       <c r="F81" s="3">
-        <v>-146600</v>
+        <v>-148200</v>
       </c>
       <c r="G81" s="3">
-        <v>-81000</v>
+        <v>-81900</v>
       </c>
       <c r="H81" s="3">
-        <v>-38900</v>
+        <v>-39400</v>
       </c>
       <c r="I81" s="3">
-        <v>-11400</v>
+        <v>-11600</v>
       </c>
       <c r="J81" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K81" s="3">
         <v>1400</v>
@@ -2906,10 +2906,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="E83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F83" s="3">
         <v>900</v>
@@ -3104,22 +3104,22 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-208100</v>
+        <v>-210500</v>
       </c>
       <c r="E89" s="3">
-        <v>-164200</v>
+        <v>-166000</v>
       </c>
       <c r="F89" s="3">
-        <v>-112500</v>
+        <v>-113800</v>
       </c>
       <c r="G89" s="3">
-        <v>-71200</v>
+        <v>-72000</v>
       </c>
       <c r="H89" s="3">
-        <v>-51400</v>
+        <v>-52000</v>
       </c>
       <c r="I89" s="3">
-        <v>-21800</v>
+        <v>-22000</v>
       </c>
       <c r="J89" s="3">
         <v>7500</v>
@@ -3152,10 +3152,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="E91" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="F91" s="3">
         <v>-1100</v>
@@ -3251,10 +3251,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6100</v>
+        <v>-6200</v>
       </c>
       <c r="E94" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="F94" s="3">
         <v>-1100</v>
@@ -3431,22 +3431,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>583900</v>
+        <v>590400</v>
       </c>
       <c r="E100" s="3">
-        <v>240400</v>
+        <v>243100</v>
       </c>
       <c r="F100" s="3">
-        <v>147500</v>
+        <v>149200</v>
       </c>
       <c r="G100" s="3">
-        <v>138900</v>
+        <v>140500</v>
       </c>
       <c r="H100" s="3">
-        <v>125100</v>
+        <v>126500</v>
       </c>
       <c r="I100" s="3">
-        <v>56700</v>
+        <v>57300</v>
       </c>
       <c r="J100" s="3">
         <v>-300</v>
@@ -3464,22 +3464,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9200</v>
+        <v>9300</v>
       </c>
       <c r="E101" s="3">
-        <v>24500</v>
+        <v>24800</v>
       </c>
       <c r="F101" s="3">
-        <v>-16200</v>
+        <v>-16300</v>
       </c>
       <c r="G101" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="H101" s="3">
-        <v>9800</v>
+        <v>9900</v>
       </c>
       <c r="I101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
@@ -3497,25 +3497,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>378800</v>
+        <v>383100</v>
       </c>
       <c r="E102" s="3">
-        <v>97600</v>
+        <v>98700</v>
       </c>
       <c r="F102" s="3">
-        <v>17800</v>
+        <v>18000</v>
       </c>
       <c r="G102" s="3">
-        <v>71800</v>
+        <v>72600</v>
       </c>
       <c r="H102" s="3">
-        <v>82200</v>
+        <v>83100</v>
       </c>
       <c r="I102" s="3">
-        <v>36400</v>
+        <v>36800</v>
       </c>
       <c r="J102" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="K102" s="3">
         <v>-1300</v>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,94 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>16000</v>
+        <v>8200</v>
       </c>
       <c r="E8" s="3">
-        <v>12700</v>
+        <v>15700</v>
       </c>
       <c r="F8" s="3">
+        <v>12400</v>
+      </c>
+      <c r="G8" s="3">
         <v>1800</v>
       </c>
-      <c r="G8" s="3">
-        <v>5500</v>
-      </c>
       <c r="H8" s="3">
-        <v>9700</v>
+        <v>5400</v>
       </c>
       <c r="I8" s="3">
-        <v>16700</v>
+        <v>9600</v>
       </c>
       <c r="J8" s="3">
+        <v>16400</v>
+      </c>
+      <c r="K8" s="3">
         <v>24400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>17100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,9 +783,12 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,41 +838,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>218200</v>
+        <v>292600</v>
       </c>
       <c r="E12" s="3">
-        <v>166800</v>
+        <v>214600</v>
       </c>
       <c r="F12" s="3">
-        <v>118300</v>
+        <v>164100</v>
       </c>
       <c r="G12" s="3">
-        <v>78200</v>
+        <v>116300</v>
       </c>
       <c r="H12" s="3">
-        <v>47800</v>
+        <v>76900</v>
       </c>
       <c r="I12" s="3">
-        <v>23000</v>
+        <v>47000</v>
       </c>
       <c r="J12" s="3">
+        <v>22600</v>
+      </c>
+      <c r="K12" s="3">
         <v>15200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>12500</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,9 +907,12 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -924,42 +943,48 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14300</v>
+        <v>19200</v>
       </c>
       <c r="E15" s="3">
-        <v>1100</v>
+        <v>14000</v>
       </c>
       <c r="F15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="3">
         <v>900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,74 +995,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>287200</v>
+        <v>397100</v>
       </c>
       <c r="E17" s="3">
-        <v>197800</v>
+        <v>282400</v>
       </c>
       <c r="F17" s="3">
-        <v>135300</v>
+        <v>194500</v>
       </c>
       <c r="G17" s="3">
-        <v>92700</v>
+        <v>133000</v>
       </c>
       <c r="H17" s="3">
-        <v>59700</v>
+        <v>91200</v>
       </c>
       <c r="I17" s="3">
-        <v>31100</v>
+        <v>58800</v>
       </c>
       <c r="J17" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K17" s="3">
         <v>18100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-271200</v>
+        <v>-388900</v>
       </c>
       <c r="E18" s="3">
-        <v>-185100</v>
+        <v>-266700</v>
       </c>
       <c r="F18" s="3">
-        <v>-133400</v>
+        <v>-182100</v>
       </c>
       <c r="G18" s="3">
-        <v>-87200</v>
+        <v>-131200</v>
       </c>
       <c r="H18" s="3">
-        <v>-50000</v>
+        <v>-85800</v>
       </c>
       <c r="I18" s="3">
-        <v>-14300</v>
+        <v>-49200</v>
       </c>
       <c r="J18" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="K18" s="3">
         <v>6300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1700</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,88 +1083,95 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>11600</v>
+        <v>-101900</v>
       </c>
       <c r="E20" s="3">
-        <v>29200</v>
+        <v>11400</v>
       </c>
       <c r="F20" s="3">
-        <v>-15200</v>
+        <v>28700</v>
       </c>
       <c r="G20" s="3">
-        <v>5000</v>
+        <v>-15000</v>
       </c>
       <c r="H20" s="3">
-        <v>9900</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-251600</v>
+        <v>-479700</v>
       </c>
       <c r="E21" s="3">
-        <v>-154900</v>
+        <v>-247400</v>
       </c>
       <c r="F21" s="3">
-        <v>-147800</v>
+        <v>-152300</v>
       </c>
       <c r="G21" s="3">
-        <v>-81400</v>
+        <v>-145300</v>
       </c>
       <c r="H21" s="3">
-        <v>-39500</v>
+        <v>-80100</v>
       </c>
       <c r="I21" s="3">
-        <v>-11700</v>
+        <v>-38800</v>
       </c>
       <c r="J21" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="K21" s="3">
         <v>6100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1500</v>
+        <v>2300</v>
       </c>
       <c r="E22" s="3">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
         <v>100</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1146,45 +1185,51 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-261100</v>
+        <v>-493100</v>
       </c>
       <c r="E23" s="3">
-        <v>-156100</v>
+        <v>-256700</v>
       </c>
       <c r="F23" s="3">
-        <v>-148800</v>
+        <v>-153500</v>
       </c>
       <c r="G23" s="3">
-        <v>-82200</v>
+        <v>-146300</v>
       </c>
       <c r="H23" s="3">
-        <v>-40200</v>
+        <v>-80900</v>
       </c>
       <c r="I23" s="3">
-        <v>-12400</v>
+        <v>-39500</v>
       </c>
       <c r="J23" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="K23" s="3">
         <v>5600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1400</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1192,32 +1237,35 @@
         <v>-300</v>
       </c>
       <c r="E24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F24" s="3">
         <v>-500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-800</v>
       </c>
       <c r="I24" s="3">
         <v>-800</v>
       </c>
       <c r="J24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="K24" s="3">
         <v>700</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,75 +1296,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-260800</v>
+        <v>-492900</v>
       </c>
       <c r="E26" s="3">
-        <v>-155600</v>
+        <v>-256500</v>
       </c>
       <c r="F26" s="3">
-        <v>-148200</v>
+        <v>-153000</v>
       </c>
       <c r="G26" s="3">
-        <v>-81900</v>
+        <v>-145800</v>
       </c>
       <c r="H26" s="3">
-        <v>-39400</v>
+        <v>-80600</v>
       </c>
       <c r="I26" s="3">
-        <v>-11600</v>
+        <v>-38700</v>
       </c>
       <c r="J26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K26" s="3">
         <v>4900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1400</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-260800</v>
+        <v>-492900</v>
       </c>
       <c r="E27" s="3">
-        <v>-155600</v>
+        <v>-256500</v>
       </c>
       <c r="F27" s="3">
-        <v>-148200</v>
+        <v>-153000</v>
       </c>
       <c r="G27" s="3">
-        <v>-81900</v>
+        <v>-145800</v>
       </c>
       <c r="H27" s="3">
-        <v>-39400</v>
+        <v>-80600</v>
       </c>
       <c r="I27" s="3">
-        <v>-11600</v>
+        <v>-38700</v>
       </c>
       <c r="J27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K27" s="3">
         <v>4900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1400</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,75 +1512,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-11600</v>
+        <v>101900</v>
       </c>
       <c r="E32" s="3">
-        <v>-29200</v>
+        <v>-11400</v>
       </c>
       <c r="F32" s="3">
-        <v>15200</v>
+        <v>-28700</v>
       </c>
       <c r="G32" s="3">
-        <v>-5000</v>
+        <v>15000</v>
       </c>
       <c r="H32" s="3">
-        <v>-9900</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-260800</v>
+        <v>-492900</v>
       </c>
       <c r="E33" s="3">
-        <v>-155600</v>
+        <v>-256500</v>
       </c>
       <c r="F33" s="3">
-        <v>-148200</v>
+        <v>-153000</v>
       </c>
       <c r="G33" s="3">
-        <v>-81900</v>
+        <v>-145800</v>
       </c>
       <c r="H33" s="3">
-        <v>-39400</v>
+        <v>-80600</v>
       </c>
       <c r="I33" s="3">
-        <v>-11600</v>
+        <v>-38700</v>
       </c>
       <c r="J33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K33" s="3">
         <v>4900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1400</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,80 +1620,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-260800</v>
+        <v>-492900</v>
       </c>
       <c r="E35" s="3">
-        <v>-155600</v>
+        <v>-256500</v>
       </c>
       <c r="F35" s="3">
-        <v>-148200</v>
+        <v>-153000</v>
       </c>
       <c r="G35" s="3">
-        <v>-81900</v>
+        <v>-145800</v>
       </c>
       <c r="H35" s="3">
-        <v>-39400</v>
+        <v>-80600</v>
       </c>
       <c r="I35" s="3">
-        <v>-11600</v>
+        <v>-38700</v>
       </c>
       <c r="J35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K35" s="3">
         <v>4900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1400</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,64 +1732,68 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>708500</v>
+        <v>687600</v>
       </c>
       <c r="E41" s="3">
-        <v>332400</v>
+        <v>696800</v>
       </c>
       <c r="F41" s="3">
-        <v>233700</v>
+        <v>326900</v>
       </c>
       <c r="G41" s="3">
-        <v>215700</v>
+        <v>229800</v>
       </c>
       <c r="H41" s="3">
-        <v>143100</v>
+        <v>212100</v>
       </c>
       <c r="I41" s="3">
-        <v>60000</v>
+        <v>140800</v>
       </c>
       <c r="J41" s="3">
+        <v>59000</v>
+      </c>
+      <c r="K41" s="3">
         <v>23200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>16000</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>158000</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1712,42 +1801,48 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6500</v>
+        <v>8600</v>
       </c>
       <c r="E43" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2800</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>6700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,86 +1873,95 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16100</v>
+        <v>16500</v>
       </c>
       <c r="E45" s="3">
-        <v>14900</v>
+        <v>15800</v>
       </c>
       <c r="F45" s="3">
-        <v>8300</v>
+        <v>14600</v>
       </c>
       <c r="G45" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H45" s="3">
         <v>2300</v>
       </c>
-      <c r="H45" s="3">
-        <v>4600</v>
-      </c>
       <c r="I45" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>100</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>731100</v>
+        <v>870700</v>
       </c>
       <c r="E46" s="3">
-        <v>350400</v>
+        <v>719000</v>
       </c>
       <c r="F46" s="3">
-        <v>244800</v>
+        <v>344600</v>
       </c>
       <c r="G46" s="3">
-        <v>220100</v>
+        <v>240700</v>
       </c>
       <c r="H46" s="3">
-        <v>150300</v>
+        <v>216400</v>
       </c>
       <c r="I46" s="3">
-        <v>63600</v>
+        <v>147800</v>
       </c>
       <c r="J46" s="3">
+        <v>62500</v>
+      </c>
+      <c r="K46" s="3">
         <v>25400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>22700</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18600</v>
+        <v>148000</v>
       </c>
       <c r="E47" s="3">
-        <v>20400</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
+        <v>18300</v>
+      </c>
+      <c r="F47" s="3">
+        <v>20100</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1874,78 +1978,87 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>53900</v>
+        <v>127200</v>
       </c>
       <c r="E48" s="3">
-        <v>5200</v>
+        <v>53000</v>
       </c>
       <c r="F48" s="3">
-        <v>3100</v>
+        <v>5100</v>
       </c>
       <c r="G48" s="3">
-        <v>2800</v>
+        <v>3000</v>
       </c>
       <c r="H48" s="3">
         <v>2800</v>
       </c>
       <c r="I48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J48" s="3">
         <v>2200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1300</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K49" s="3">
         <v>4200</v>
       </c>
-      <c r="E49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="F49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="G49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="H49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="I49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4200</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,20 +2125,23 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>1800</v>
+      <c r="D52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E52" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F52" s="3">
         <v>1400</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2031,20 +2150,23 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>300</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,42 +2197,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>809500</v>
+        <v>1152600</v>
       </c>
       <c r="E54" s="3">
-        <v>381500</v>
+        <v>796100</v>
       </c>
       <c r="F54" s="3">
-        <v>252400</v>
+        <v>375200</v>
       </c>
       <c r="G54" s="3">
-        <v>227400</v>
+        <v>248200</v>
       </c>
       <c r="H54" s="3">
-        <v>157600</v>
+        <v>223600</v>
       </c>
       <c r="I54" s="3">
-        <v>70200</v>
+        <v>155000</v>
       </c>
       <c r="J54" s="3">
+        <v>69000</v>
+      </c>
+      <c r="K54" s="3">
         <v>31900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>27900</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,49 +2268,53 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>33200</v>
+        <v>25800</v>
       </c>
       <c r="E57" s="3">
-        <v>23600</v>
+        <v>32700</v>
       </c>
       <c r="F57" s="3">
-        <v>28400</v>
+        <v>23200</v>
       </c>
       <c r="G57" s="3">
-        <v>15600</v>
+        <v>28000</v>
       </c>
       <c r="H57" s="3">
-        <v>10000</v>
+        <v>15400</v>
       </c>
       <c r="I57" s="3">
-        <v>5900</v>
+        <v>9800</v>
       </c>
       <c r="J57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K57" s="3">
         <v>3000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2800</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7100</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
+        <v>8100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2192,95 +2325,104 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
+      <c r="I58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>17100</v>
+        <v>28300</v>
       </c>
       <c r="E59" s="3">
-        <v>22900</v>
+        <v>16900</v>
       </c>
       <c r="F59" s="3">
-        <v>0</v>
+        <v>22600</v>
       </c>
       <c r="G59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>3700</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>9500</v>
+        <v>3600</v>
       </c>
       <c r="J59" s="3">
+        <v>9300</v>
+      </c>
+      <c r="K59" s="3">
         <v>21400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>23200</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>57400</v>
+        <v>62100</v>
       </c>
       <c r="E60" s="3">
-        <v>46600</v>
+        <v>56500</v>
       </c>
       <c r="F60" s="3">
-        <v>28400</v>
+        <v>45800</v>
       </c>
       <c r="G60" s="3">
-        <v>16100</v>
+        <v>28000</v>
       </c>
       <c r="H60" s="3">
-        <v>13700</v>
+        <v>15800</v>
       </c>
       <c r="I60" s="3">
-        <v>15400</v>
+        <v>13500</v>
       </c>
       <c r="J60" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K60" s="3">
         <v>24400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>26200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>36700</v>
+        <v>100100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>36100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2303,18 +2445,21 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,15 +2475,18 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,42 +2589,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>95200</v>
+        <v>166000</v>
       </c>
       <c r="E66" s="3">
-        <v>46600</v>
+        <v>93700</v>
       </c>
       <c r="F66" s="3">
-        <v>28400</v>
+        <v>45800</v>
       </c>
       <c r="G66" s="3">
-        <v>16100</v>
+        <v>28000</v>
       </c>
       <c r="H66" s="3">
-        <v>13700</v>
+        <v>15800</v>
       </c>
       <c r="I66" s="3">
-        <v>15400</v>
+        <v>13500</v>
       </c>
       <c r="J66" s="3">
+        <v>15100</v>
+      </c>
+      <c r="K66" s="3">
         <v>24400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26200</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,42 +2785,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-635700</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
+        <v>-1055400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-625100</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="3">
-        <v>206100</v>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H72" s="3">
-        <v>139900</v>
+        <v>202600</v>
       </c>
       <c r="I72" s="3">
-        <v>52100</v>
+        <v>137600</v>
       </c>
       <c r="J72" s="3">
+        <v>51200</v>
+      </c>
+      <c r="K72" s="3">
         <v>5800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1300</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,42 +2929,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>714300</v>
+        <v>986700</v>
       </c>
       <c r="E76" s="3">
-        <v>335000</v>
+        <v>702400</v>
       </c>
       <c r="F76" s="3">
-        <v>223900</v>
+        <v>329500</v>
       </c>
       <c r="G76" s="3">
-        <v>211300</v>
+        <v>220200</v>
       </c>
       <c r="H76" s="3">
-        <v>143900</v>
+        <v>207800</v>
       </c>
       <c r="I76" s="3">
-        <v>54800</v>
+        <v>141600</v>
       </c>
       <c r="J76" s="3">
+        <v>53900</v>
+      </c>
+      <c r="K76" s="3">
         <v>7500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,80 +3001,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-260800</v>
+        <v>-492900</v>
       </c>
       <c r="E81" s="3">
-        <v>-155600</v>
+        <v>-256500</v>
       </c>
       <c r="F81" s="3">
-        <v>-148200</v>
+        <v>-153000</v>
       </c>
       <c r="G81" s="3">
-        <v>-81900</v>
+        <v>-145800</v>
       </c>
       <c r="H81" s="3">
-        <v>-39400</v>
+        <v>-80600</v>
       </c>
       <c r="I81" s="3">
-        <v>-11600</v>
+        <v>-38700</v>
       </c>
       <c r="J81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="K81" s="3">
         <v>4900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1400</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,41 +3097,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8000</v>
+        <v>11100</v>
       </c>
       <c r="E83" s="3">
-        <v>1100</v>
+        <v>7900</v>
       </c>
       <c r="F83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
-      </c>
-      <c r="J83" s="3">
-        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>500</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,42 +3310,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-210500</v>
+        <v>-319400</v>
       </c>
       <c r="E89" s="3">
-        <v>-166000</v>
+        <v>-207000</v>
       </c>
       <c r="F89" s="3">
-        <v>-113800</v>
+        <v>-163300</v>
       </c>
       <c r="G89" s="3">
-        <v>-72000</v>
+        <v>-111900</v>
       </c>
       <c r="H89" s="3">
-        <v>-52000</v>
+        <v>-70800</v>
       </c>
       <c r="I89" s="3">
-        <v>-22000</v>
+        <v>-51100</v>
       </c>
       <c r="J89" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="K89" s="3">
         <v>7500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,41 +3365,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-6200</v>
+        <v>-23400</v>
       </c>
       <c r="E91" s="3">
-        <v>-3200</v>
+        <v>-6100</v>
       </c>
       <c r="F91" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,42 +3470,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-6200</v>
+        <v>-342600</v>
       </c>
       <c r="E94" s="3">
-        <v>-3200</v>
+        <v>-6100</v>
       </c>
       <c r="F94" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,65 +3666,71 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>590400</v>
+        <v>709000</v>
       </c>
       <c r="E100" s="3">
-        <v>243100</v>
+        <v>580700</v>
       </c>
       <c r="F100" s="3">
-        <v>149200</v>
+        <v>239100</v>
       </c>
       <c r="G100" s="3">
-        <v>140500</v>
+        <v>146700</v>
       </c>
       <c r="H100" s="3">
-        <v>126500</v>
+        <v>138200</v>
       </c>
       <c r="I100" s="3">
-        <v>57300</v>
+        <v>124400</v>
       </c>
       <c r="J100" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9300</v>
+        <v>-62900</v>
       </c>
       <c r="E101" s="3">
-        <v>24800</v>
+        <v>9100</v>
       </c>
       <c r="F101" s="3">
-        <v>-16300</v>
+        <v>24300</v>
       </c>
       <c r="G101" s="3">
-        <v>4900</v>
+        <v>-16100</v>
       </c>
       <c r="H101" s="3">
-        <v>9900</v>
+        <v>4800</v>
       </c>
       <c r="I101" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>9700</v>
+      </c>
+      <c r="J101" s="3">
+        <v>1900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3490,40 +3738,46 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>383100</v>
+        <v>-16000</v>
       </c>
       <c r="E102" s="3">
-        <v>98700</v>
+        <v>376700</v>
       </c>
       <c r="F102" s="3">
-        <v>18000</v>
+        <v>97100</v>
       </c>
       <c r="G102" s="3">
-        <v>72600</v>
+        <v>17700</v>
       </c>
       <c r="H102" s="3">
-        <v>83100</v>
+        <v>71400</v>
       </c>
       <c r="I102" s="3">
-        <v>36800</v>
+        <v>81700</v>
       </c>
       <c r="J102" s="3">
+        <v>36200</v>
+      </c>
+      <c r="K102" s="3">
         <v>5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8200</v>
+        <v>8500</v>
       </c>
       <c r="E8" s="3">
-        <v>15700</v>
+        <v>16400</v>
       </c>
       <c r="F8" s="3">
-        <v>12400</v>
+        <v>13000</v>
       </c>
       <c r="G8" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H8" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="I8" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="J8" s="3">
-        <v>16400</v>
+        <v>17100</v>
       </c>
       <c r="K8" s="3">
         <v>24400</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>292600</v>
+        <v>304700</v>
       </c>
       <c r="E12" s="3">
-        <v>214600</v>
+        <v>223400</v>
       </c>
       <c r="F12" s="3">
-        <v>164100</v>
+        <v>170800</v>
       </c>
       <c r="G12" s="3">
-        <v>116300</v>
+        <v>121100</v>
       </c>
       <c r="H12" s="3">
-        <v>76900</v>
+        <v>80100</v>
       </c>
       <c r="I12" s="3">
-        <v>47000</v>
+        <v>49000</v>
       </c>
       <c r="J12" s="3">
-        <v>22600</v>
+        <v>23500</v>
       </c>
       <c r="K12" s="3">
         <v>15200</v>
@@ -953,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19200</v>
+        <v>20000</v>
       </c>
       <c r="E15" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="F15" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>397100</v>
+        <v>413500</v>
       </c>
       <c r="E17" s="3">
-        <v>282400</v>
+        <v>294100</v>
       </c>
       <c r="F17" s="3">
-        <v>194500</v>
+        <v>202500</v>
       </c>
       <c r="G17" s="3">
-        <v>133000</v>
+        <v>138500</v>
       </c>
       <c r="H17" s="3">
-        <v>91200</v>
+        <v>95000</v>
       </c>
       <c r="I17" s="3">
-        <v>58800</v>
+        <v>61200</v>
       </c>
       <c r="J17" s="3">
-        <v>30600</v>
+        <v>31800</v>
       </c>
       <c r="K17" s="3">
         <v>18100</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-388900</v>
+        <v>-405000</v>
       </c>
       <c r="E18" s="3">
-        <v>-266700</v>
+        <v>-277700</v>
       </c>
       <c r="F18" s="3">
-        <v>-182100</v>
+        <v>-189600</v>
       </c>
       <c r="G18" s="3">
-        <v>-131200</v>
+        <v>-136600</v>
       </c>
       <c r="H18" s="3">
-        <v>-85800</v>
+        <v>-89300</v>
       </c>
       <c r="I18" s="3">
-        <v>-49200</v>
+        <v>-51200</v>
       </c>
       <c r="J18" s="3">
-        <v>-14100</v>
+        <v>-14700</v>
       </c>
       <c r="K18" s="3">
         <v>6300</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-101900</v>
+        <v>-106100</v>
       </c>
       <c r="E20" s="3">
-        <v>11400</v>
+        <v>11900</v>
       </c>
       <c r="F20" s="3">
-        <v>28700</v>
+        <v>29900</v>
       </c>
       <c r="G20" s="3">
-        <v>-15000</v>
+        <v>-15600</v>
       </c>
       <c r="H20" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="I20" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="J20" s="3">
         <v>2000</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-479700</v>
+        <v>-499600</v>
       </c>
       <c r="E21" s="3">
-        <v>-247400</v>
+        <v>-257700</v>
       </c>
       <c r="F21" s="3">
-        <v>-152300</v>
+        <v>-158600</v>
       </c>
       <c r="G21" s="3">
-        <v>-145300</v>
+        <v>-151300</v>
       </c>
       <c r="H21" s="3">
-        <v>-80100</v>
+        <v>-83400</v>
       </c>
       <c r="I21" s="3">
-        <v>-38800</v>
+        <v>-40400</v>
       </c>
       <c r="J21" s="3">
-        <v>-11500</v>
+        <v>-12000</v>
       </c>
       <c r="K21" s="3">
         <v>6100</v>
@@ -1165,10 +1165,10 @@
         <v>2300</v>
       </c>
       <c r="E22" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-493100</v>
+        <v>-513500</v>
       </c>
       <c r="E23" s="3">
-        <v>-256700</v>
+        <v>-267400</v>
       </c>
       <c r="F23" s="3">
-        <v>-153500</v>
+        <v>-159900</v>
       </c>
       <c r="G23" s="3">
-        <v>-146300</v>
+        <v>-152400</v>
       </c>
       <c r="H23" s="3">
-        <v>-80900</v>
+        <v>-84200</v>
       </c>
       <c r="I23" s="3">
-        <v>-39500</v>
+        <v>-41100</v>
       </c>
       <c r="J23" s="3">
-        <v>-12200</v>
+        <v>-12700</v>
       </c>
       <c r="K23" s="3">
         <v>5600</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-492900</v>
+        <v>-513200</v>
       </c>
       <c r="E26" s="3">
-        <v>-256500</v>
+        <v>-267100</v>
       </c>
       <c r="F26" s="3">
-        <v>-153000</v>
+        <v>-159400</v>
       </c>
       <c r="G26" s="3">
-        <v>-145800</v>
+        <v>-151800</v>
       </c>
       <c r="H26" s="3">
-        <v>-80600</v>
+        <v>-83900</v>
       </c>
       <c r="I26" s="3">
-        <v>-38700</v>
+        <v>-40300</v>
       </c>
       <c r="J26" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="K26" s="3">
         <v>4900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-492900</v>
+        <v>-513200</v>
       </c>
       <c r="E27" s="3">
-        <v>-256500</v>
+        <v>-267100</v>
       </c>
       <c r="F27" s="3">
-        <v>-153000</v>
+        <v>-159400</v>
       </c>
       <c r="G27" s="3">
-        <v>-145800</v>
+        <v>-151800</v>
       </c>
       <c r="H27" s="3">
-        <v>-80600</v>
+        <v>-83900</v>
       </c>
       <c r="I27" s="3">
-        <v>-38700</v>
+        <v>-40300</v>
       </c>
       <c r="J27" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="K27" s="3">
         <v>4900</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>101900</v>
+        <v>106100</v>
       </c>
       <c r="E32" s="3">
-        <v>-11400</v>
+        <v>-11900</v>
       </c>
       <c r="F32" s="3">
-        <v>-28700</v>
+        <v>-29900</v>
       </c>
       <c r="G32" s="3">
-        <v>15000</v>
+        <v>15600</v>
       </c>
       <c r="H32" s="3">
-        <v>-4900</v>
+        <v>-5100</v>
       </c>
       <c r="I32" s="3">
-        <v>-9700</v>
+        <v>-10100</v>
       </c>
       <c r="J32" s="3">
         <v>-2000</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-492900</v>
+        <v>-513200</v>
       </c>
       <c r="E33" s="3">
-        <v>-256500</v>
+        <v>-267100</v>
       </c>
       <c r="F33" s="3">
-        <v>-153000</v>
+        <v>-159400</v>
       </c>
       <c r="G33" s="3">
-        <v>-145800</v>
+        <v>-151800</v>
       </c>
       <c r="H33" s="3">
-        <v>-80600</v>
+        <v>-83900</v>
       </c>
       <c r="I33" s="3">
-        <v>-38700</v>
+        <v>-40300</v>
       </c>
       <c r="J33" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="K33" s="3">
         <v>4900</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-492900</v>
+        <v>-513200</v>
       </c>
       <c r="E35" s="3">
-        <v>-256500</v>
+        <v>-267100</v>
       </c>
       <c r="F35" s="3">
-        <v>-153000</v>
+        <v>-159400</v>
       </c>
       <c r="G35" s="3">
-        <v>-145800</v>
+        <v>-151800</v>
       </c>
       <c r="H35" s="3">
-        <v>-80600</v>
+        <v>-83900</v>
       </c>
       <c r="I35" s="3">
-        <v>-38700</v>
+        <v>-40300</v>
       </c>
       <c r="J35" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="K35" s="3">
         <v>4900</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>687600</v>
+        <v>716000</v>
       </c>
       <c r="E41" s="3">
-        <v>696800</v>
+        <v>725600</v>
       </c>
       <c r="F41" s="3">
-        <v>326900</v>
+        <v>340400</v>
       </c>
       <c r="G41" s="3">
-        <v>229800</v>
+        <v>239300</v>
       </c>
       <c r="H41" s="3">
-        <v>212100</v>
+        <v>220900</v>
       </c>
       <c r="I41" s="3">
-        <v>140800</v>
+        <v>146600</v>
       </c>
       <c r="J41" s="3">
-        <v>59000</v>
+        <v>61500</v>
       </c>
       <c r="K41" s="3">
         <v>23200</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>158000</v>
+        <v>164500</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8600</v>
+        <v>9000</v>
       </c>
       <c r="E43" s="3">
-        <v>6400</v>
+        <v>6600</v>
       </c>
       <c r="F43" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="G43" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="H43" s="3">
         <v>2000</v>
       </c>
       <c r="I43" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="J43" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="K43" s="3">
         <v>2000</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16500</v>
+        <v>17100</v>
       </c>
       <c r="E45" s="3">
-        <v>15800</v>
+        <v>16400</v>
       </c>
       <c r="F45" s="3">
-        <v>14600</v>
+        <v>15200</v>
       </c>
       <c r="G45" s="3">
-        <v>8100</v>
+        <v>8500</v>
       </c>
       <c r="H45" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I45" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="J45" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>870700</v>
+        <v>906700</v>
       </c>
       <c r="E46" s="3">
-        <v>719000</v>
+        <v>748700</v>
       </c>
       <c r="F46" s="3">
-        <v>344600</v>
+        <v>358800</v>
       </c>
       <c r="G46" s="3">
-        <v>240700</v>
+        <v>250700</v>
       </c>
       <c r="H46" s="3">
-        <v>216400</v>
+        <v>225300</v>
       </c>
       <c r="I46" s="3">
-        <v>147800</v>
+        <v>153900</v>
       </c>
       <c r="J46" s="3">
-        <v>62500</v>
+        <v>65100</v>
       </c>
       <c r="K46" s="3">
         <v>25400</v>
@@ -1955,13 +1955,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>148000</v>
+        <v>154100</v>
       </c>
       <c r="E47" s="3">
-        <v>18300</v>
+        <v>19000</v>
       </c>
       <c r="F47" s="3">
-        <v>20100</v>
+        <v>20900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>127200</v>
+        <v>132400</v>
       </c>
       <c r="E48" s="3">
-        <v>53000</v>
+        <v>55200</v>
       </c>
       <c r="F48" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="G48" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="J48" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K48" s="3">
         <v>2400</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6700</v>
+        <v>7000</v>
       </c>
       <c r="E49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="F49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="G49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="H49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="I49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="J49" s="3">
-        <v>4100</v>
+        <v>4300</v>
       </c>
       <c r="K49" s="3">
         <v>4200</v>
@@ -2138,13 +2138,13 @@
         <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
       </c>
       <c r="G52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1152600</v>
+        <v>1200200</v>
       </c>
       <c r="E54" s="3">
-        <v>796100</v>
+        <v>829000</v>
       </c>
       <c r="F54" s="3">
-        <v>375200</v>
+        <v>390700</v>
       </c>
       <c r="G54" s="3">
-        <v>248200</v>
+        <v>258400</v>
       </c>
       <c r="H54" s="3">
-        <v>223600</v>
+        <v>232800</v>
       </c>
       <c r="I54" s="3">
-        <v>155000</v>
+        <v>161400</v>
       </c>
       <c r="J54" s="3">
-        <v>69000</v>
+        <v>71900</v>
       </c>
       <c r="K54" s="3">
         <v>31900</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25800</v>
+        <v>26800</v>
       </c>
       <c r="E57" s="3">
-        <v>32700</v>
+        <v>34000</v>
       </c>
       <c r="F57" s="3">
-        <v>23200</v>
+        <v>24200</v>
       </c>
       <c r="G57" s="3">
-        <v>28000</v>
+        <v>29100</v>
       </c>
       <c r="H57" s="3">
-        <v>15400</v>
+        <v>16000</v>
       </c>
       <c r="I57" s="3">
-        <v>9800</v>
+        <v>10300</v>
       </c>
       <c r="J57" s="3">
-        <v>5800</v>
+        <v>6100</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
@@ -2311,10 +2311,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8100</v>
+        <v>8400</v>
       </c>
       <c r="E58" s="3">
-        <v>6900</v>
+        <v>7200</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28300</v>
+        <v>29500</v>
       </c>
       <c r="E59" s="3">
-        <v>16900</v>
+        <v>17500</v>
       </c>
       <c r="F59" s="3">
-        <v>22600</v>
+        <v>23500</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="I59" s="3">
-        <v>3600</v>
+        <v>3800</v>
       </c>
       <c r="J59" s="3">
-        <v>9300</v>
+        <v>9700</v>
       </c>
       <c r="K59" s="3">
         <v>21400</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>62100</v>
+        <v>64700</v>
       </c>
       <c r="E60" s="3">
-        <v>56500</v>
+        <v>58800</v>
       </c>
       <c r="F60" s="3">
-        <v>45800</v>
+        <v>47700</v>
       </c>
       <c r="G60" s="3">
-        <v>28000</v>
+        <v>29100</v>
       </c>
       <c r="H60" s="3">
+        <v>16500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J60" s="3">
         <v>15800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>13500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>15100</v>
       </c>
       <c r="K60" s="3">
         <v>24400</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100100</v>
+        <v>104300</v>
       </c>
       <c r="E61" s="3">
-        <v>36100</v>
+        <v>37600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>166000</v>
+        <v>172800</v>
       </c>
       <c r="E66" s="3">
-        <v>93700</v>
+        <v>97500</v>
       </c>
       <c r="F66" s="3">
-        <v>45800</v>
+        <v>47700</v>
       </c>
       <c r="G66" s="3">
-        <v>28000</v>
+        <v>29100</v>
       </c>
       <c r="H66" s="3">
+        <v>16500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>14000</v>
+      </c>
+      <c r="J66" s="3">
         <v>15800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>13500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>15100</v>
       </c>
       <c r="K66" s="3">
         <v>24400</v>
@@ -2795,10 +2795,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1055400</v>
+        <v>-1099000</v>
       </c>
       <c r="E72" s="3">
-        <v>-625100</v>
+        <v>-650900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2807,13 +2807,13 @@
         <v>3</v>
       </c>
       <c r="H72" s="3">
-        <v>202600</v>
+        <v>211000</v>
       </c>
       <c r="I72" s="3">
-        <v>137600</v>
+        <v>143300</v>
       </c>
       <c r="J72" s="3">
-        <v>51200</v>
+        <v>53300</v>
       </c>
       <c r="K72" s="3">
         <v>5800</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>986700</v>
+        <v>1027400</v>
       </c>
       <c r="E76" s="3">
-        <v>702400</v>
+        <v>731500</v>
       </c>
       <c r="F76" s="3">
-        <v>329500</v>
+        <v>343100</v>
       </c>
       <c r="G76" s="3">
-        <v>220200</v>
+        <v>229300</v>
       </c>
       <c r="H76" s="3">
-        <v>207800</v>
+        <v>216300</v>
       </c>
       <c r="I76" s="3">
-        <v>141600</v>
+        <v>147400</v>
       </c>
       <c r="J76" s="3">
-        <v>53900</v>
+        <v>56100</v>
       </c>
       <c r="K76" s="3">
         <v>7500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-492900</v>
+        <v>-513200</v>
       </c>
       <c r="E81" s="3">
-        <v>-256500</v>
+        <v>-267100</v>
       </c>
       <c r="F81" s="3">
-        <v>-153000</v>
+        <v>-159400</v>
       </c>
       <c r="G81" s="3">
-        <v>-145800</v>
+        <v>-151800</v>
       </c>
       <c r="H81" s="3">
-        <v>-80600</v>
+        <v>-83900</v>
       </c>
       <c r="I81" s="3">
-        <v>-38700</v>
+        <v>-40300</v>
       </c>
       <c r="J81" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="K81" s="3">
         <v>4900</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11100</v>
+        <v>11600</v>
       </c>
       <c r="E83" s="3">
-        <v>7900</v>
+        <v>8200</v>
       </c>
       <c r="F83" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-319400</v>
+        <v>-332600</v>
       </c>
       <c r="E89" s="3">
-        <v>-207000</v>
+        <v>-215500</v>
       </c>
       <c r="F89" s="3">
-        <v>-163300</v>
+        <v>-170000</v>
       </c>
       <c r="G89" s="3">
-        <v>-111900</v>
+        <v>-116500</v>
       </c>
       <c r="H89" s="3">
-        <v>-70800</v>
+        <v>-73700</v>
       </c>
       <c r="I89" s="3">
-        <v>-51100</v>
+        <v>-53200</v>
       </c>
       <c r="J89" s="3">
-        <v>-21600</v>
+        <v>-22500</v>
       </c>
       <c r="K89" s="3">
         <v>7500</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23400</v>
+        <v>-24300</v>
       </c>
       <c r="E91" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G91" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H91" s="3">
         <v>-800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-342600</v>
+        <v>-356700</v>
       </c>
       <c r="E94" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="F94" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G94" s="3">
-        <v>-1100</v>
+        <v>-1200</v>
       </c>
       <c r="H94" s="3">
         <v>-800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="J94" s="3">
         <v>-500</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>709000</v>
+        <v>738200</v>
       </c>
       <c r="E100" s="3">
-        <v>580700</v>
+        <v>604600</v>
       </c>
       <c r="F100" s="3">
-        <v>239100</v>
+        <v>249000</v>
       </c>
       <c r="G100" s="3">
-        <v>146700</v>
+        <v>152800</v>
       </c>
       <c r="H100" s="3">
-        <v>138200</v>
+        <v>143900</v>
       </c>
       <c r="I100" s="3">
-        <v>124400</v>
+        <v>129500</v>
       </c>
       <c r="J100" s="3">
-        <v>56400</v>
+        <v>58700</v>
       </c>
       <c r="K100" s="3">
         <v>-300</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-62900</v>
+        <v>-65500</v>
       </c>
       <c r="E101" s="3">
-        <v>9100</v>
+        <v>9500</v>
       </c>
       <c r="F101" s="3">
-        <v>24300</v>
+        <v>25300</v>
       </c>
       <c r="G101" s="3">
-        <v>-16100</v>
+        <v>-16700</v>
       </c>
       <c r="H101" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="I101" s="3">
-        <v>9700</v>
+        <v>10100</v>
       </c>
       <c r="J101" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16000</v>
+        <v>-16600</v>
       </c>
       <c r="E102" s="3">
-        <v>376700</v>
+        <v>392300</v>
       </c>
       <c r="F102" s="3">
-        <v>97100</v>
+        <v>101100</v>
       </c>
       <c r="G102" s="3">
-        <v>17700</v>
+        <v>18400</v>
       </c>
       <c r="H102" s="3">
-        <v>71400</v>
+        <v>74300</v>
       </c>
       <c r="I102" s="3">
-        <v>81700</v>
+        <v>85100</v>
       </c>
       <c r="J102" s="3">
-        <v>36200</v>
+        <v>37700</v>
       </c>
       <c r="K102" s="3">
         <v>5900</v>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="E8" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="F8" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="G8" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H8" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="I8" s="3">
-        <v>9900</v>
+        <v>9500</v>
       </c>
       <c r="J8" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="K8" s="3">
         <v>24400</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>304700</v>
+        <v>290300</v>
       </c>
       <c r="E12" s="3">
-        <v>223400</v>
+        <v>212900</v>
       </c>
       <c r="F12" s="3">
-        <v>170800</v>
+        <v>162800</v>
       </c>
       <c r="G12" s="3">
-        <v>121100</v>
+        <v>115400</v>
       </c>
       <c r="H12" s="3">
-        <v>80100</v>
+        <v>76300</v>
       </c>
       <c r="I12" s="3">
-        <v>49000</v>
+        <v>46700</v>
       </c>
       <c r="J12" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="K12" s="3">
         <v>15200</v>
@@ -953,13 +953,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>20000</v>
+        <v>19000</v>
       </c>
       <c r="E15" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="F15" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>413500</v>
+        <v>394100</v>
       </c>
       <c r="E17" s="3">
-        <v>294100</v>
+        <v>280300</v>
       </c>
       <c r="F17" s="3">
-        <v>202500</v>
+        <v>193000</v>
       </c>
       <c r="G17" s="3">
-        <v>138500</v>
+        <v>132000</v>
       </c>
       <c r="H17" s="3">
-        <v>95000</v>
+        <v>90500</v>
       </c>
       <c r="I17" s="3">
-        <v>61200</v>
+        <v>58300</v>
       </c>
       <c r="J17" s="3">
-        <v>31800</v>
+        <v>30300</v>
       </c>
       <c r="K17" s="3">
         <v>18100</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-405000</v>
+        <v>-386000</v>
       </c>
       <c r="E18" s="3">
-        <v>-277700</v>
+        <v>-264700</v>
       </c>
       <c r="F18" s="3">
-        <v>-189600</v>
+        <v>-180700</v>
       </c>
       <c r="G18" s="3">
-        <v>-136600</v>
+        <v>-130200</v>
       </c>
       <c r="H18" s="3">
-        <v>-89300</v>
+        <v>-85100</v>
       </c>
       <c r="I18" s="3">
-        <v>-51200</v>
+        <v>-48800</v>
       </c>
       <c r="J18" s="3">
-        <v>-14700</v>
+        <v>-14000</v>
       </c>
       <c r="K18" s="3">
         <v>6300</v>
@@ -1090,25 +1090,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-106100</v>
+        <v>-101100</v>
       </c>
       <c r="E20" s="3">
-        <v>11900</v>
+        <v>11300</v>
       </c>
       <c r="F20" s="3">
-        <v>29900</v>
+        <v>28500</v>
       </c>
       <c r="G20" s="3">
-        <v>-15600</v>
+        <v>-14900</v>
       </c>
       <c r="H20" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="I20" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="J20" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K20" s="3">
         <v>-700</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-499600</v>
+        <v>-476000</v>
       </c>
       <c r="E21" s="3">
-        <v>-257700</v>
+        <v>-245500</v>
       </c>
       <c r="F21" s="3">
-        <v>-158600</v>
+        <v>-151200</v>
       </c>
       <c r="G21" s="3">
-        <v>-151300</v>
+        <v>-144200</v>
       </c>
       <c r="H21" s="3">
-        <v>-83400</v>
+        <v>-79400</v>
       </c>
       <c r="I21" s="3">
-        <v>-40400</v>
+        <v>-38500</v>
       </c>
       <c r="J21" s="3">
-        <v>-12000</v>
+        <v>-11500</v>
       </c>
       <c r="K21" s="3">
         <v>6100</v>
@@ -1162,13 +1162,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E22" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-513500</v>
+        <v>-489300</v>
       </c>
       <c r="E23" s="3">
-        <v>-267400</v>
+        <v>-254800</v>
       </c>
       <c r="F23" s="3">
-        <v>-159900</v>
+        <v>-152300</v>
       </c>
       <c r="G23" s="3">
-        <v>-152400</v>
+        <v>-145200</v>
       </c>
       <c r="H23" s="3">
-        <v>-84200</v>
+        <v>-80200</v>
       </c>
       <c r="I23" s="3">
-        <v>-41100</v>
+        <v>-39200</v>
       </c>
       <c r="J23" s="3">
-        <v>-12700</v>
+        <v>-12100</v>
       </c>
       <c r="K23" s="3">
         <v>5600</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-513200</v>
+        <v>-489100</v>
       </c>
       <c r="E26" s="3">
-        <v>-267100</v>
+        <v>-254500</v>
       </c>
       <c r="F26" s="3">
-        <v>-159400</v>
+        <v>-151900</v>
       </c>
       <c r="G26" s="3">
-        <v>-151800</v>
+        <v>-144600</v>
       </c>
       <c r="H26" s="3">
-        <v>-83900</v>
+        <v>-80000</v>
       </c>
       <c r="I26" s="3">
-        <v>-40300</v>
+        <v>-38400</v>
       </c>
       <c r="J26" s="3">
-        <v>-11800</v>
+        <v>-11300</v>
       </c>
       <c r="K26" s="3">
         <v>4900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-513200</v>
+        <v>-489100</v>
       </c>
       <c r="E27" s="3">
-        <v>-267100</v>
+        <v>-254500</v>
       </c>
       <c r="F27" s="3">
-        <v>-159400</v>
+        <v>-151900</v>
       </c>
       <c r="G27" s="3">
-        <v>-151800</v>
+        <v>-144600</v>
       </c>
       <c r="H27" s="3">
-        <v>-83900</v>
+        <v>-80000</v>
       </c>
       <c r="I27" s="3">
-        <v>-40300</v>
+        <v>-38400</v>
       </c>
       <c r="J27" s="3">
-        <v>-11800</v>
+        <v>-11300</v>
       </c>
       <c r="K27" s="3">
         <v>4900</v>
@@ -1522,25 +1522,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>106100</v>
+        <v>101100</v>
       </c>
       <c r="E32" s="3">
-        <v>-11900</v>
+        <v>-11300</v>
       </c>
       <c r="F32" s="3">
-        <v>-29900</v>
+        <v>-28500</v>
       </c>
       <c r="G32" s="3">
-        <v>15600</v>
+        <v>14900</v>
       </c>
       <c r="H32" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I32" s="3">
-        <v>-10100</v>
+        <v>-9600</v>
       </c>
       <c r="J32" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="K32" s="3">
         <v>700</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-513200</v>
+        <v>-489100</v>
       </c>
       <c r="E33" s="3">
-        <v>-267100</v>
+        <v>-254500</v>
       </c>
       <c r="F33" s="3">
-        <v>-159400</v>
+        <v>-151900</v>
       </c>
       <c r="G33" s="3">
-        <v>-151800</v>
+        <v>-144600</v>
       </c>
       <c r="H33" s="3">
-        <v>-83900</v>
+        <v>-80000</v>
       </c>
       <c r="I33" s="3">
-        <v>-40300</v>
+        <v>-38400</v>
       </c>
       <c r="J33" s="3">
-        <v>-11800</v>
+        <v>-11300</v>
       </c>
       <c r="K33" s="3">
         <v>4900</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-513200</v>
+        <v>-489100</v>
       </c>
       <c r="E35" s="3">
-        <v>-267100</v>
+        <v>-254500</v>
       </c>
       <c r="F35" s="3">
-        <v>-159400</v>
+        <v>-151900</v>
       </c>
       <c r="G35" s="3">
-        <v>-151800</v>
+        <v>-144600</v>
       </c>
       <c r="H35" s="3">
-        <v>-83900</v>
+        <v>-80000</v>
       </c>
       <c r="I35" s="3">
-        <v>-40300</v>
+        <v>-38400</v>
       </c>
       <c r="J35" s="3">
-        <v>-11800</v>
+        <v>-11300</v>
       </c>
       <c r="K35" s="3">
         <v>4900</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>716000</v>
+        <v>682400</v>
       </c>
       <c r="E41" s="3">
-        <v>725600</v>
+        <v>691500</v>
       </c>
       <c r="F41" s="3">
-        <v>340400</v>
+        <v>324400</v>
       </c>
       <c r="G41" s="3">
-        <v>239300</v>
+        <v>228100</v>
       </c>
       <c r="H41" s="3">
-        <v>220900</v>
+        <v>210500</v>
       </c>
       <c r="I41" s="3">
-        <v>146600</v>
+        <v>139700</v>
       </c>
       <c r="J41" s="3">
-        <v>61500</v>
+        <v>58600</v>
       </c>
       <c r="K41" s="3">
         <v>23200</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>164500</v>
+        <v>156800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="E43" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="F43" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G43" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H43" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I43" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J43" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="K43" s="3">
         <v>2000</v>
@@ -1883,25 +1883,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>17100</v>
+        <v>16300</v>
       </c>
       <c r="E45" s="3">
-        <v>16400</v>
+        <v>15700</v>
       </c>
       <c r="F45" s="3">
-        <v>15200</v>
+        <v>14500</v>
       </c>
       <c r="G45" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="H45" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I45" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="J45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>906700</v>
+        <v>864000</v>
       </c>
       <c r="E46" s="3">
-        <v>748700</v>
+        <v>713500</v>
       </c>
       <c r="F46" s="3">
-        <v>358800</v>
+        <v>341900</v>
       </c>
       <c r="G46" s="3">
-        <v>250700</v>
+        <v>238900</v>
       </c>
       <c r="H46" s="3">
-        <v>225300</v>
+        <v>214800</v>
       </c>
       <c r="I46" s="3">
-        <v>153900</v>
+        <v>146700</v>
       </c>
       <c r="J46" s="3">
-        <v>65100</v>
+        <v>62100</v>
       </c>
       <c r="K46" s="3">
         <v>25400</v>
@@ -1955,13 +1955,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>154100</v>
+        <v>146900</v>
       </c>
       <c r="E47" s="3">
-        <v>19000</v>
+        <v>18100</v>
       </c>
       <c r="F47" s="3">
-        <v>20900</v>
+        <v>19900</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1991,25 +1991,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>132400</v>
+        <v>126200</v>
       </c>
       <c r="E48" s="3">
-        <v>55200</v>
+        <v>52600</v>
       </c>
       <c r="F48" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="G48" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="H48" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="I48" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="J48" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K48" s="3">
         <v>2400</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="E49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="F49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="H49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="I49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="J49" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="K49" s="3">
         <v>4200</v>
@@ -2138,13 +2138,13 @@
         <v>3</v>
       </c>
       <c r="E52" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F52" s="3">
         <v>1400</v>
       </c>
       <c r="G52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1200200</v>
+        <v>1143800</v>
       </c>
       <c r="E54" s="3">
-        <v>829000</v>
+        <v>790000</v>
       </c>
       <c r="F54" s="3">
-        <v>390700</v>
+        <v>372400</v>
       </c>
       <c r="G54" s="3">
-        <v>258400</v>
+        <v>246300</v>
       </c>
       <c r="H54" s="3">
-        <v>232800</v>
+        <v>221900</v>
       </c>
       <c r="I54" s="3">
-        <v>161400</v>
+        <v>153800</v>
       </c>
       <c r="J54" s="3">
-        <v>71900</v>
+        <v>68500</v>
       </c>
       <c r="K54" s="3">
         <v>31900</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26800</v>
+        <v>25600</v>
       </c>
       <c r="E57" s="3">
-        <v>34000</v>
+        <v>32400</v>
       </c>
       <c r="F57" s="3">
-        <v>24200</v>
+        <v>23000</v>
       </c>
       <c r="G57" s="3">
-        <v>29100</v>
+        <v>27700</v>
       </c>
       <c r="H57" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="I57" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="J57" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
@@ -2311,10 +2311,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8400</v>
+        <v>8000</v>
       </c>
       <c r="E58" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2347,25 +2347,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>29500</v>
+        <v>28100</v>
       </c>
       <c r="E59" s="3">
-        <v>17500</v>
+        <v>16700</v>
       </c>
       <c r="F59" s="3">
-        <v>23500</v>
+        <v>22400</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
       <c r="H59" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="J59" s="3">
-        <v>9700</v>
+        <v>9200</v>
       </c>
       <c r="K59" s="3">
         <v>21400</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>64700</v>
+        <v>61600</v>
       </c>
       <c r="E60" s="3">
-        <v>58800</v>
+        <v>56000</v>
       </c>
       <c r="F60" s="3">
-        <v>47700</v>
+        <v>45400</v>
       </c>
       <c r="G60" s="3">
-        <v>29100</v>
+        <v>27700</v>
       </c>
       <c r="H60" s="3">
-        <v>16500</v>
+        <v>15700</v>
       </c>
       <c r="I60" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="J60" s="3">
-        <v>15800</v>
+        <v>15000</v>
       </c>
       <c r="K60" s="3">
         <v>24400</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>104300</v>
+        <v>99400</v>
       </c>
       <c r="E61" s="3">
-        <v>37600</v>
+        <v>35900</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2455,7 +2455,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>172800</v>
+        <v>164700</v>
       </c>
       <c r="E66" s="3">
-        <v>97500</v>
+        <v>92900</v>
       </c>
       <c r="F66" s="3">
-        <v>47700</v>
+        <v>45400</v>
       </c>
       <c r="G66" s="3">
-        <v>29100</v>
+        <v>27700</v>
       </c>
       <c r="H66" s="3">
-        <v>16500</v>
+        <v>15700</v>
       </c>
       <c r="I66" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="J66" s="3">
-        <v>15800</v>
+        <v>15000</v>
       </c>
       <c r="K66" s="3">
         <v>24400</v>
@@ -2795,10 +2795,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1099000</v>
+        <v>-1047400</v>
       </c>
       <c r="E72" s="3">
-        <v>-650900</v>
+        <v>-620400</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2807,13 +2807,13 @@
         <v>3</v>
       </c>
       <c r="H72" s="3">
-        <v>211000</v>
+        <v>201100</v>
       </c>
       <c r="I72" s="3">
-        <v>143300</v>
+        <v>136500</v>
       </c>
       <c r="J72" s="3">
-        <v>53300</v>
+        <v>50800</v>
       </c>
       <c r="K72" s="3">
         <v>5800</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1027400</v>
+        <v>979100</v>
       </c>
       <c r="E76" s="3">
-        <v>731500</v>
+        <v>697100</v>
       </c>
       <c r="F76" s="3">
-        <v>343100</v>
+        <v>326900</v>
       </c>
       <c r="G76" s="3">
-        <v>229300</v>
+        <v>218600</v>
       </c>
       <c r="H76" s="3">
-        <v>216300</v>
+        <v>206200</v>
       </c>
       <c r="I76" s="3">
-        <v>147400</v>
+        <v>140500</v>
       </c>
       <c r="J76" s="3">
-        <v>56100</v>
+        <v>53500</v>
       </c>
       <c r="K76" s="3">
         <v>7500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-513200</v>
+        <v>-489100</v>
       </c>
       <c r="E81" s="3">
-        <v>-267100</v>
+        <v>-254500</v>
       </c>
       <c r="F81" s="3">
-        <v>-159400</v>
+        <v>-151900</v>
       </c>
       <c r="G81" s="3">
-        <v>-151800</v>
+        <v>-144600</v>
       </c>
       <c r="H81" s="3">
-        <v>-83900</v>
+        <v>-80000</v>
       </c>
       <c r="I81" s="3">
-        <v>-40300</v>
+        <v>-38400</v>
       </c>
       <c r="J81" s="3">
-        <v>-11800</v>
+        <v>-11300</v>
       </c>
       <c r="K81" s="3">
         <v>4900</v>
@@ -3104,13 +3104,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11600</v>
+        <v>11000</v>
       </c>
       <c r="E83" s="3">
-        <v>8200</v>
+        <v>7800</v>
       </c>
       <c r="F83" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-332600</v>
+        <v>-317000</v>
       </c>
       <c r="E89" s="3">
-        <v>-215500</v>
+        <v>-205400</v>
       </c>
       <c r="F89" s="3">
-        <v>-170000</v>
+        <v>-162000</v>
       </c>
       <c r="G89" s="3">
-        <v>-116500</v>
+        <v>-111000</v>
       </c>
       <c r="H89" s="3">
-        <v>-73700</v>
+        <v>-70300</v>
       </c>
       <c r="I89" s="3">
-        <v>-53200</v>
+        <v>-50700</v>
       </c>
       <c r="J89" s="3">
-        <v>-22500</v>
+        <v>-21500</v>
       </c>
       <c r="K89" s="3">
         <v>7500</v>
@@ -3372,22 +3372,22 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24300</v>
+        <v>-23200</v>
       </c>
       <c r="E91" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="F91" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G91" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H91" s="3">
         <v>-800</v>
       </c>
       <c r="I91" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J91" s="3">
         <v>-500</v>
@@ -3480,22 +3480,22 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-356700</v>
+        <v>-339900</v>
       </c>
       <c r="E94" s="3">
-        <v>-6300</v>
+        <v>-6000</v>
       </c>
       <c r="F94" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="G94" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H94" s="3">
         <v>-800</v>
       </c>
       <c r="I94" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="J94" s="3">
         <v>-500</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>738200</v>
+        <v>703500</v>
       </c>
       <c r="E100" s="3">
-        <v>604600</v>
+        <v>576200</v>
       </c>
       <c r="F100" s="3">
-        <v>249000</v>
+        <v>237300</v>
       </c>
       <c r="G100" s="3">
-        <v>152800</v>
+        <v>145600</v>
       </c>
       <c r="H100" s="3">
-        <v>143900</v>
+        <v>137100</v>
       </c>
       <c r="I100" s="3">
-        <v>129500</v>
+        <v>123400</v>
       </c>
       <c r="J100" s="3">
-        <v>58700</v>
+        <v>55900</v>
       </c>
       <c r="K100" s="3">
         <v>-300</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-65500</v>
+        <v>-62400</v>
       </c>
       <c r="E101" s="3">
-        <v>9500</v>
+        <v>9000</v>
       </c>
       <c r="F101" s="3">
-        <v>25300</v>
+        <v>24200</v>
       </c>
       <c r="G101" s="3">
-        <v>-16700</v>
+        <v>-15900</v>
       </c>
       <c r="H101" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="I101" s="3">
-        <v>10100</v>
+        <v>9600</v>
       </c>
       <c r="J101" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-16600</v>
+        <v>-15900</v>
       </c>
       <c r="E102" s="3">
-        <v>392300</v>
+        <v>373900</v>
       </c>
       <c r="F102" s="3">
-        <v>101100</v>
+        <v>96300</v>
       </c>
       <c r="G102" s="3">
-        <v>18400</v>
+        <v>17500</v>
       </c>
       <c r="H102" s="3">
-        <v>74300</v>
+        <v>70800</v>
       </c>
       <c r="I102" s="3">
-        <v>85100</v>
+        <v>81100</v>
       </c>
       <c r="J102" s="3">
-        <v>37700</v>
+        <v>35900</v>
       </c>
       <c r="K102" s="3">
         <v>5900</v>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -721,25 +721,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8100</v>
+        <v>7900</v>
       </c>
       <c r="E8" s="3">
-        <v>15600</v>
+        <v>15100</v>
       </c>
       <c r="F8" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="G8" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H8" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="I8" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="J8" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="K8" s="3">
         <v>24400</v>
@@ -845,25 +845,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>290300</v>
+        <v>280800</v>
       </c>
       <c r="E12" s="3">
-        <v>212900</v>
+        <v>205900</v>
       </c>
       <c r="F12" s="3">
-        <v>162800</v>
+        <v>157500</v>
       </c>
       <c r="G12" s="3">
-        <v>115400</v>
+        <v>111700</v>
       </c>
       <c r="H12" s="3">
-        <v>76300</v>
+        <v>73800</v>
       </c>
       <c r="I12" s="3">
-        <v>46700</v>
+        <v>45100</v>
       </c>
       <c r="J12" s="3">
-        <v>22400</v>
+        <v>21700</v>
       </c>
       <c r="K12" s="3">
         <v>15200</v>
@@ -953,22 +953,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>19000</v>
+        <v>18400</v>
       </c>
       <c r="E15" s="3">
-        <v>13900</v>
+        <v>13500</v>
       </c>
       <c r="F15" s="3">
         <v>1000</v>
       </c>
       <c r="G15" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
       </c>
       <c r="I15" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
@@ -1002,25 +1002,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>394100</v>
+        <v>381200</v>
       </c>
       <c r="E17" s="3">
-        <v>280300</v>
+        <v>271100</v>
       </c>
       <c r="F17" s="3">
-        <v>193000</v>
+        <v>186700</v>
       </c>
       <c r="G17" s="3">
-        <v>132000</v>
+        <v>127700</v>
       </c>
       <c r="H17" s="3">
-        <v>90500</v>
+        <v>87500</v>
       </c>
       <c r="I17" s="3">
-        <v>58300</v>
+        <v>56400</v>
       </c>
       <c r="J17" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="K17" s="3">
         <v>18100</v>
@@ -1038,25 +1038,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-386000</v>
+        <v>-373300</v>
       </c>
       <c r="E18" s="3">
-        <v>-264700</v>
+        <v>-256000</v>
       </c>
       <c r="F18" s="3">
-        <v>-180700</v>
+        <v>-174700</v>
       </c>
       <c r="G18" s="3">
-        <v>-130200</v>
+        <v>-125900</v>
       </c>
       <c r="H18" s="3">
-        <v>-85100</v>
+        <v>-82300</v>
       </c>
       <c r="I18" s="3">
-        <v>-48800</v>
+        <v>-47200</v>
       </c>
       <c r="J18" s="3">
-        <v>-14000</v>
+        <v>-13500</v>
       </c>
       <c r="K18" s="3">
         <v>6300</v>
@@ -1090,22 +1090,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-101100</v>
+        <v>-97800</v>
       </c>
       <c r="E20" s="3">
-        <v>11300</v>
+        <v>10900</v>
       </c>
       <c r="F20" s="3">
-        <v>28500</v>
+        <v>27500</v>
       </c>
       <c r="G20" s="3">
-        <v>-14900</v>
+        <v>-14400</v>
       </c>
       <c r="H20" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="I20" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="J20" s="3">
         <v>1900</v>
@@ -1126,25 +1126,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-476000</v>
+        <v>-460400</v>
       </c>
       <c r="E21" s="3">
-        <v>-245500</v>
+        <v>-237500</v>
       </c>
       <c r="F21" s="3">
-        <v>-151200</v>
+        <v>-146200</v>
       </c>
       <c r="G21" s="3">
-        <v>-144200</v>
+        <v>-139500</v>
       </c>
       <c r="H21" s="3">
-        <v>-79400</v>
+        <v>-76800</v>
       </c>
       <c r="I21" s="3">
-        <v>-38500</v>
+        <v>-37300</v>
       </c>
       <c r="J21" s="3">
-        <v>-11500</v>
+        <v>-11100</v>
       </c>
       <c r="K21" s="3">
         <v>6100</v>
@@ -1198,25 +1198,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-489300</v>
+        <v>-473300</v>
       </c>
       <c r="E23" s="3">
-        <v>-254800</v>
+        <v>-246400</v>
       </c>
       <c r="F23" s="3">
-        <v>-152300</v>
+        <v>-147300</v>
       </c>
       <c r="G23" s="3">
-        <v>-145200</v>
+        <v>-140400</v>
       </c>
       <c r="H23" s="3">
-        <v>-80200</v>
+        <v>-77600</v>
       </c>
       <c r="I23" s="3">
-        <v>-39200</v>
+        <v>-37900</v>
       </c>
       <c r="J23" s="3">
-        <v>-12100</v>
+        <v>-11700</v>
       </c>
       <c r="K23" s="3">
         <v>5600</v>
@@ -1234,22 +1234,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>-300</v>
       </c>
       <c r="F24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G24" s="3">
         <v>-500</v>
-      </c>
-      <c r="G24" s="3">
-        <v>-600</v>
       </c>
       <c r="H24" s="3">
         <v>-300</v>
       </c>
       <c r="I24" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="J24" s="3">
         <v>-800</v>
@@ -1306,25 +1306,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-489100</v>
+        <v>-473000</v>
       </c>
       <c r="E26" s="3">
-        <v>-254500</v>
+        <v>-246200</v>
       </c>
       <c r="F26" s="3">
-        <v>-151900</v>
+        <v>-146900</v>
       </c>
       <c r="G26" s="3">
-        <v>-144600</v>
+        <v>-139900</v>
       </c>
       <c r="H26" s="3">
-        <v>-80000</v>
+        <v>-77300</v>
       </c>
       <c r="I26" s="3">
-        <v>-38400</v>
+        <v>-37200</v>
       </c>
       <c r="J26" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="K26" s="3">
         <v>4900</v>
@@ -1342,25 +1342,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-489100</v>
+        <v>-473000</v>
       </c>
       <c r="E27" s="3">
-        <v>-254500</v>
+        <v>-246200</v>
       </c>
       <c r="F27" s="3">
-        <v>-151900</v>
+        <v>-146900</v>
       </c>
       <c r="G27" s="3">
-        <v>-144600</v>
+        <v>-139900</v>
       </c>
       <c r="H27" s="3">
-        <v>-80000</v>
+        <v>-77300</v>
       </c>
       <c r="I27" s="3">
-        <v>-38400</v>
+        <v>-37200</v>
       </c>
       <c r="J27" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="K27" s="3">
         <v>4900</v>
@@ -1522,22 +1522,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>101100</v>
+        <v>97800</v>
       </c>
       <c r="E32" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="F32" s="3">
-        <v>-28500</v>
+        <v>-27500</v>
       </c>
       <c r="G32" s="3">
-        <v>14900</v>
+        <v>14400</v>
       </c>
       <c r="H32" s="3">
-        <v>-4900</v>
+        <v>-4700</v>
       </c>
       <c r="I32" s="3">
-        <v>-9600</v>
+        <v>-9300</v>
       </c>
       <c r="J32" s="3">
         <v>-1900</v>
@@ -1558,25 +1558,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-489100</v>
+        <v>-473000</v>
       </c>
       <c r="E33" s="3">
-        <v>-254500</v>
+        <v>-246200</v>
       </c>
       <c r="F33" s="3">
-        <v>-151900</v>
+        <v>-146900</v>
       </c>
       <c r="G33" s="3">
-        <v>-144600</v>
+        <v>-139900</v>
       </c>
       <c r="H33" s="3">
-        <v>-80000</v>
+        <v>-77300</v>
       </c>
       <c r="I33" s="3">
-        <v>-38400</v>
+        <v>-37200</v>
       </c>
       <c r="J33" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="K33" s="3">
         <v>4900</v>
@@ -1630,25 +1630,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-489100</v>
+        <v>-473000</v>
       </c>
       <c r="E35" s="3">
-        <v>-254500</v>
+        <v>-246200</v>
       </c>
       <c r="F35" s="3">
-        <v>-151900</v>
+        <v>-146900</v>
       </c>
       <c r="G35" s="3">
-        <v>-144600</v>
+        <v>-139900</v>
       </c>
       <c r="H35" s="3">
-        <v>-80000</v>
+        <v>-77300</v>
       </c>
       <c r="I35" s="3">
-        <v>-38400</v>
+        <v>-37200</v>
       </c>
       <c r="J35" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="K35" s="3">
         <v>4900</v>
@@ -1739,25 +1739,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>682400</v>
+        <v>660000</v>
       </c>
       <c r="E41" s="3">
-        <v>691500</v>
+        <v>668800</v>
       </c>
       <c r="F41" s="3">
-        <v>324400</v>
+        <v>313700</v>
       </c>
       <c r="G41" s="3">
-        <v>228100</v>
+        <v>220600</v>
       </c>
       <c r="H41" s="3">
-        <v>210500</v>
+        <v>203600</v>
       </c>
       <c r="I41" s="3">
-        <v>139700</v>
+        <v>135100</v>
       </c>
       <c r="J41" s="3">
-        <v>58600</v>
+        <v>56600</v>
       </c>
       <c r="K41" s="3">
         <v>23200</v>
@@ -1775,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>156800</v>
+        <v>151600</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1811,25 +1811,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="E43" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="F43" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G43" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H43" s="3">
         <v>1900</v>
       </c>
       <c r="I43" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J43" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="K43" s="3">
         <v>2000</v>
@@ -1883,22 +1883,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>16300</v>
+        <v>15800</v>
       </c>
       <c r="E45" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="F45" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="G45" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="H45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="I45" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J45" s="3">
         <v>700</v>
@@ -1919,25 +1919,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>864000</v>
+        <v>835700</v>
       </c>
       <c r="E46" s="3">
-        <v>713500</v>
+        <v>690100</v>
       </c>
       <c r="F46" s="3">
-        <v>341900</v>
+        <v>330700</v>
       </c>
       <c r="G46" s="3">
-        <v>238900</v>
+        <v>231100</v>
       </c>
       <c r="H46" s="3">
-        <v>214800</v>
+        <v>207700</v>
       </c>
       <c r="I46" s="3">
-        <v>146700</v>
+        <v>141900</v>
       </c>
       <c r="J46" s="3">
-        <v>62100</v>
+        <v>60000</v>
       </c>
       <c r="K46" s="3">
         <v>25400</v>
@@ -1955,13 +1955,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>146900</v>
+        <v>142100</v>
       </c>
       <c r="E47" s="3">
-        <v>18100</v>
+        <v>17500</v>
       </c>
       <c r="F47" s="3">
-        <v>19900</v>
+        <v>19300</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1991,16 +1991,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>126200</v>
+        <v>122100</v>
       </c>
       <c r="E48" s="3">
-        <v>52600</v>
+        <v>50900</v>
       </c>
       <c r="F48" s="3">
-        <v>5000</v>
+        <v>4900</v>
       </c>
       <c r="G48" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H48" s="3">
         <v>2700</v>
@@ -2009,7 +2009,7 @@
         <v>2700</v>
       </c>
       <c r="J48" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="K48" s="3">
         <v>2400</v>
@@ -2027,25 +2027,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="E49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="F49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="G49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="H49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="I49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="J49" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="K49" s="3">
         <v>4200</v>
@@ -2141,7 +2141,7 @@
         <v>1700</v>
       </c>
       <c r="F52" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G52" s="3">
         <v>300</v>
@@ -2207,25 +2207,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1143800</v>
+        <v>1106300</v>
       </c>
       <c r="E54" s="3">
-        <v>790000</v>
+        <v>764100</v>
       </c>
       <c r="F54" s="3">
-        <v>372400</v>
+        <v>360100</v>
       </c>
       <c r="G54" s="3">
-        <v>246300</v>
+        <v>238200</v>
       </c>
       <c r="H54" s="3">
-        <v>221900</v>
+        <v>214600</v>
       </c>
       <c r="I54" s="3">
-        <v>153800</v>
+        <v>148800</v>
       </c>
       <c r="J54" s="3">
-        <v>68500</v>
+        <v>66200</v>
       </c>
       <c r="K54" s="3">
         <v>31900</v>
@@ -2275,25 +2275,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25600</v>
+        <v>24700</v>
       </c>
       <c r="E57" s="3">
-        <v>32400</v>
+        <v>31300</v>
       </c>
       <c r="F57" s="3">
-        <v>23000</v>
+        <v>22300</v>
       </c>
       <c r="G57" s="3">
-        <v>27700</v>
+        <v>26800</v>
       </c>
       <c r="H57" s="3">
-        <v>15300</v>
+        <v>14800</v>
       </c>
       <c r="I57" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="J57" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="K57" s="3">
         <v>3000</v>
@@ -2311,10 +2311,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="E58" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -2347,13 +2347,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>28100</v>
+        <v>27200</v>
       </c>
       <c r="E59" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="F59" s="3">
-        <v>22400</v>
+        <v>21700</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
@@ -2362,10 +2362,10 @@
         <v>400</v>
       </c>
       <c r="I59" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J59" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="K59" s="3">
         <v>21400</v>
@@ -2383,25 +2383,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>61600</v>
+        <v>59600</v>
       </c>
       <c r="E60" s="3">
-        <v>56000</v>
+        <v>54200</v>
       </c>
       <c r="F60" s="3">
-        <v>45400</v>
+        <v>43900</v>
       </c>
       <c r="G60" s="3">
-        <v>27700</v>
+        <v>26800</v>
       </c>
       <c r="H60" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="I60" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="J60" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K60" s="3">
         <v>24400</v>
@@ -2419,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>99400</v>
+        <v>96100</v>
       </c>
       <c r="E61" s="3">
-        <v>35900</v>
+        <v>34700</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2455,10 +2455,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E62" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2599,25 +2599,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>164700</v>
+        <v>159300</v>
       </c>
       <c r="E66" s="3">
-        <v>92900</v>
+        <v>89900</v>
       </c>
       <c r="F66" s="3">
-        <v>45400</v>
+        <v>43900</v>
       </c>
       <c r="G66" s="3">
-        <v>27700</v>
+        <v>26800</v>
       </c>
       <c r="H66" s="3">
-        <v>15700</v>
+        <v>15200</v>
       </c>
       <c r="I66" s="3">
-        <v>13400</v>
+        <v>12900</v>
       </c>
       <c r="J66" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="K66" s="3">
         <v>24400</v>
@@ -2795,10 +2795,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1047400</v>
+        <v>-1013000</v>
       </c>
       <c r="E72" s="3">
-        <v>-620400</v>
+        <v>-600000</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2807,13 +2807,13 @@
         <v>3</v>
       </c>
       <c r="H72" s="3">
-        <v>201100</v>
+        <v>194500</v>
       </c>
       <c r="I72" s="3">
-        <v>136500</v>
+        <v>132100</v>
       </c>
       <c r="J72" s="3">
-        <v>50800</v>
+        <v>49200</v>
       </c>
       <c r="K72" s="3">
         <v>5800</v>
@@ -2939,25 +2939,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>979100</v>
+        <v>947000</v>
       </c>
       <c r="E76" s="3">
-        <v>697100</v>
+        <v>674200</v>
       </c>
       <c r="F76" s="3">
-        <v>326900</v>
+        <v>316200</v>
       </c>
       <c r="G76" s="3">
-        <v>218600</v>
+        <v>211400</v>
       </c>
       <c r="H76" s="3">
-        <v>206200</v>
+        <v>199400</v>
       </c>
       <c r="I76" s="3">
-        <v>140500</v>
+        <v>135900</v>
       </c>
       <c r="J76" s="3">
-        <v>53500</v>
+        <v>51700</v>
       </c>
       <c r="K76" s="3">
         <v>7500</v>
@@ -3052,25 +3052,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-489100</v>
+        <v>-473000</v>
       </c>
       <c r="E81" s="3">
-        <v>-254500</v>
+        <v>-246200</v>
       </c>
       <c r="F81" s="3">
-        <v>-151900</v>
+        <v>-146900</v>
       </c>
       <c r="G81" s="3">
-        <v>-144600</v>
+        <v>-139900</v>
       </c>
       <c r="H81" s="3">
-        <v>-80000</v>
+        <v>-77300</v>
       </c>
       <c r="I81" s="3">
-        <v>-38400</v>
+        <v>-37200</v>
       </c>
       <c r="J81" s="3">
-        <v>-11300</v>
+        <v>-10900</v>
       </c>
       <c r="K81" s="3">
         <v>4900</v>
@@ -3104,22 +3104,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="E83" s="3">
-        <v>7800</v>
+        <v>7600</v>
       </c>
       <c r="F83" s="3">
         <v>1000</v>
       </c>
       <c r="G83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
       </c>
       <c r="I83" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
@@ -3320,25 +3320,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-317000</v>
+        <v>-306600</v>
       </c>
       <c r="E89" s="3">
-        <v>-205400</v>
+        <v>-198600</v>
       </c>
       <c r="F89" s="3">
-        <v>-162000</v>
+        <v>-156700</v>
       </c>
       <c r="G89" s="3">
-        <v>-111000</v>
+        <v>-107400</v>
       </c>
       <c r="H89" s="3">
-        <v>-70300</v>
+        <v>-67900</v>
       </c>
       <c r="I89" s="3">
-        <v>-50700</v>
+        <v>-49100</v>
       </c>
       <c r="J89" s="3">
-        <v>-21500</v>
+        <v>-20800</v>
       </c>
       <c r="K89" s="3">
         <v>7500</v>
@@ -3372,13 +3372,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23200</v>
+        <v>-22400</v>
       </c>
       <c r="E91" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="F91" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="G91" s="3">
         <v>-1100</v>
@@ -3480,13 +3480,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-339900</v>
+        <v>-328800</v>
       </c>
       <c r="E94" s="3">
-        <v>-6000</v>
+        <v>-5800</v>
       </c>
       <c r="F94" s="3">
-        <v>-3100</v>
+        <v>-3000</v>
       </c>
       <c r="G94" s="3">
         <v>-1100</v>
@@ -3676,25 +3676,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>703500</v>
+        <v>680500</v>
       </c>
       <c r="E100" s="3">
-        <v>576200</v>
+        <v>557300</v>
       </c>
       <c r="F100" s="3">
-        <v>237300</v>
+        <v>229500</v>
       </c>
       <c r="G100" s="3">
-        <v>145600</v>
+        <v>140800</v>
       </c>
       <c r="H100" s="3">
-        <v>137100</v>
+        <v>132600</v>
       </c>
       <c r="I100" s="3">
-        <v>123400</v>
+        <v>119400</v>
       </c>
       <c r="J100" s="3">
-        <v>55900</v>
+        <v>54100</v>
       </c>
       <c r="K100" s="3">
         <v>-300</v>
@@ -3712,25 +3712,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-62400</v>
+        <v>-60400</v>
       </c>
       <c r="E101" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="F101" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="G101" s="3">
-        <v>-15900</v>
+        <v>-15400</v>
       </c>
       <c r="H101" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="I101" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="J101" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3748,25 +3748,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15900</v>
+        <v>-15300</v>
       </c>
       <c r="E102" s="3">
-        <v>373900</v>
+        <v>361600</v>
       </c>
       <c r="F102" s="3">
-        <v>96300</v>
+        <v>93200</v>
       </c>
       <c r="G102" s="3">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="H102" s="3">
-        <v>70800</v>
+        <v>68500</v>
       </c>
       <c r="I102" s="3">
-        <v>81100</v>
+        <v>78500</v>
       </c>
       <c r="J102" s="3">
-        <v>35900</v>
+        <v>34700</v>
       </c>
       <c r="K102" s="3">
         <v>5900</v>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,99 +665,105 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>7900</v>
+        <v>8500</v>
       </c>
       <c r="E8" s="3">
-        <v>15100</v>
+        <v>7600</v>
       </c>
       <c r="F8" s="3">
-        <v>11900</v>
+        <v>14600</v>
       </c>
       <c r="G8" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H8" s="3">
         <v>1700</v>
       </c>
-      <c r="H8" s="3">
-        <v>5200</v>
-      </c>
       <c r="I8" s="3">
-        <v>9200</v>
+        <v>5000</v>
       </c>
       <c r="J8" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K8" s="3">
         <v>15800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>17100</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>3800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -786,14 +792,17 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>4600</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -822,9 +831,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,44 +851,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>280800</v>
+        <v>311700</v>
       </c>
       <c r="E12" s="3">
-        <v>205900</v>
+        <v>271300</v>
       </c>
       <c r="F12" s="3">
-        <v>157500</v>
+        <v>199000</v>
       </c>
       <c r="G12" s="3">
-        <v>111700</v>
+        <v>152100</v>
       </c>
       <c r="H12" s="3">
-        <v>73800</v>
+        <v>107900</v>
       </c>
       <c r="I12" s="3">
-        <v>45100</v>
+        <v>71300</v>
       </c>
       <c r="J12" s="3">
+        <v>43600</v>
+      </c>
+      <c r="K12" s="3">
         <v>21700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>12500</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,9 +926,12 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -946,35 +965,38 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>18400</v>
+        <v>16000</v>
       </c>
       <c r="E15" s="3">
-        <v>13500</v>
+        <v>17800</v>
       </c>
       <c r="F15" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>800</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
       </c>
       <c r="I15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
+      <c r="K15" s="3">
+        <v>600</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>3</v>
@@ -982,9 +1004,12 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -996,80 +1021,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>381200</v>
+        <v>501300</v>
       </c>
       <c r="E17" s="3">
-        <v>271100</v>
+        <v>368300</v>
       </c>
       <c r="F17" s="3">
-        <v>186700</v>
+        <v>261900</v>
       </c>
       <c r="G17" s="3">
-        <v>127700</v>
+        <v>180400</v>
       </c>
       <c r="H17" s="3">
-        <v>87500</v>
+        <v>123400</v>
       </c>
       <c r="I17" s="3">
-        <v>56400</v>
+        <v>84600</v>
       </c>
       <c r="J17" s="3">
+        <v>54500</v>
+      </c>
+      <c r="K17" s="3">
         <v>29300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-373300</v>
+        <v>-492900</v>
       </c>
       <c r="E18" s="3">
-        <v>-256000</v>
+        <v>-360700</v>
       </c>
       <c r="F18" s="3">
-        <v>-174700</v>
+        <v>-247300</v>
       </c>
       <c r="G18" s="3">
-        <v>-125900</v>
+        <v>-168800</v>
       </c>
       <c r="H18" s="3">
-        <v>-82300</v>
+        <v>-121700</v>
       </c>
       <c r="I18" s="3">
-        <v>-47200</v>
+        <v>-79500</v>
       </c>
       <c r="J18" s="3">
+        <v>-45600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1084,97 +1116,104 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-97800</v>
+        <v>78300</v>
       </c>
       <c r="E20" s="3">
-        <v>10900</v>
+        <v>-94500</v>
       </c>
       <c r="F20" s="3">
-        <v>27500</v>
+        <v>10600</v>
       </c>
       <c r="G20" s="3">
-        <v>-14400</v>
+        <v>26600</v>
       </c>
       <c r="H20" s="3">
-        <v>4700</v>
+        <v>-13900</v>
       </c>
       <c r="I20" s="3">
-        <v>9300</v>
+        <v>4600</v>
       </c>
       <c r="J20" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K20" s="3">
         <v>1900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-460400</v>
+        <v>-397500</v>
       </c>
       <c r="E21" s="3">
-        <v>-237500</v>
+        <v>-444700</v>
       </c>
       <c r="F21" s="3">
-        <v>-146200</v>
+        <v>-229400</v>
       </c>
       <c r="G21" s="3">
-        <v>-139500</v>
+        <v>-141200</v>
       </c>
       <c r="H21" s="3">
-        <v>-76800</v>
+        <v>-134800</v>
       </c>
       <c r="I21" s="3">
-        <v>-37300</v>
+        <v>-74200</v>
       </c>
       <c r="J21" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-11100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>6100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2200</v>
+        <v>4300</v>
       </c>
       <c r="E22" s="3">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1188,84 +1227,93 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-473300</v>
+        <v>-418800</v>
       </c>
       <c r="E23" s="3">
-        <v>-246400</v>
+        <v>-457300</v>
       </c>
       <c r="F23" s="3">
-        <v>-147300</v>
+        <v>-238100</v>
       </c>
       <c r="G23" s="3">
-        <v>-140400</v>
+        <v>-142400</v>
       </c>
       <c r="H23" s="3">
-        <v>-77600</v>
+        <v>-135700</v>
       </c>
       <c r="I23" s="3">
-        <v>-37900</v>
+        <v>-75000</v>
       </c>
       <c r="J23" s="3">
+        <v>-36600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>5600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1400</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-500</v>
       </c>
-      <c r="H24" s="3">
-        <v>-300</v>
-      </c>
       <c r="I24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>700</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1299,81 +1347,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-473000</v>
+        <v>-418400</v>
       </c>
       <c r="E26" s="3">
-        <v>-246200</v>
+        <v>-457000</v>
       </c>
       <c r="F26" s="3">
-        <v>-146900</v>
+        <v>-237800</v>
       </c>
       <c r="G26" s="3">
-        <v>-139900</v>
+        <v>-141900</v>
       </c>
       <c r="H26" s="3">
-        <v>-77300</v>
+        <v>-135200</v>
       </c>
       <c r="I26" s="3">
-        <v>-37200</v>
+        <v>-74700</v>
       </c>
       <c r="J26" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-10900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>4900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1400</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-473000</v>
+        <v>-418400</v>
       </c>
       <c r="E27" s="3">
-        <v>-246200</v>
+        <v>-457000</v>
       </c>
       <c r="F27" s="3">
-        <v>-146900</v>
+        <v>-237800</v>
       </c>
       <c r="G27" s="3">
-        <v>-139900</v>
+        <v>-141900</v>
       </c>
       <c r="H27" s="3">
-        <v>-77300</v>
+        <v>-135200</v>
       </c>
       <c r="I27" s="3">
-        <v>-37200</v>
+        <v>-74700</v>
       </c>
       <c r="J27" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-10900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>4900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1400</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,9 +1464,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1443,9 +1503,12 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1479,9 +1542,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1515,81 +1581,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>97800</v>
+        <v>-78300</v>
       </c>
       <c r="E32" s="3">
-        <v>-10900</v>
+        <v>94500</v>
       </c>
       <c r="F32" s="3">
-        <v>-27500</v>
+        <v>-10600</v>
       </c>
       <c r="G32" s="3">
-        <v>14400</v>
+        <v>-26600</v>
       </c>
       <c r="H32" s="3">
-        <v>-4700</v>
+        <v>13900</v>
       </c>
       <c r="I32" s="3">
-        <v>-9300</v>
+        <v>-4600</v>
       </c>
       <c r="J32" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-473000</v>
+        <v>-418400</v>
       </c>
       <c r="E33" s="3">
-        <v>-246200</v>
+        <v>-457000</v>
       </c>
       <c r="F33" s="3">
-        <v>-146900</v>
+        <v>-237800</v>
       </c>
       <c r="G33" s="3">
-        <v>-139900</v>
+        <v>-141900</v>
       </c>
       <c r="H33" s="3">
-        <v>-77300</v>
+        <v>-135200</v>
       </c>
       <c r="I33" s="3">
-        <v>-37200</v>
+        <v>-74700</v>
       </c>
       <c r="J33" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-10900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>4900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1400</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1623,86 +1698,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-473000</v>
+        <v>-418400</v>
       </c>
       <c r="E35" s="3">
-        <v>-246200</v>
+        <v>-457000</v>
       </c>
       <c r="F35" s="3">
-        <v>-146900</v>
+        <v>-237800</v>
       </c>
       <c r="G35" s="3">
-        <v>-139900</v>
+        <v>-141900</v>
       </c>
       <c r="H35" s="3">
-        <v>-77300</v>
+        <v>-135200</v>
       </c>
       <c r="I35" s="3">
-        <v>-37200</v>
+        <v>-74700</v>
       </c>
       <c r="J35" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-10900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>4900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1400</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,8 +1801,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1733,52 +1818,56 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>660000</v>
+        <v>486800</v>
       </c>
       <c r="E41" s="3">
-        <v>668800</v>
+        <v>637700</v>
       </c>
       <c r="F41" s="3">
-        <v>313700</v>
+        <v>646200</v>
       </c>
       <c r="G41" s="3">
-        <v>220600</v>
+        <v>303100</v>
       </c>
       <c r="H41" s="3">
-        <v>203600</v>
+        <v>213100</v>
       </c>
       <c r="I41" s="3">
-        <v>135100</v>
+        <v>196700</v>
       </c>
       <c r="J41" s="3">
+        <v>130500</v>
+      </c>
+      <c r="K41" s="3">
         <v>56600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>16000</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>151600</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
+        <v>257200</v>
+      </c>
+      <c r="E42" s="3">
+        <v>146500</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1795,8 +1884,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1804,68 +1893,74 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8300</v>
+        <v>25300</v>
       </c>
       <c r="E43" s="3">
-        <v>6100</v>
+        <v>8000</v>
       </c>
       <c r="F43" s="3">
-        <v>3000</v>
+        <v>5900</v>
       </c>
       <c r="G43" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2700</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>6700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>82300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -1876,95 +1971,104 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>15800</v>
+        <v>27500</v>
       </c>
       <c r="E45" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="F45" s="3">
-        <v>14000</v>
+        <v>14600</v>
       </c>
       <c r="G45" s="3">
-        <v>7800</v>
+        <v>13500</v>
       </c>
       <c r="H45" s="3">
-        <v>2200</v>
+        <v>7500</v>
       </c>
       <c r="I45" s="3">
-        <v>4300</v>
+        <v>2100</v>
       </c>
       <c r="J45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
-      </c>
-      <c r="K45" s="3">
-        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>100</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>835700</v>
+        <v>879100</v>
       </c>
       <c r="E46" s="3">
-        <v>690100</v>
+        <v>807400</v>
       </c>
       <c r="F46" s="3">
-        <v>330700</v>
+        <v>666700</v>
       </c>
       <c r="G46" s="3">
-        <v>231100</v>
+        <v>319500</v>
       </c>
       <c r="H46" s="3">
-        <v>207700</v>
+        <v>223200</v>
       </c>
       <c r="I46" s="3">
-        <v>141900</v>
+        <v>200700</v>
       </c>
       <c r="J46" s="3">
+        <v>137100</v>
+      </c>
+      <c r="K46" s="3">
         <v>60000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>25400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>22700</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>142100</v>
+        <v>161100</v>
       </c>
       <c r="E47" s="3">
-        <v>17500</v>
+        <v>137300</v>
       </c>
       <c r="F47" s="3">
-        <v>19300</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
+        <v>17000</v>
+      </c>
+      <c r="G47" s="3">
+        <v>18600</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1981,84 +2085,93 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>122100</v>
+        <v>137500</v>
       </c>
       <c r="E48" s="3">
-        <v>50900</v>
+        <v>117900</v>
       </c>
       <c r="F48" s="3">
-        <v>4900</v>
+        <v>49200</v>
       </c>
       <c r="G48" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="H48" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="I48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K48" s="3">
         <v>2100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1300</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6500</v>
+        <v>5800</v>
       </c>
       <c r="E49" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3900</v>
       </c>
-      <c r="F49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3900</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2092,9 +2205,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2128,23 +2244,26 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="3">
-        <v>1700</v>
+      <c r="E52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F52" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G52" s="3">
         <v>1300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2153,20 +2272,23 @@
         <v>300</v>
       </c>
       <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2200,45 +2322,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1106300</v>
+        <v>1183600</v>
       </c>
       <c r="E54" s="3">
-        <v>764100</v>
+        <v>1068900</v>
       </c>
       <c r="F54" s="3">
-        <v>360100</v>
+        <v>738300</v>
       </c>
       <c r="G54" s="3">
-        <v>238200</v>
+        <v>348000</v>
       </c>
       <c r="H54" s="3">
-        <v>214600</v>
+        <v>230200</v>
       </c>
       <c r="I54" s="3">
-        <v>148800</v>
+        <v>207400</v>
       </c>
       <c r="J54" s="3">
+        <v>143800</v>
+      </c>
+      <c r="K54" s="3">
         <v>66200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>27900</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2253,8 +2381,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2269,55 +2398,59 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24700</v>
+        <v>64800</v>
       </c>
       <c r="E57" s="3">
-        <v>31300</v>
+        <v>23900</v>
       </c>
       <c r="F57" s="3">
-        <v>22300</v>
+        <v>30300</v>
       </c>
       <c r="G57" s="3">
-        <v>26800</v>
+        <v>21500</v>
       </c>
       <c r="H57" s="3">
-        <v>14800</v>
+        <v>25900</v>
       </c>
       <c r="I57" s="3">
-        <v>9500</v>
+        <v>14300</v>
       </c>
       <c r="J57" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K57" s="3">
         <v>5600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2800</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="E58" s="3">
-        <v>6700</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+        <v>7500</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6400</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2328,104 +2461,113 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="J58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
       </c>
       <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>27200</v>
+        <v>37000</v>
       </c>
       <c r="E59" s="3">
-        <v>16200</v>
+        <v>26200</v>
       </c>
       <c r="F59" s="3">
-        <v>21700</v>
+        <v>15600</v>
       </c>
       <c r="G59" s="3">
-        <v>0</v>
+        <v>20900</v>
       </c>
       <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
         <v>400</v>
       </c>
-      <c r="I59" s="3">
-        <v>3500</v>
-      </c>
       <c r="J59" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K59" s="3">
         <v>8900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>21400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>23200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>59600</v>
+        <v>109500</v>
       </c>
       <c r="E60" s="3">
-        <v>54200</v>
+        <v>57600</v>
       </c>
       <c r="F60" s="3">
-        <v>43900</v>
+        <v>52400</v>
       </c>
       <c r="G60" s="3">
-        <v>26800</v>
+        <v>42500</v>
       </c>
       <c r="H60" s="3">
-        <v>15200</v>
+        <v>25900</v>
       </c>
       <c r="I60" s="3">
-        <v>12900</v>
+        <v>14700</v>
       </c>
       <c r="J60" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K60" s="3">
         <v>14500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>24400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>26200</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>96100</v>
+        <v>106900</v>
       </c>
       <c r="E61" s="3">
-        <v>34700</v>
+        <v>92900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>33500</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2448,21 +2590,24 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="E62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2478,15 +2623,18 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2520,9 +2668,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2556,9 +2707,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2592,45 +2746,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>159300</v>
+        <v>219600</v>
       </c>
       <c r="E66" s="3">
-        <v>89900</v>
+        <v>153900</v>
       </c>
       <c r="F66" s="3">
-        <v>43900</v>
+        <v>86900</v>
       </c>
       <c r="G66" s="3">
-        <v>26800</v>
+        <v>42500</v>
       </c>
       <c r="H66" s="3">
-        <v>15200</v>
+        <v>25900</v>
       </c>
       <c r="I66" s="3">
-        <v>12900</v>
+        <v>14700</v>
       </c>
       <c r="J66" s="3">
+        <v>12500</v>
+      </c>
+      <c r="K66" s="3">
         <v>14500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26200</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2645,8 +2805,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2680,9 +2841,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,9 +2880,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2752,9 +2919,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2788,45 +2958,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1013000</v>
+        <v>-1324300</v>
       </c>
       <c r="E72" s="3">
-        <v>-600000</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-978700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-579700</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="3">
-        <v>194500</v>
+      <c r="H72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="I72" s="3">
-        <v>132100</v>
+        <v>187900</v>
       </c>
       <c r="J72" s="3">
+        <v>127600</v>
+      </c>
+      <c r="K72" s="3">
         <v>49200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>5800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1300</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2860,9 +3036,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2896,9 +3075,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2932,45 +3114,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>947000</v>
+        <v>964000</v>
       </c>
       <c r="E76" s="3">
-        <v>674200</v>
+        <v>915000</v>
       </c>
       <c r="F76" s="3">
-        <v>316200</v>
+        <v>651400</v>
       </c>
       <c r="G76" s="3">
-        <v>211400</v>
+        <v>305500</v>
       </c>
       <c r="H76" s="3">
-        <v>199400</v>
+        <v>204200</v>
       </c>
       <c r="I76" s="3">
-        <v>135900</v>
+        <v>192700</v>
       </c>
       <c r="J76" s="3">
+        <v>131300</v>
+      </c>
+      <c r="K76" s="3">
         <v>51700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3004,86 +3192,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-473000</v>
+        <v>-418400</v>
       </c>
       <c r="E81" s="3">
-        <v>-246200</v>
+        <v>-457000</v>
       </c>
       <c r="F81" s="3">
-        <v>-146900</v>
+        <v>-237800</v>
       </c>
       <c r="G81" s="3">
-        <v>-139900</v>
+        <v>-141900</v>
       </c>
       <c r="H81" s="3">
-        <v>-77300</v>
+        <v>-135200</v>
       </c>
       <c r="I81" s="3">
-        <v>-37200</v>
+        <v>-74700</v>
       </c>
       <c r="J81" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-10900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>4900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1400</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3098,44 +3295,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>10700</v>
+        <v>16800</v>
       </c>
       <c r="E83" s="3">
-        <v>7600</v>
+        <v>10300</v>
       </c>
       <c r="F83" s="3">
+        <v>7300</v>
+      </c>
+      <c r="G83" s="3">
         <v>1000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
       </c>
       <c r="I83" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="J83" s="3">
         <v>600</v>
       </c>
       <c r="K83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>500</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3169,9 +3370,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3205,9 +3409,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3241,9 +3448,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3277,9 +3487,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3313,45 +3526,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-306600</v>
+        <v>-455600</v>
       </c>
       <c r="E89" s="3">
-        <v>-198600</v>
+        <v>-296200</v>
       </c>
       <c r="F89" s="3">
-        <v>-156700</v>
+        <v>-191900</v>
       </c>
       <c r="G89" s="3">
-        <v>-107400</v>
+        <v>-151400</v>
       </c>
       <c r="H89" s="3">
-        <v>-67900</v>
+        <v>-103700</v>
       </c>
       <c r="I89" s="3">
-        <v>-49100</v>
+        <v>-65600</v>
       </c>
       <c r="J89" s="3">
+        <v>-47400</v>
+      </c>
+      <c r="K89" s="3">
         <v>-20800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>7500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3366,44 +3585,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-22400</v>
+        <v>-25900</v>
       </c>
       <c r="E91" s="3">
-        <v>-5800</v>
+        <v>-21700</v>
       </c>
       <c r="F91" s="3">
-        <v>-3000</v>
+        <v>-5600</v>
       </c>
       <c r="G91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3437,9 +3660,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3473,45 +3699,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-328800</v>
+        <v>-120600</v>
       </c>
       <c r="E94" s="3">
-        <v>-5800</v>
+        <v>-317700</v>
       </c>
       <c r="F94" s="3">
-        <v>-3000</v>
+        <v>-5600</v>
       </c>
       <c r="G94" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="J94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3758,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3561,9 +3794,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3597,9 +3833,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3633,9 +3872,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3669,115 +3911,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>680500</v>
+        <v>383300</v>
       </c>
       <c r="E100" s="3">
-        <v>557300</v>
+        <v>657400</v>
       </c>
       <c r="F100" s="3">
-        <v>229500</v>
+        <v>538500</v>
       </c>
       <c r="G100" s="3">
-        <v>140800</v>
+        <v>221700</v>
       </c>
       <c r="H100" s="3">
-        <v>132600</v>
+        <v>136100</v>
       </c>
       <c r="I100" s="3">
-        <v>119400</v>
+        <v>128100</v>
       </c>
       <c r="J100" s="3">
+        <v>115400</v>
+      </c>
+      <c r="K100" s="3">
         <v>54100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-60400</v>
+        <v>42100</v>
       </c>
       <c r="E101" s="3">
-        <v>8700</v>
+        <v>-58400</v>
       </c>
       <c r="F101" s="3">
-        <v>23400</v>
+        <v>8500</v>
       </c>
       <c r="G101" s="3">
-        <v>-15400</v>
+        <v>22600</v>
       </c>
       <c r="H101" s="3">
-        <v>4600</v>
+        <v>-14900</v>
       </c>
       <c r="I101" s="3">
-        <v>9300</v>
+        <v>4400</v>
       </c>
       <c r="J101" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K101" s="3">
         <v>1800</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-15300</v>
+        <v>-150800</v>
       </c>
       <c r="E102" s="3">
-        <v>361600</v>
+        <v>-14800</v>
       </c>
       <c r="F102" s="3">
-        <v>93200</v>
+        <v>349400</v>
       </c>
       <c r="G102" s="3">
-        <v>17000</v>
+        <v>90000</v>
       </c>
       <c r="H102" s="3">
-        <v>68500</v>
+        <v>16400</v>
       </c>
       <c r="I102" s="3">
-        <v>78500</v>
+        <v>66200</v>
       </c>
       <c r="J102" s="3">
+        <v>75800</v>
+      </c>
+      <c r="K102" s="3">
         <v>34700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>8500</v>
+        <v>8100</v>
       </c>
       <c r="E8" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="F8" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="G8" s="3">
-        <v>11500</v>
+        <v>11000</v>
       </c>
       <c r="H8" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I8" s="3">
-        <v>5000</v>
+        <v>4800</v>
       </c>
       <c r="J8" s="3">
-        <v>8900</v>
+        <v>8400</v>
       </c>
       <c r="K8" s="3">
         <v>15800</v>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>311700</v>
+        <v>296600</v>
       </c>
       <c r="E12" s="3">
-        <v>271300</v>
+        <v>258100</v>
       </c>
       <c r="F12" s="3">
-        <v>199000</v>
+        <v>189300</v>
       </c>
       <c r="G12" s="3">
-        <v>152100</v>
+        <v>144700</v>
       </c>
       <c r="H12" s="3">
-        <v>107900</v>
+        <v>102600</v>
       </c>
       <c r="I12" s="3">
-        <v>71300</v>
+        <v>67900</v>
       </c>
       <c r="J12" s="3">
-        <v>43600</v>
+        <v>41500</v>
       </c>
       <c r="K12" s="3">
         <v>21700</v>
@@ -975,16 +975,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>16000</v>
+        <v>15300</v>
       </c>
       <c r="E15" s="3">
-        <v>17800</v>
+        <v>16900</v>
       </c>
       <c r="F15" s="3">
-        <v>13000</v>
+        <v>12400</v>
       </c>
       <c r="G15" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H15" s="3">
         <v>800</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>501300</v>
+        <v>477000</v>
       </c>
       <c r="E17" s="3">
-        <v>368300</v>
+        <v>350400</v>
       </c>
       <c r="F17" s="3">
-        <v>261900</v>
+        <v>249200</v>
       </c>
       <c r="G17" s="3">
-        <v>180400</v>
+        <v>171600</v>
       </c>
       <c r="H17" s="3">
-        <v>123400</v>
+        <v>117400</v>
       </c>
       <c r="I17" s="3">
-        <v>84600</v>
+        <v>80500</v>
       </c>
       <c r="J17" s="3">
-        <v>54500</v>
+        <v>51800</v>
       </c>
       <c r="K17" s="3">
         <v>29300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-492900</v>
+        <v>-468900</v>
       </c>
       <c r="E18" s="3">
-        <v>-360700</v>
+        <v>-343200</v>
       </c>
       <c r="F18" s="3">
-        <v>-247300</v>
+        <v>-235300</v>
       </c>
       <c r="G18" s="3">
-        <v>-168800</v>
+        <v>-160600</v>
       </c>
       <c r="H18" s="3">
-        <v>-121700</v>
+        <v>-115800</v>
       </c>
       <c r="I18" s="3">
-        <v>-79500</v>
+        <v>-75700</v>
       </c>
       <c r="J18" s="3">
-        <v>-45600</v>
+        <v>-43400</v>
       </c>
       <c r="K18" s="3">
         <v>-13500</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>78300</v>
+        <v>74500</v>
       </c>
       <c r="E20" s="3">
-        <v>-94500</v>
+        <v>-89900</v>
       </c>
       <c r="F20" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="G20" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="H20" s="3">
-        <v>-13900</v>
+        <v>-13200</v>
       </c>
       <c r="I20" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="J20" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="K20" s="3">
         <v>1900</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-397500</v>
+        <v>-378300</v>
       </c>
       <c r="E21" s="3">
-        <v>-444700</v>
+        <v>-423100</v>
       </c>
       <c r="F21" s="3">
-        <v>-229400</v>
+        <v>-218200</v>
       </c>
       <c r="G21" s="3">
-        <v>-141200</v>
+        <v>-134400</v>
       </c>
       <c r="H21" s="3">
-        <v>-134800</v>
+        <v>-128200</v>
       </c>
       <c r="I21" s="3">
-        <v>-74200</v>
+        <v>-70600</v>
       </c>
       <c r="J21" s="3">
-        <v>-36000</v>
+        <v>-34300</v>
       </c>
       <c r="K21" s="3">
         <v>-11100</v>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="E22" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="3">
         <v>1300</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-418800</v>
+        <v>-398500</v>
       </c>
       <c r="E23" s="3">
-        <v>-457300</v>
+        <v>-435100</v>
       </c>
       <c r="F23" s="3">
-        <v>-238100</v>
+        <v>-226500</v>
       </c>
       <c r="G23" s="3">
-        <v>-142400</v>
+        <v>-135400</v>
       </c>
       <c r="H23" s="3">
-        <v>-135700</v>
+        <v>-129100</v>
       </c>
       <c r="I23" s="3">
-        <v>-75000</v>
+        <v>-71300</v>
       </c>
       <c r="J23" s="3">
-        <v>-36600</v>
+        <v>-34800</v>
       </c>
       <c r="K23" s="3">
         <v>-11700</v>
@@ -1285,7 +1285,7 @@
         <v>-200</v>
       </c>
       <c r="F24" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="G24" s="3">
         <v>-400</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-418400</v>
+        <v>-398100</v>
       </c>
       <c r="E26" s="3">
-        <v>-457000</v>
+        <v>-434800</v>
       </c>
       <c r="F26" s="3">
-        <v>-237800</v>
+        <v>-226300</v>
       </c>
       <c r="G26" s="3">
-        <v>-141900</v>
+        <v>-135000</v>
       </c>
       <c r="H26" s="3">
-        <v>-135200</v>
+        <v>-128600</v>
       </c>
       <c r="I26" s="3">
-        <v>-74700</v>
+        <v>-71100</v>
       </c>
       <c r="J26" s="3">
-        <v>-35900</v>
+        <v>-34200</v>
       </c>
       <c r="K26" s="3">
         <v>-10900</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-418400</v>
+        <v>-398100</v>
       </c>
       <c r="E27" s="3">
-        <v>-457000</v>
+        <v>-434800</v>
       </c>
       <c r="F27" s="3">
-        <v>-237800</v>
+        <v>-226300</v>
       </c>
       <c r="G27" s="3">
-        <v>-141900</v>
+        <v>-135000</v>
       </c>
       <c r="H27" s="3">
-        <v>-135200</v>
+        <v>-128600</v>
       </c>
       <c r="I27" s="3">
-        <v>-74700</v>
+        <v>-71100</v>
       </c>
       <c r="J27" s="3">
-        <v>-35900</v>
+        <v>-34200</v>
       </c>
       <c r="K27" s="3">
         <v>-10900</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-78300</v>
+        <v>-74500</v>
       </c>
       <c r="E32" s="3">
-        <v>94500</v>
+        <v>89900</v>
       </c>
       <c r="F32" s="3">
-        <v>-10600</v>
+        <v>-10100</v>
       </c>
       <c r="G32" s="3">
-        <v>-26600</v>
+        <v>-25300</v>
       </c>
       <c r="H32" s="3">
-        <v>13900</v>
+        <v>13200</v>
       </c>
       <c r="I32" s="3">
-        <v>-4600</v>
+        <v>-4400</v>
       </c>
       <c r="J32" s="3">
-        <v>-9000</v>
+        <v>-8600</v>
       </c>
       <c r="K32" s="3">
         <v>-1900</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-418400</v>
+        <v>-398100</v>
       </c>
       <c r="E33" s="3">
-        <v>-457000</v>
+        <v>-434800</v>
       </c>
       <c r="F33" s="3">
-        <v>-237800</v>
+        <v>-226300</v>
       </c>
       <c r="G33" s="3">
-        <v>-141900</v>
+        <v>-135000</v>
       </c>
       <c r="H33" s="3">
-        <v>-135200</v>
+        <v>-128600</v>
       </c>
       <c r="I33" s="3">
-        <v>-74700</v>
+        <v>-71100</v>
       </c>
       <c r="J33" s="3">
-        <v>-35900</v>
+        <v>-34200</v>
       </c>
       <c r="K33" s="3">
         <v>-10900</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-418400</v>
+        <v>-398100</v>
       </c>
       <c r="E35" s="3">
-        <v>-457000</v>
+        <v>-434800</v>
       </c>
       <c r="F35" s="3">
-        <v>-237800</v>
+        <v>-226300</v>
       </c>
       <c r="G35" s="3">
-        <v>-141900</v>
+        <v>-135000</v>
       </c>
       <c r="H35" s="3">
-        <v>-135200</v>
+        <v>-128600</v>
       </c>
       <c r="I35" s="3">
-        <v>-74700</v>
+        <v>-71100</v>
       </c>
       <c r="J35" s="3">
-        <v>-35900</v>
+        <v>-34200</v>
       </c>
       <c r="K35" s="3">
         <v>-10900</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>486800</v>
+        <v>463200</v>
       </c>
       <c r="E41" s="3">
-        <v>637700</v>
+        <v>606700</v>
       </c>
       <c r="F41" s="3">
-        <v>646200</v>
+        <v>614800</v>
       </c>
       <c r="G41" s="3">
-        <v>303100</v>
+        <v>288400</v>
       </c>
       <c r="H41" s="3">
-        <v>213100</v>
+        <v>202800</v>
       </c>
       <c r="I41" s="3">
-        <v>196700</v>
+        <v>187200</v>
       </c>
       <c r="J41" s="3">
-        <v>130500</v>
+        <v>124200</v>
       </c>
       <c r="K41" s="3">
         <v>56600</v>
@@ -1864,10 +1864,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>257200</v>
+        <v>244700</v>
       </c>
       <c r="E42" s="3">
-        <v>146500</v>
+        <v>139400</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>25300</v>
+        <v>24100</v>
       </c>
       <c r="E43" s="3">
-        <v>8000</v>
+        <v>7600</v>
       </c>
       <c r="F43" s="3">
-        <v>5900</v>
+        <v>5600</v>
       </c>
       <c r="G43" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="H43" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="I43" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J43" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K43" s="3">
         <v>2700</v>
@@ -1942,7 +1942,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>82300</v>
+        <v>78300</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27500</v>
+        <v>26200</v>
       </c>
       <c r="E45" s="3">
-        <v>15300</v>
+        <v>14500</v>
       </c>
       <c r="F45" s="3">
-        <v>14600</v>
+        <v>13900</v>
       </c>
       <c r="G45" s="3">
-        <v>13500</v>
+        <v>12900</v>
       </c>
       <c r="H45" s="3">
-        <v>7500</v>
+        <v>7200</v>
       </c>
       <c r="I45" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="J45" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>879100</v>
+        <v>836400</v>
       </c>
       <c r="E46" s="3">
-        <v>807400</v>
+        <v>768200</v>
       </c>
       <c r="F46" s="3">
-        <v>666700</v>
+        <v>634300</v>
       </c>
       <c r="G46" s="3">
-        <v>319500</v>
+        <v>304000</v>
       </c>
       <c r="H46" s="3">
-        <v>223200</v>
+        <v>212400</v>
       </c>
       <c r="I46" s="3">
-        <v>200700</v>
+        <v>190900</v>
       </c>
       <c r="J46" s="3">
-        <v>137100</v>
+        <v>130400</v>
       </c>
       <c r="K46" s="3">
         <v>60000</v>
@@ -2059,16 +2059,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>161100</v>
+        <v>153300</v>
       </c>
       <c r="E47" s="3">
-        <v>137300</v>
+        <v>130600</v>
       </c>
       <c r="F47" s="3">
-        <v>17000</v>
+        <v>16100</v>
       </c>
       <c r="G47" s="3">
-        <v>18600</v>
+        <v>17700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>137500</v>
+        <v>130800</v>
       </c>
       <c r="E48" s="3">
-        <v>117900</v>
+        <v>112200</v>
       </c>
       <c r="F48" s="3">
-        <v>49200</v>
+        <v>46800</v>
       </c>
       <c r="G48" s="3">
-        <v>4700</v>
+        <v>4500</v>
       </c>
       <c r="H48" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="I48" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="J48" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="K48" s="3">
         <v>2100</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="E49" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="F49" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="G49" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="H49" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="I49" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="J49" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="K49" s="3">
         <v>3900</v>
@@ -2260,10 +2260,10 @@
         <v>3</v>
       </c>
       <c r="F52" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1183600</v>
+        <v>1126000</v>
       </c>
       <c r="E54" s="3">
-        <v>1068900</v>
+        <v>1016900</v>
       </c>
       <c r="F54" s="3">
-        <v>738300</v>
+        <v>702400</v>
       </c>
       <c r="G54" s="3">
-        <v>348000</v>
+        <v>331100</v>
       </c>
       <c r="H54" s="3">
-        <v>230200</v>
+        <v>219000</v>
       </c>
       <c r="I54" s="3">
-        <v>207400</v>
+        <v>197300</v>
       </c>
       <c r="J54" s="3">
-        <v>143800</v>
+        <v>136800</v>
       </c>
       <c r="K54" s="3">
         <v>66200</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>64800</v>
+        <v>61700</v>
       </c>
       <c r="E57" s="3">
-        <v>23900</v>
+        <v>22700</v>
       </c>
       <c r="F57" s="3">
-        <v>30300</v>
+        <v>28800</v>
       </c>
       <c r="G57" s="3">
-        <v>21500</v>
+        <v>20500</v>
       </c>
       <c r="H57" s="3">
-        <v>25900</v>
+        <v>24700</v>
       </c>
       <c r="I57" s="3">
-        <v>14300</v>
+        <v>13600</v>
       </c>
       <c r="J57" s="3">
-        <v>9100</v>
+        <v>8700</v>
       </c>
       <c r="K57" s="3">
         <v>5600</v>
@@ -2444,13 +2444,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="E58" s="3">
-        <v>7500</v>
+        <v>7100</v>
       </c>
       <c r="F58" s="3">
-        <v>6400</v>
+        <v>6100</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2483,16 +2483,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>37000</v>
+        <v>35200</v>
       </c>
       <c r="E59" s="3">
-        <v>26200</v>
+        <v>25000</v>
       </c>
       <c r="F59" s="3">
-        <v>15600</v>
+        <v>14900</v>
       </c>
       <c r="G59" s="3">
-        <v>20900</v>
+        <v>19900</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="K59" s="3">
         <v>8900</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>109500</v>
+        <v>104200</v>
       </c>
       <c r="E60" s="3">
-        <v>57600</v>
+        <v>54800</v>
       </c>
       <c r="F60" s="3">
-        <v>52400</v>
+        <v>49800</v>
       </c>
       <c r="G60" s="3">
-        <v>42500</v>
+        <v>40400</v>
       </c>
       <c r="H60" s="3">
-        <v>25900</v>
+        <v>24700</v>
       </c>
       <c r="I60" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="J60" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="K60" s="3">
         <v>14500</v>
@@ -2561,13 +2561,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>106900</v>
+        <v>101700</v>
       </c>
       <c r="E61" s="3">
-        <v>92900</v>
+        <v>88300</v>
       </c>
       <c r="F61" s="3">
-        <v>33500</v>
+        <v>31900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2600,13 +2600,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E62" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>219600</v>
+        <v>208900</v>
       </c>
       <c r="E66" s="3">
-        <v>153900</v>
+        <v>146400</v>
       </c>
       <c r="F66" s="3">
-        <v>86900</v>
+        <v>82600</v>
       </c>
       <c r="G66" s="3">
-        <v>42500</v>
+        <v>40400</v>
       </c>
       <c r="H66" s="3">
-        <v>25900</v>
+        <v>24700</v>
       </c>
       <c r="I66" s="3">
-        <v>14700</v>
+        <v>14000</v>
       </c>
       <c r="J66" s="3">
-        <v>12500</v>
+        <v>11900</v>
       </c>
       <c r="K66" s="3">
         <v>14500</v>
@@ -2968,13 +2968,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1324300</v>
+        <v>-1259900</v>
       </c>
       <c r="E72" s="3">
-        <v>-978700</v>
+        <v>-931200</v>
       </c>
       <c r="F72" s="3">
-        <v>-579700</v>
+        <v>-551500</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2983,10 +2983,10 @@
         <v>3</v>
       </c>
       <c r="I72" s="3">
-        <v>187900</v>
+        <v>178800</v>
       </c>
       <c r="J72" s="3">
-        <v>127600</v>
+        <v>121400</v>
       </c>
       <c r="K72" s="3">
         <v>49200</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>964000</v>
+        <v>917100</v>
       </c>
       <c r="E76" s="3">
-        <v>915000</v>
+        <v>870500</v>
       </c>
       <c r="F76" s="3">
-        <v>651400</v>
+        <v>619700</v>
       </c>
       <c r="G76" s="3">
-        <v>305500</v>
+        <v>290700</v>
       </c>
       <c r="H76" s="3">
-        <v>204200</v>
+        <v>194300</v>
       </c>
       <c r="I76" s="3">
-        <v>192700</v>
+        <v>183300</v>
       </c>
       <c r="J76" s="3">
-        <v>131300</v>
+        <v>124900</v>
       </c>
       <c r="K76" s="3">
         <v>51700</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-418400</v>
+        <v>-398100</v>
       </c>
       <c r="E81" s="3">
-        <v>-457000</v>
+        <v>-434800</v>
       </c>
       <c r="F81" s="3">
-        <v>-237800</v>
+        <v>-226300</v>
       </c>
       <c r="G81" s="3">
-        <v>-141900</v>
+        <v>-135000</v>
       </c>
       <c r="H81" s="3">
-        <v>-135200</v>
+        <v>-128600</v>
       </c>
       <c r="I81" s="3">
-        <v>-74700</v>
+        <v>-71100</v>
       </c>
       <c r="J81" s="3">
-        <v>-35900</v>
+        <v>-34200</v>
       </c>
       <c r="K81" s="3">
         <v>-10900</v>
@@ -3302,16 +3302,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16800</v>
+        <v>16000</v>
       </c>
       <c r="E83" s="3">
-        <v>10300</v>
+        <v>9800</v>
       </c>
       <c r="F83" s="3">
-        <v>7300</v>
+        <v>6900</v>
       </c>
       <c r="G83" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-455600</v>
+        <v>-433500</v>
       </c>
       <c r="E89" s="3">
-        <v>-296200</v>
+        <v>-281800</v>
       </c>
       <c r="F89" s="3">
-        <v>-191900</v>
+        <v>-182600</v>
       </c>
       <c r="G89" s="3">
-        <v>-151400</v>
+        <v>-144100</v>
       </c>
       <c r="H89" s="3">
-        <v>-103700</v>
+        <v>-98700</v>
       </c>
       <c r="I89" s="3">
-        <v>-65600</v>
+        <v>-62500</v>
       </c>
       <c r="J89" s="3">
-        <v>-47400</v>
+        <v>-45100</v>
       </c>
       <c r="K89" s="3">
         <v>-20800</v>
@@ -3592,16 +3592,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-25900</v>
+        <v>-24600</v>
       </c>
       <c r="E91" s="3">
-        <v>-21700</v>
+        <v>-20600</v>
       </c>
       <c r="F91" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="G91" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="H91" s="3">
         <v>-1000</v>
@@ -3709,16 +3709,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-120600</v>
+        <v>-114800</v>
       </c>
       <c r="E94" s="3">
-        <v>-317700</v>
+        <v>-302200</v>
       </c>
       <c r="F94" s="3">
-        <v>-5600</v>
+        <v>-5400</v>
       </c>
       <c r="G94" s="3">
-        <v>-2900</v>
+        <v>-2700</v>
       </c>
       <c r="H94" s="3">
         <v>-1000</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>383300</v>
+        <v>364700</v>
       </c>
       <c r="E100" s="3">
-        <v>657400</v>
+        <v>625500</v>
       </c>
       <c r="F100" s="3">
-        <v>538500</v>
+        <v>512300</v>
       </c>
       <c r="G100" s="3">
-        <v>221700</v>
+        <v>211000</v>
       </c>
       <c r="H100" s="3">
-        <v>136100</v>
+        <v>129400</v>
       </c>
       <c r="I100" s="3">
-        <v>128100</v>
+        <v>121900</v>
       </c>
       <c r="J100" s="3">
-        <v>115400</v>
+        <v>109700</v>
       </c>
       <c r="K100" s="3">
         <v>54100</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>42100</v>
+        <v>40100</v>
       </c>
       <c r="E101" s="3">
-        <v>-58400</v>
+        <v>-55500</v>
       </c>
       <c r="F101" s="3">
-        <v>8500</v>
+        <v>8000</v>
       </c>
       <c r="G101" s="3">
-        <v>22600</v>
+        <v>21500</v>
       </c>
       <c r="H101" s="3">
-        <v>-14900</v>
+        <v>-14200</v>
       </c>
       <c r="I101" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J101" s="3">
-        <v>9000</v>
+        <v>8600</v>
       </c>
       <c r="K101" s="3">
         <v>1800</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-150800</v>
+        <v>-143500</v>
       </c>
       <c r="E102" s="3">
-        <v>-14800</v>
+        <v>-14100</v>
       </c>
       <c r="F102" s="3">
-        <v>349400</v>
+        <v>332400</v>
       </c>
       <c r="G102" s="3">
-        <v>90000</v>
+        <v>85600</v>
       </c>
       <c r="H102" s="3">
-        <v>16400</v>
+        <v>15600</v>
       </c>
       <c r="I102" s="3">
-        <v>66200</v>
+        <v>63000</v>
       </c>
       <c r="J102" s="3">
-        <v>75800</v>
+        <v>72100</v>
       </c>
       <c r="K102" s="3">
         <v>34700</v>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>13300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J8" s="3">
         <v>8100</v>
-      </c>
-      <c r="E8" s="3">
-        <v>7200</v>
-      </c>
-      <c r="F8" s="3">
-        <v>13900</v>
-      </c>
-      <c r="G8" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J8" s="3">
-        <v>8400</v>
       </c>
       <c r="K8" s="3">
         <v>15800</v>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>296600</v>
+        <v>285000</v>
       </c>
       <c r="E12" s="3">
-        <v>258100</v>
+        <v>248100</v>
       </c>
       <c r="F12" s="3">
-        <v>189300</v>
+        <v>181900</v>
       </c>
       <c r="G12" s="3">
-        <v>144700</v>
+        <v>139100</v>
       </c>
       <c r="H12" s="3">
-        <v>102600</v>
+        <v>98600</v>
       </c>
       <c r="I12" s="3">
-        <v>67900</v>
+        <v>65200</v>
       </c>
       <c r="J12" s="3">
-        <v>41500</v>
+        <v>39900</v>
       </c>
       <c r="K12" s="3">
         <v>21700</v>
@@ -975,19 +975,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15300</v>
+        <v>14700</v>
       </c>
       <c r="E15" s="3">
-        <v>16900</v>
+        <v>16300</v>
       </c>
       <c r="F15" s="3">
-        <v>12400</v>
+        <v>11900</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
       </c>
       <c r="H15" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I15" s="3">
         <v>700</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>477000</v>
+        <v>458400</v>
       </c>
       <c r="E17" s="3">
-        <v>350400</v>
+        <v>336700</v>
       </c>
       <c r="F17" s="3">
-        <v>249200</v>
+        <v>239500</v>
       </c>
       <c r="G17" s="3">
-        <v>171600</v>
+        <v>164900</v>
       </c>
       <c r="H17" s="3">
-        <v>117400</v>
+        <v>112800</v>
       </c>
       <c r="I17" s="3">
-        <v>80500</v>
+        <v>77300</v>
       </c>
       <c r="J17" s="3">
-        <v>51800</v>
+        <v>49800</v>
       </c>
       <c r="K17" s="3">
         <v>29300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-468900</v>
+        <v>-450600</v>
       </c>
       <c r="E18" s="3">
-        <v>-343200</v>
+        <v>-329800</v>
       </c>
       <c r="F18" s="3">
-        <v>-235300</v>
+        <v>-226100</v>
       </c>
       <c r="G18" s="3">
-        <v>-160600</v>
+        <v>-154400</v>
       </c>
       <c r="H18" s="3">
-        <v>-115800</v>
+        <v>-111300</v>
       </c>
       <c r="I18" s="3">
-        <v>-75700</v>
+        <v>-72700</v>
       </c>
       <c r="J18" s="3">
-        <v>-43400</v>
+        <v>-41700</v>
       </c>
       <c r="K18" s="3">
         <v>-13500</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>74500</v>
+        <v>71600</v>
       </c>
       <c r="E20" s="3">
-        <v>-89900</v>
+        <v>-86400</v>
       </c>
       <c r="F20" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="G20" s="3">
-        <v>25300</v>
+        <v>24300</v>
       </c>
       <c r="H20" s="3">
-        <v>-13200</v>
+        <v>-12700</v>
       </c>
       <c r="I20" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="J20" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="K20" s="3">
         <v>1900</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-378300</v>
+        <v>-363700</v>
       </c>
       <c r="E21" s="3">
-        <v>-423100</v>
+        <v>-406800</v>
       </c>
       <c r="F21" s="3">
-        <v>-218200</v>
+        <v>-209800</v>
       </c>
       <c r="G21" s="3">
-        <v>-134400</v>
+        <v>-129100</v>
       </c>
       <c r="H21" s="3">
-        <v>-128200</v>
+        <v>-123200</v>
       </c>
       <c r="I21" s="3">
-        <v>-70600</v>
+        <v>-67900</v>
       </c>
       <c r="J21" s="3">
-        <v>-34300</v>
+        <v>-32900</v>
       </c>
       <c r="K21" s="3">
         <v>-11100</v>
@@ -1201,13 +1201,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4100</v>
+        <v>3900</v>
       </c>
       <c r="E22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F22" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-398500</v>
+        <v>-382900</v>
       </c>
       <c r="E23" s="3">
-        <v>-435100</v>
+        <v>-418100</v>
       </c>
       <c r="F23" s="3">
-        <v>-226500</v>
+        <v>-217700</v>
       </c>
       <c r="G23" s="3">
-        <v>-135400</v>
+        <v>-130200</v>
       </c>
       <c r="H23" s="3">
-        <v>-129100</v>
+        <v>-124100</v>
       </c>
       <c r="I23" s="3">
-        <v>-71300</v>
+        <v>-68600</v>
       </c>
       <c r="J23" s="3">
-        <v>-34800</v>
+        <v>-33500</v>
       </c>
       <c r="K23" s="3">
         <v>-11700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-398100</v>
+        <v>-382600</v>
       </c>
       <c r="E26" s="3">
-        <v>-434800</v>
+        <v>-417900</v>
       </c>
       <c r="F26" s="3">
-        <v>-226300</v>
+        <v>-217400</v>
       </c>
       <c r="G26" s="3">
-        <v>-135000</v>
+        <v>-129800</v>
       </c>
       <c r="H26" s="3">
-        <v>-128600</v>
+        <v>-123600</v>
       </c>
       <c r="I26" s="3">
-        <v>-71100</v>
+        <v>-68300</v>
       </c>
       <c r="J26" s="3">
-        <v>-34200</v>
+        <v>-32800</v>
       </c>
       <c r="K26" s="3">
         <v>-10900</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-398100</v>
+        <v>-382600</v>
       </c>
       <c r="E27" s="3">
-        <v>-434800</v>
+        <v>-417900</v>
       </c>
       <c r="F27" s="3">
-        <v>-226300</v>
+        <v>-217400</v>
       </c>
       <c r="G27" s="3">
-        <v>-135000</v>
+        <v>-129800</v>
       </c>
       <c r="H27" s="3">
-        <v>-128600</v>
+        <v>-123600</v>
       </c>
       <c r="I27" s="3">
-        <v>-71100</v>
+        <v>-68300</v>
       </c>
       <c r="J27" s="3">
-        <v>-34200</v>
+        <v>-32800</v>
       </c>
       <c r="K27" s="3">
         <v>-10900</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-74500</v>
+        <v>-71600</v>
       </c>
       <c r="E32" s="3">
-        <v>89900</v>
+        <v>86400</v>
       </c>
       <c r="F32" s="3">
-        <v>-10100</v>
+        <v>-9700</v>
       </c>
       <c r="G32" s="3">
-        <v>-25300</v>
+        <v>-24300</v>
       </c>
       <c r="H32" s="3">
-        <v>13200</v>
+        <v>12700</v>
       </c>
       <c r="I32" s="3">
-        <v>-4400</v>
+        <v>-4200</v>
       </c>
       <c r="J32" s="3">
-        <v>-8600</v>
+        <v>-8200</v>
       </c>
       <c r="K32" s="3">
         <v>-1900</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-398100</v>
+        <v>-382600</v>
       </c>
       <c r="E33" s="3">
-        <v>-434800</v>
+        <v>-417900</v>
       </c>
       <c r="F33" s="3">
-        <v>-226300</v>
+        <v>-217400</v>
       </c>
       <c r="G33" s="3">
-        <v>-135000</v>
+        <v>-129800</v>
       </c>
       <c r="H33" s="3">
-        <v>-128600</v>
+        <v>-123600</v>
       </c>
       <c r="I33" s="3">
-        <v>-71100</v>
+        <v>-68300</v>
       </c>
       <c r="J33" s="3">
-        <v>-34200</v>
+        <v>-32800</v>
       </c>
       <c r="K33" s="3">
         <v>-10900</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-398100</v>
+        <v>-382600</v>
       </c>
       <c r="E35" s="3">
-        <v>-434800</v>
+        <v>-417900</v>
       </c>
       <c r="F35" s="3">
-        <v>-226300</v>
+        <v>-217400</v>
       </c>
       <c r="G35" s="3">
-        <v>-135000</v>
+        <v>-129800</v>
       </c>
       <c r="H35" s="3">
-        <v>-128600</v>
+        <v>-123600</v>
       </c>
       <c r="I35" s="3">
-        <v>-71100</v>
+        <v>-68300</v>
       </c>
       <c r="J35" s="3">
-        <v>-34200</v>
+        <v>-32800</v>
       </c>
       <c r="K35" s="3">
         <v>-10900</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>463200</v>
+        <v>445100</v>
       </c>
       <c r="E41" s="3">
-        <v>606700</v>
+        <v>583000</v>
       </c>
       <c r="F41" s="3">
-        <v>614800</v>
+        <v>590800</v>
       </c>
       <c r="G41" s="3">
-        <v>288400</v>
+        <v>277100</v>
       </c>
       <c r="H41" s="3">
-        <v>202800</v>
+        <v>194800</v>
       </c>
       <c r="I41" s="3">
-        <v>187200</v>
+        <v>179900</v>
       </c>
       <c r="J41" s="3">
-        <v>124200</v>
+        <v>119300</v>
       </c>
       <c r="K41" s="3">
         <v>56600</v>
@@ -1864,10 +1864,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>244700</v>
+        <v>235200</v>
       </c>
       <c r="E42" s="3">
-        <v>139400</v>
+        <v>133900</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1903,25 +1903,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24100</v>
+        <v>23100</v>
       </c>
       <c r="E43" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="F43" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="G43" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="H43" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I43" s="3">
         <v>1700</v>
       </c>
       <c r="J43" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K43" s="3">
         <v>2700</v>
@@ -1942,7 +1942,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>78300</v>
+        <v>75200</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26200</v>
+        <v>25200</v>
       </c>
       <c r="E45" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="F45" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="G45" s="3">
-        <v>12900</v>
+        <v>12400</v>
       </c>
       <c r="H45" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="I45" s="3">
         <v>2000</v>
       </c>
       <c r="J45" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>836400</v>
+        <v>803800</v>
       </c>
       <c r="E46" s="3">
-        <v>768200</v>
+        <v>738200</v>
       </c>
       <c r="F46" s="3">
-        <v>634300</v>
+        <v>609600</v>
       </c>
       <c r="G46" s="3">
-        <v>304000</v>
+        <v>292100</v>
       </c>
       <c r="H46" s="3">
-        <v>212400</v>
+        <v>204100</v>
       </c>
       <c r="I46" s="3">
-        <v>190900</v>
+        <v>183500</v>
       </c>
       <c r="J46" s="3">
-        <v>130400</v>
+        <v>125300</v>
       </c>
       <c r="K46" s="3">
         <v>60000</v>
@@ -2059,16 +2059,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>153300</v>
+        <v>147300</v>
       </c>
       <c r="E47" s="3">
-        <v>130600</v>
+        <v>125500</v>
       </c>
       <c r="F47" s="3">
-        <v>16100</v>
+        <v>15500</v>
       </c>
       <c r="G47" s="3">
-        <v>17700</v>
+        <v>17000</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>130800</v>
+        <v>125700</v>
       </c>
       <c r="E48" s="3">
-        <v>112200</v>
+        <v>107800</v>
       </c>
       <c r="F48" s="3">
-        <v>46800</v>
+        <v>45000</v>
       </c>
       <c r="G48" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="H48" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="I48" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J48" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="K48" s="3">
         <v>2100</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="E49" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="F49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="J49" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="K49" s="3">
         <v>3900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1126000</v>
+        <v>1082100</v>
       </c>
       <c r="E54" s="3">
-        <v>1016900</v>
+        <v>977200</v>
       </c>
       <c r="F54" s="3">
-        <v>702400</v>
+        <v>675000</v>
       </c>
       <c r="G54" s="3">
-        <v>331100</v>
+        <v>318100</v>
       </c>
       <c r="H54" s="3">
-        <v>219000</v>
+        <v>210400</v>
       </c>
       <c r="I54" s="3">
-        <v>197300</v>
+        <v>189600</v>
       </c>
       <c r="J54" s="3">
-        <v>136800</v>
+        <v>131400</v>
       </c>
       <c r="K54" s="3">
         <v>66200</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>61700</v>
+        <v>59300</v>
       </c>
       <c r="E57" s="3">
-        <v>22700</v>
+        <v>21800</v>
       </c>
       <c r="F57" s="3">
-        <v>28800</v>
+        <v>27700</v>
       </c>
       <c r="G57" s="3">
-        <v>20500</v>
+        <v>19700</v>
       </c>
       <c r="H57" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="I57" s="3">
-        <v>13600</v>
+        <v>13000</v>
       </c>
       <c r="J57" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="K57" s="3">
         <v>5600</v>
@@ -2444,13 +2444,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="E58" s="3">
-        <v>7100</v>
+        <v>6800</v>
       </c>
       <c r="F58" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2483,16 +2483,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>35200</v>
+        <v>33900</v>
       </c>
       <c r="E59" s="3">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="F59" s="3">
-        <v>14900</v>
+        <v>14300</v>
       </c>
       <c r="G59" s="3">
-        <v>19900</v>
+        <v>19100</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2501,7 +2501,7 @@
         <v>400</v>
       </c>
       <c r="J59" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K59" s="3">
         <v>8900</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>104200</v>
+        <v>100100</v>
       </c>
       <c r="E60" s="3">
-        <v>54800</v>
+        <v>52700</v>
       </c>
       <c r="F60" s="3">
-        <v>49800</v>
+        <v>47900</v>
       </c>
       <c r="G60" s="3">
-        <v>40400</v>
+        <v>38800</v>
       </c>
       <c r="H60" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="I60" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="J60" s="3">
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="K60" s="3">
         <v>14500</v>
@@ -2561,13 +2561,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>101700</v>
+        <v>97700</v>
       </c>
       <c r="E61" s="3">
-        <v>88300</v>
+        <v>84900</v>
       </c>
       <c r="F61" s="3">
-        <v>31900</v>
+        <v>30600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2600,10 +2600,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E62" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>208900</v>
+        <v>200800</v>
       </c>
       <c r="E66" s="3">
-        <v>146400</v>
+        <v>140700</v>
       </c>
       <c r="F66" s="3">
-        <v>82600</v>
+        <v>79400</v>
       </c>
       <c r="G66" s="3">
-        <v>40400</v>
+        <v>38800</v>
       </c>
       <c r="H66" s="3">
-        <v>24700</v>
+        <v>23700</v>
       </c>
       <c r="I66" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="J66" s="3">
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="K66" s="3">
         <v>14500</v>
@@ -2968,13 +2968,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1259900</v>
+        <v>-1210800</v>
       </c>
       <c r="E72" s="3">
-        <v>-931200</v>
+        <v>-894800</v>
       </c>
       <c r="F72" s="3">
-        <v>-551500</v>
+        <v>-530000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2983,10 +2983,10 @@
         <v>3</v>
       </c>
       <c r="I72" s="3">
-        <v>178800</v>
+        <v>171800</v>
       </c>
       <c r="J72" s="3">
-        <v>121400</v>
+        <v>116700</v>
       </c>
       <c r="K72" s="3">
         <v>49200</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>917100</v>
+        <v>881300</v>
       </c>
       <c r="E76" s="3">
-        <v>870500</v>
+        <v>836500</v>
       </c>
       <c r="F76" s="3">
-        <v>619700</v>
+        <v>595600</v>
       </c>
       <c r="G76" s="3">
-        <v>290700</v>
+        <v>279300</v>
       </c>
       <c r="H76" s="3">
-        <v>194300</v>
+        <v>186700</v>
       </c>
       <c r="I76" s="3">
-        <v>183300</v>
+        <v>176200</v>
       </c>
       <c r="J76" s="3">
-        <v>124900</v>
+        <v>120000</v>
       </c>
       <c r="K76" s="3">
         <v>51700</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-398100</v>
+        <v>-382600</v>
       </c>
       <c r="E81" s="3">
-        <v>-434800</v>
+        <v>-417900</v>
       </c>
       <c r="F81" s="3">
-        <v>-226300</v>
+        <v>-217400</v>
       </c>
       <c r="G81" s="3">
-        <v>-135000</v>
+        <v>-129800</v>
       </c>
       <c r="H81" s="3">
-        <v>-128600</v>
+        <v>-123600</v>
       </c>
       <c r="I81" s="3">
-        <v>-71100</v>
+        <v>-68300</v>
       </c>
       <c r="J81" s="3">
-        <v>-34200</v>
+        <v>-32800</v>
       </c>
       <c r="K81" s="3">
         <v>-10900</v>
@@ -3302,19 +3302,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="E83" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="F83" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
       </c>
       <c r="H83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-433500</v>
+        <v>-416600</v>
       </c>
       <c r="E89" s="3">
-        <v>-281800</v>
+        <v>-270800</v>
       </c>
       <c r="F89" s="3">
-        <v>-182600</v>
+        <v>-175500</v>
       </c>
       <c r="G89" s="3">
-        <v>-144100</v>
+        <v>-138400</v>
       </c>
       <c r="H89" s="3">
-        <v>-98700</v>
+        <v>-94900</v>
       </c>
       <c r="I89" s="3">
-        <v>-62500</v>
+        <v>-60000</v>
       </c>
       <c r="J89" s="3">
-        <v>-45100</v>
+        <v>-43400</v>
       </c>
       <c r="K89" s="3">
         <v>-20800</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24600</v>
+        <v>-23600</v>
       </c>
       <c r="E91" s="3">
-        <v>-20600</v>
+        <v>-19800</v>
       </c>
       <c r="F91" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="G91" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="H91" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I91" s="3">
         <v>-700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-114800</v>
+        <v>-110300</v>
       </c>
       <c r="E94" s="3">
-        <v>-302200</v>
+        <v>-290400</v>
       </c>
       <c r="F94" s="3">
-        <v>-5400</v>
+        <v>-5100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="I94" s="3">
         <v>-700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="K94" s="3">
         <v>-500</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>364700</v>
+        <v>350500</v>
       </c>
       <c r="E100" s="3">
-        <v>625500</v>
+        <v>601100</v>
       </c>
       <c r="F100" s="3">
-        <v>512300</v>
+        <v>492300</v>
       </c>
       <c r="G100" s="3">
-        <v>211000</v>
+        <v>202700</v>
       </c>
       <c r="H100" s="3">
-        <v>129400</v>
+        <v>124400</v>
       </c>
       <c r="I100" s="3">
-        <v>121900</v>
+        <v>117200</v>
       </c>
       <c r="J100" s="3">
-        <v>109700</v>
+        <v>105500</v>
       </c>
       <c r="K100" s="3">
         <v>54100</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>40100</v>
+        <v>38500</v>
       </c>
       <c r="E101" s="3">
-        <v>-55500</v>
+        <v>-53400</v>
       </c>
       <c r="F101" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="G101" s="3">
-        <v>21500</v>
+        <v>20600</v>
       </c>
       <c r="H101" s="3">
-        <v>-14200</v>
+        <v>-13600</v>
       </c>
       <c r="I101" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J101" s="3">
-        <v>8600</v>
+        <v>8200</v>
       </c>
       <c r="K101" s="3">
         <v>1800</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-143500</v>
+        <v>-137900</v>
       </c>
       <c r="E102" s="3">
-        <v>-14100</v>
+        <v>-13600</v>
       </c>
       <c r="F102" s="3">
-        <v>332400</v>
+        <v>319400</v>
       </c>
       <c r="G102" s="3">
-        <v>85600</v>
+        <v>82300</v>
       </c>
       <c r="H102" s="3">
-        <v>15600</v>
+        <v>15000</v>
       </c>
       <c r="I102" s="3">
-        <v>63000</v>
+        <v>60500</v>
       </c>
       <c r="J102" s="3">
-        <v>72100</v>
+        <v>69300</v>
       </c>
       <c r="K102" s="3">
         <v>34700</v>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -724,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E8" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="F8" s="3">
-        <v>13300</v>
+        <v>13700</v>
       </c>
       <c r="G8" s="3">
-        <v>10600</v>
+        <v>10800</v>
       </c>
       <c r="H8" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="I8" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="J8" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="K8" s="3">
         <v>15800</v>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>3</v>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>3</v>
@@ -858,25 +858,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>285000</v>
+        <v>291700</v>
       </c>
       <c r="E12" s="3">
-        <v>248100</v>
+        <v>253900</v>
       </c>
       <c r="F12" s="3">
-        <v>181900</v>
+        <v>186200</v>
       </c>
       <c r="G12" s="3">
-        <v>139100</v>
+        <v>142400</v>
       </c>
       <c r="H12" s="3">
-        <v>98600</v>
+        <v>100900</v>
       </c>
       <c r="I12" s="3">
-        <v>65200</v>
+        <v>66700</v>
       </c>
       <c r="J12" s="3">
-        <v>39900</v>
+        <v>40800</v>
       </c>
       <c r="K12" s="3">
         <v>21700</v>
@@ -975,13 +975,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14700</v>
+        <v>15000</v>
       </c>
       <c r="E15" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="F15" s="3">
-        <v>11900</v>
+        <v>12200</v>
       </c>
       <c r="G15" s="3">
         <v>900</v>
@@ -1028,25 +1028,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>458400</v>
+        <v>469100</v>
       </c>
       <c r="E17" s="3">
-        <v>336700</v>
+        <v>344600</v>
       </c>
       <c r="F17" s="3">
-        <v>239500</v>
+        <v>245100</v>
       </c>
       <c r="G17" s="3">
-        <v>164900</v>
+        <v>168800</v>
       </c>
       <c r="H17" s="3">
-        <v>112800</v>
+        <v>115400</v>
       </c>
       <c r="I17" s="3">
-        <v>77300</v>
+        <v>79100</v>
       </c>
       <c r="J17" s="3">
-        <v>49800</v>
+        <v>51000</v>
       </c>
       <c r="K17" s="3">
         <v>29300</v>
@@ -1067,25 +1067,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-450600</v>
+        <v>-461200</v>
       </c>
       <c r="E18" s="3">
-        <v>-329800</v>
+        <v>-337500</v>
       </c>
       <c r="F18" s="3">
-        <v>-226100</v>
+        <v>-231400</v>
       </c>
       <c r="G18" s="3">
-        <v>-154400</v>
+        <v>-158000</v>
       </c>
       <c r="H18" s="3">
-        <v>-111300</v>
+        <v>-113900</v>
       </c>
       <c r="I18" s="3">
-        <v>-72700</v>
+        <v>-74400</v>
       </c>
       <c r="J18" s="3">
-        <v>-41700</v>
+        <v>-42700</v>
       </c>
       <c r="K18" s="3">
         <v>-13500</v>
@@ -1123,25 +1123,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>71600</v>
+        <v>73300</v>
       </c>
       <c r="E20" s="3">
-        <v>-86400</v>
+        <v>-88400</v>
       </c>
       <c r="F20" s="3">
-        <v>9700</v>
+        <v>9900</v>
       </c>
       <c r="G20" s="3">
-        <v>24300</v>
+        <v>24900</v>
       </c>
       <c r="H20" s="3">
-        <v>-12700</v>
+        <v>-13000</v>
       </c>
       <c r="I20" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="J20" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="K20" s="3">
         <v>1900</v>
@@ -1162,25 +1162,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-363700</v>
+        <v>-372500</v>
       </c>
       <c r="E21" s="3">
-        <v>-406800</v>
+        <v>-416500</v>
       </c>
       <c r="F21" s="3">
-        <v>-209800</v>
+        <v>-214800</v>
       </c>
       <c r="G21" s="3">
-        <v>-129100</v>
+        <v>-132200</v>
       </c>
       <c r="H21" s="3">
-        <v>-123200</v>
+        <v>-126100</v>
       </c>
       <c r="I21" s="3">
-        <v>-67900</v>
+        <v>-69500</v>
       </c>
       <c r="J21" s="3">
-        <v>-32900</v>
+        <v>-33700</v>
       </c>
       <c r="K21" s="3">
         <v>-11100</v>
@@ -1201,10 +1201,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="E22" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F22" s="3">
         <v>1200</v>
@@ -1240,25 +1240,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-382900</v>
+        <v>-391900</v>
       </c>
       <c r="E23" s="3">
-        <v>-418100</v>
+        <v>-427900</v>
       </c>
       <c r="F23" s="3">
-        <v>-217700</v>
+        <v>-222800</v>
       </c>
       <c r="G23" s="3">
-        <v>-130200</v>
+        <v>-133200</v>
       </c>
       <c r="H23" s="3">
-        <v>-124100</v>
+        <v>-127000</v>
       </c>
       <c r="I23" s="3">
-        <v>-68600</v>
+        <v>-70200</v>
       </c>
       <c r="J23" s="3">
-        <v>-33500</v>
+        <v>-34300</v>
       </c>
       <c r="K23" s="3">
         <v>-11700</v>
@@ -1357,25 +1357,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-382600</v>
+        <v>-391600</v>
       </c>
       <c r="E26" s="3">
-        <v>-417900</v>
+        <v>-427700</v>
       </c>
       <c r="F26" s="3">
-        <v>-217400</v>
+        <v>-222600</v>
       </c>
       <c r="G26" s="3">
-        <v>-129800</v>
+        <v>-132800</v>
       </c>
       <c r="H26" s="3">
-        <v>-123600</v>
+        <v>-126500</v>
       </c>
       <c r="I26" s="3">
-        <v>-68300</v>
+        <v>-69900</v>
       </c>
       <c r="J26" s="3">
-        <v>-32800</v>
+        <v>-33600</v>
       </c>
       <c r="K26" s="3">
         <v>-10900</v>
@@ -1396,25 +1396,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-382600</v>
+        <v>-391600</v>
       </c>
       <c r="E27" s="3">
-        <v>-417900</v>
+        <v>-427700</v>
       </c>
       <c r="F27" s="3">
-        <v>-217400</v>
+        <v>-222600</v>
       </c>
       <c r="G27" s="3">
-        <v>-129800</v>
+        <v>-132800</v>
       </c>
       <c r="H27" s="3">
-        <v>-123600</v>
+        <v>-126500</v>
       </c>
       <c r="I27" s="3">
-        <v>-68300</v>
+        <v>-69900</v>
       </c>
       <c r="J27" s="3">
-        <v>-32800</v>
+        <v>-33600</v>
       </c>
       <c r="K27" s="3">
         <v>-10900</v>
@@ -1591,25 +1591,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-71600</v>
+        <v>-73300</v>
       </c>
       <c r="E32" s="3">
-        <v>86400</v>
+        <v>88400</v>
       </c>
       <c r="F32" s="3">
-        <v>-9700</v>
+        <v>-9900</v>
       </c>
       <c r="G32" s="3">
-        <v>-24300</v>
+        <v>-24900</v>
       </c>
       <c r="H32" s="3">
-        <v>12700</v>
+        <v>13000</v>
       </c>
       <c r="I32" s="3">
-        <v>-4200</v>
+        <v>-4300</v>
       </c>
       <c r="J32" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="K32" s="3">
         <v>-1900</v>
@@ -1630,25 +1630,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-382600</v>
+        <v>-391600</v>
       </c>
       <c r="E33" s="3">
-        <v>-417900</v>
+        <v>-427700</v>
       </c>
       <c r="F33" s="3">
-        <v>-217400</v>
+        <v>-222600</v>
       </c>
       <c r="G33" s="3">
-        <v>-129800</v>
+        <v>-132800</v>
       </c>
       <c r="H33" s="3">
-        <v>-123600</v>
+        <v>-126500</v>
       </c>
       <c r="I33" s="3">
-        <v>-68300</v>
+        <v>-69900</v>
       </c>
       <c r="J33" s="3">
-        <v>-32800</v>
+        <v>-33600</v>
       </c>
       <c r="K33" s="3">
         <v>-10900</v>
@@ -1708,25 +1708,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-382600</v>
+        <v>-391600</v>
       </c>
       <c r="E35" s="3">
-        <v>-417900</v>
+        <v>-427700</v>
       </c>
       <c r="F35" s="3">
-        <v>-217400</v>
+        <v>-222600</v>
       </c>
       <c r="G35" s="3">
-        <v>-129800</v>
+        <v>-132800</v>
       </c>
       <c r="H35" s="3">
-        <v>-123600</v>
+        <v>-126500</v>
       </c>
       <c r="I35" s="3">
-        <v>-68300</v>
+        <v>-69900</v>
       </c>
       <c r="J35" s="3">
-        <v>-32800</v>
+        <v>-33600</v>
       </c>
       <c r="K35" s="3">
         <v>-10900</v>
@@ -1825,25 +1825,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>445100</v>
+        <v>455500</v>
       </c>
       <c r="E41" s="3">
-        <v>583000</v>
+        <v>596700</v>
       </c>
       <c r="F41" s="3">
-        <v>590800</v>
+        <v>604700</v>
       </c>
       <c r="G41" s="3">
-        <v>277100</v>
+        <v>283600</v>
       </c>
       <c r="H41" s="3">
-        <v>194800</v>
+        <v>199400</v>
       </c>
       <c r="I41" s="3">
-        <v>179900</v>
+        <v>184100</v>
       </c>
       <c r="J41" s="3">
-        <v>119300</v>
+        <v>122100</v>
       </c>
       <c r="K41" s="3">
         <v>56600</v>
@@ -1864,10 +1864,10 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>235200</v>
+        <v>240700</v>
       </c>
       <c r="E42" s="3">
-        <v>133900</v>
+        <v>137100</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1903,16 +1903,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23100</v>
+        <v>23700</v>
       </c>
       <c r="E43" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="F43" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="G43" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="H43" s="3">
         <v>2400</v>
@@ -1942,7 +1942,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>75200</v>
+        <v>77000</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>3</v>
@@ -1981,25 +1981,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25200</v>
+        <v>25800</v>
       </c>
       <c r="E45" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="F45" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="G45" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="H45" s="3">
-        <v>6900</v>
+        <v>7100</v>
       </c>
       <c r="I45" s="3">
         <v>2000</v>
       </c>
       <c r="J45" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="K45" s="3">
         <v>700</v>
@@ -2020,25 +2020,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>803800</v>
+        <v>822600</v>
       </c>
       <c r="E46" s="3">
-        <v>738200</v>
+        <v>755500</v>
       </c>
       <c r="F46" s="3">
-        <v>609600</v>
+        <v>623900</v>
       </c>
       <c r="G46" s="3">
-        <v>292100</v>
+        <v>299000</v>
       </c>
       <c r="H46" s="3">
-        <v>204100</v>
+        <v>208900</v>
       </c>
       <c r="I46" s="3">
-        <v>183500</v>
+        <v>187800</v>
       </c>
       <c r="J46" s="3">
-        <v>125300</v>
+        <v>128300</v>
       </c>
       <c r="K46" s="3">
         <v>60000</v>
@@ -2059,16 +2059,16 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>147300</v>
+        <v>150800</v>
       </c>
       <c r="E47" s="3">
-        <v>125500</v>
+        <v>128400</v>
       </c>
       <c r="F47" s="3">
-        <v>15500</v>
+        <v>15900</v>
       </c>
       <c r="G47" s="3">
-        <v>17000</v>
+        <v>17400</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -2098,25 +2098,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>125700</v>
+        <v>128700</v>
       </c>
       <c r="E48" s="3">
-        <v>107800</v>
+        <v>110400</v>
       </c>
       <c r="F48" s="3">
-        <v>45000</v>
+        <v>46000</v>
       </c>
       <c r="G48" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="H48" s="3">
         <v>2600</v>
       </c>
       <c r="I48" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="J48" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="K48" s="3">
         <v>2100</v>
@@ -2137,25 +2137,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="E49" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="F49" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G49" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H49" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I49" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J49" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K49" s="3">
         <v>3900</v>
@@ -2332,25 +2332,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1082100</v>
+        <v>1107500</v>
       </c>
       <c r="E54" s="3">
-        <v>977200</v>
+        <v>1000200</v>
       </c>
       <c r="F54" s="3">
-        <v>675000</v>
+        <v>690800</v>
       </c>
       <c r="G54" s="3">
-        <v>318100</v>
+        <v>325600</v>
       </c>
       <c r="H54" s="3">
-        <v>210400</v>
+        <v>215400</v>
       </c>
       <c r="I54" s="3">
-        <v>189600</v>
+        <v>194000</v>
       </c>
       <c r="J54" s="3">
-        <v>131400</v>
+        <v>134500</v>
       </c>
       <c r="K54" s="3">
         <v>66200</v>
@@ -2405,25 +2405,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>59300</v>
+        <v>60700</v>
       </c>
       <c r="E57" s="3">
-        <v>21800</v>
+        <v>22400</v>
       </c>
       <c r="F57" s="3">
-        <v>27700</v>
+        <v>28300</v>
       </c>
       <c r="G57" s="3">
-        <v>19700</v>
+        <v>20200</v>
       </c>
       <c r="H57" s="3">
-        <v>23700</v>
+        <v>24300</v>
       </c>
       <c r="I57" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="J57" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="K57" s="3">
         <v>5600</v>
@@ -2444,13 +2444,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E58" s="3">
         <v>7000</v>
       </c>
-      <c r="E58" s="3">
-        <v>6800</v>
-      </c>
       <c r="F58" s="3">
-        <v>5900</v>
+        <v>6000</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2483,16 +2483,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>33900</v>
+        <v>34700</v>
       </c>
       <c r="E59" s="3">
-        <v>24000</v>
+        <v>24500</v>
       </c>
       <c r="F59" s="3">
-        <v>14300</v>
+        <v>14600</v>
       </c>
       <c r="G59" s="3">
-        <v>19100</v>
+        <v>19600</v>
       </c>
       <c r="H59" s="3">
         <v>0</v>
@@ -2522,25 +2522,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100100</v>
+        <v>102400</v>
       </c>
       <c r="E60" s="3">
-        <v>52700</v>
+        <v>53900</v>
       </c>
       <c r="F60" s="3">
-        <v>47900</v>
+        <v>49000</v>
       </c>
       <c r="G60" s="3">
-        <v>38800</v>
+        <v>39700</v>
       </c>
       <c r="H60" s="3">
-        <v>23700</v>
+        <v>24300</v>
       </c>
       <c r="I60" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="J60" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="K60" s="3">
         <v>14500</v>
@@ -2561,13 +2561,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>97700</v>
+        <v>100000</v>
       </c>
       <c r="E61" s="3">
-        <v>84900</v>
+        <v>86900</v>
       </c>
       <c r="F61" s="3">
-        <v>30600</v>
+        <v>31400</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2756,25 +2756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200800</v>
+        <v>205500</v>
       </c>
       <c r="E66" s="3">
-        <v>140700</v>
+        <v>144000</v>
       </c>
       <c r="F66" s="3">
-        <v>79400</v>
+        <v>81300</v>
       </c>
       <c r="G66" s="3">
-        <v>38800</v>
+        <v>39700</v>
       </c>
       <c r="H66" s="3">
-        <v>23700</v>
+        <v>24300</v>
       </c>
       <c r="I66" s="3">
-        <v>13400</v>
+        <v>13700</v>
       </c>
       <c r="J66" s="3">
-        <v>11400</v>
+        <v>11700</v>
       </c>
       <c r="K66" s="3">
         <v>14500</v>
@@ -2968,13 +2968,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1210800</v>
+        <v>-1239200</v>
       </c>
       <c r="E72" s="3">
-        <v>-894800</v>
+        <v>-915800</v>
       </c>
       <c r="F72" s="3">
-        <v>-530000</v>
+        <v>-542400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2983,10 +2983,10 @@
         <v>3</v>
       </c>
       <c r="I72" s="3">
-        <v>171800</v>
+        <v>175800</v>
       </c>
       <c r="J72" s="3">
-        <v>116700</v>
+        <v>119400</v>
       </c>
       <c r="K72" s="3">
         <v>49200</v>
@@ -3124,25 +3124,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>881300</v>
+        <v>902000</v>
       </c>
       <c r="E76" s="3">
-        <v>836500</v>
+        <v>856200</v>
       </c>
       <c r="F76" s="3">
-        <v>595600</v>
+        <v>609500</v>
       </c>
       <c r="G76" s="3">
-        <v>279300</v>
+        <v>285900</v>
       </c>
       <c r="H76" s="3">
-        <v>186700</v>
+        <v>191100</v>
       </c>
       <c r="I76" s="3">
-        <v>176200</v>
+        <v>180300</v>
       </c>
       <c r="J76" s="3">
-        <v>120000</v>
+        <v>122800</v>
       </c>
       <c r="K76" s="3">
         <v>51700</v>
@@ -3246,25 +3246,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-382600</v>
+        <v>-391600</v>
       </c>
       <c r="E81" s="3">
-        <v>-417900</v>
+        <v>-427700</v>
       </c>
       <c r="F81" s="3">
-        <v>-217400</v>
+        <v>-222600</v>
       </c>
       <c r="G81" s="3">
-        <v>-129800</v>
+        <v>-132800</v>
       </c>
       <c r="H81" s="3">
-        <v>-123600</v>
+        <v>-126500</v>
       </c>
       <c r="I81" s="3">
-        <v>-68300</v>
+        <v>-69900</v>
       </c>
       <c r="J81" s="3">
-        <v>-32800</v>
+        <v>-33600</v>
       </c>
       <c r="K81" s="3">
         <v>-10900</v>
@@ -3302,13 +3302,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15400</v>
+        <v>15700</v>
       </c>
       <c r="E83" s="3">
-        <v>9400</v>
+        <v>9600</v>
       </c>
       <c r="F83" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="G83" s="3">
         <v>900</v>
@@ -3536,25 +3536,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-416600</v>
+        <v>-426300</v>
       </c>
       <c r="E89" s="3">
-        <v>-270800</v>
+        <v>-277200</v>
       </c>
       <c r="F89" s="3">
-        <v>-175500</v>
+        <v>-179600</v>
       </c>
       <c r="G89" s="3">
-        <v>-138400</v>
+        <v>-141700</v>
       </c>
       <c r="H89" s="3">
-        <v>-94900</v>
+        <v>-97100</v>
       </c>
       <c r="I89" s="3">
-        <v>-60000</v>
+        <v>-61400</v>
       </c>
       <c r="J89" s="3">
-        <v>-43400</v>
+        <v>-44400</v>
       </c>
       <c r="K89" s="3">
         <v>-20800</v>
@@ -3592,25 +3592,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-23600</v>
+        <v>-24200</v>
       </c>
       <c r="E91" s="3">
-        <v>-19800</v>
+        <v>-20300</v>
       </c>
       <c r="F91" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="G91" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H91" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I91" s="3">
         <v>-700</v>
       </c>
       <c r="J91" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K91" s="3">
         <v>-500</v>
@@ -3709,25 +3709,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-110300</v>
+        <v>-112900</v>
       </c>
       <c r="E94" s="3">
-        <v>-290400</v>
+        <v>-297300</v>
       </c>
       <c r="F94" s="3">
-        <v>-5100</v>
+        <v>-5300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2600</v>
+        <v>-2700</v>
       </c>
       <c r="H94" s="3">
-        <v>-900</v>
+        <v>-1000</v>
       </c>
       <c r="I94" s="3">
         <v>-700</v>
       </c>
       <c r="J94" s="3">
-        <v>-1000</v>
+        <v>-1100</v>
       </c>
       <c r="K94" s="3">
         <v>-500</v>
@@ -3921,25 +3921,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>350500</v>
+        <v>358700</v>
       </c>
       <c r="E100" s="3">
-        <v>601100</v>
+        <v>615200</v>
       </c>
       <c r="F100" s="3">
-        <v>492300</v>
+        <v>503900</v>
       </c>
       <c r="G100" s="3">
-        <v>202700</v>
+        <v>207500</v>
       </c>
       <c r="H100" s="3">
-        <v>124400</v>
+        <v>127300</v>
       </c>
       <c r="I100" s="3">
-        <v>117200</v>
+        <v>119900</v>
       </c>
       <c r="J100" s="3">
-        <v>105500</v>
+        <v>107900</v>
       </c>
       <c r="K100" s="3">
         <v>54100</v>
@@ -3960,25 +3960,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>38500</v>
+        <v>39400</v>
       </c>
       <c r="E101" s="3">
-        <v>-53400</v>
+        <v>-54600</v>
       </c>
       <c r="F101" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G101" s="3">
-        <v>20600</v>
+        <v>21100</v>
       </c>
       <c r="H101" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="I101" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J101" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="K101" s="3">
         <v>1800</v>
@@ -3999,25 +3999,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-137900</v>
+        <v>-141100</v>
       </c>
       <c r="E102" s="3">
-        <v>-13600</v>
+        <v>-13900</v>
       </c>
       <c r="F102" s="3">
-        <v>319400</v>
+        <v>326900</v>
       </c>
       <c r="G102" s="3">
-        <v>82300</v>
+        <v>84200</v>
       </c>
       <c r="H102" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="I102" s="3">
-        <v>60500</v>
+        <v>61900</v>
       </c>
       <c r="J102" s="3">
-        <v>69300</v>
+        <v>70900</v>
       </c>
       <c r="K102" s="3">
         <v>34700</v>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>ASND</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,114 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>7900</v>
+        <v>54100</v>
       </c>
       <c r="E8" s="3">
-        <v>7100</v>
+        <v>8200</v>
       </c>
       <c r="F8" s="3">
-        <v>13700</v>
+        <v>7400</v>
       </c>
       <c r="G8" s="3">
-        <v>10800</v>
+        <v>14200</v>
       </c>
       <c r="H8" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I8" s="3">
         <v>1600</v>
       </c>
-      <c r="I8" s="3">
-        <v>4700</v>
-      </c>
       <c r="J8" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K8" s="3">
         <v>8300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>15800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17100</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>3600</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3700</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -795,17 +801,20 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>4300</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>41300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -834,9 +843,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,47 +864,51 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>291700</v>
+        <v>390100</v>
       </c>
       <c r="E12" s="3">
-        <v>253900</v>
+        <v>302300</v>
       </c>
       <c r="F12" s="3">
-        <v>186200</v>
+        <v>263100</v>
       </c>
       <c r="G12" s="3">
-        <v>142400</v>
+        <v>193000</v>
       </c>
       <c r="H12" s="3">
-        <v>100900</v>
+        <v>147500</v>
       </c>
       <c r="I12" s="3">
-        <v>66700</v>
+        <v>104600</v>
       </c>
       <c r="J12" s="3">
+        <v>69200</v>
+      </c>
+      <c r="K12" s="3">
         <v>40800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>21700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>15200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>12500</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,9 +945,12 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,38 +987,41 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>15000</v>
+        <v>17200</v>
       </c>
       <c r="E15" s="3">
-        <v>16600</v>
+        <v>15500</v>
       </c>
       <c r="F15" s="3">
-        <v>12200</v>
+        <v>17300</v>
       </c>
       <c r="G15" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H15" s="3">
         <v>900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
+        <v>800</v>
+      </c>
+      <c r="J15" s="3">
         <v>700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>600</v>
       </c>
       <c r="K15" s="3">
         <v>600</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
+      <c r="L15" s="3">
+        <v>600</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>3</v>
@@ -1007,9 +1029,12 @@
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1022,86 +1047,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>469100</v>
+        <v>648500</v>
       </c>
       <c r="E17" s="3">
-        <v>344600</v>
+        <v>486200</v>
       </c>
       <c r="F17" s="3">
-        <v>245100</v>
+        <v>357200</v>
       </c>
       <c r="G17" s="3">
-        <v>168800</v>
+        <v>254000</v>
       </c>
       <c r="H17" s="3">
-        <v>115400</v>
+        <v>174900</v>
       </c>
       <c r="I17" s="3">
-        <v>79100</v>
+        <v>119600</v>
       </c>
       <c r="J17" s="3">
+        <v>82000</v>
+      </c>
+      <c r="K17" s="3">
         <v>51000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>29300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>18100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>15400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-461200</v>
+        <v>-594400</v>
       </c>
       <c r="E18" s="3">
-        <v>-337500</v>
+        <v>-478000</v>
       </c>
       <c r="F18" s="3">
-        <v>-231400</v>
+        <v>-349800</v>
       </c>
       <c r="G18" s="3">
-        <v>-158000</v>
+        <v>-239900</v>
       </c>
       <c r="H18" s="3">
-        <v>-113900</v>
+        <v>-163700</v>
       </c>
       <c r="I18" s="3">
-        <v>-74400</v>
+        <v>-118000</v>
       </c>
       <c r="J18" s="3">
+        <v>-77100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-42700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1117,106 +1149,113 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>73300</v>
+        <v>15500</v>
       </c>
       <c r="E20" s="3">
-        <v>-88400</v>
+        <v>75900</v>
       </c>
       <c r="F20" s="3">
-        <v>9900</v>
+        <v>-91700</v>
       </c>
       <c r="G20" s="3">
-        <v>24900</v>
+        <v>10300</v>
       </c>
       <c r="H20" s="3">
-        <v>-13000</v>
+        <v>25800</v>
       </c>
       <c r="I20" s="3">
-        <v>4300</v>
+        <v>-13500</v>
       </c>
       <c r="J20" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K20" s="3">
         <v>8400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-372500</v>
+        <v>-559900</v>
       </c>
       <c r="E21" s="3">
-        <v>-416500</v>
+        <v>-385800</v>
       </c>
       <c r="F21" s="3">
-        <v>-214800</v>
+        <v>-431500</v>
       </c>
       <c r="G21" s="3">
-        <v>-132200</v>
+        <v>-222600</v>
       </c>
       <c r="H21" s="3">
-        <v>-126100</v>
+        <v>-137000</v>
       </c>
       <c r="I21" s="3">
-        <v>-69500</v>
+        <v>-130700</v>
       </c>
       <c r="J21" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="K21" s="3">
         <v>-33700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>6100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>4000</v>
+        <v>32500</v>
       </c>
       <c r="E22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F22" s="3">
         <v>2000</v>
       </c>
-      <c r="F22" s="3">
-        <v>1200</v>
-      </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="H22" s="3">
         <v>100</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1230,90 +1269,99 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-391900</v>
+        <v>-611300</v>
       </c>
       <c r="E23" s="3">
-        <v>-427900</v>
+        <v>-406200</v>
       </c>
       <c r="F23" s="3">
-        <v>-222800</v>
+        <v>-443500</v>
       </c>
       <c r="G23" s="3">
-        <v>-133200</v>
+        <v>-230900</v>
       </c>
       <c r="H23" s="3">
-        <v>-127000</v>
+        <v>-138100</v>
       </c>
       <c r="I23" s="3">
-        <v>-70200</v>
+        <v>-131600</v>
       </c>
       <c r="J23" s="3">
+        <v>-72700</v>
+      </c>
+      <c r="K23" s="3">
         <v>-34300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1400</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>-200</v>
       </c>
       <c r="F24" s="3">
         <v>-200</v>
       </c>
       <c r="G24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H24" s="3">
         <v>-400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>700</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1350,87 +1398,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-391600</v>
+        <v>-617000</v>
       </c>
       <c r="E26" s="3">
-        <v>-427700</v>
+        <v>-405800</v>
       </c>
       <c r="F26" s="3">
-        <v>-222600</v>
+        <v>-443300</v>
       </c>
       <c r="G26" s="3">
-        <v>-132800</v>
+        <v>-230700</v>
       </c>
       <c r="H26" s="3">
-        <v>-126500</v>
+        <v>-137600</v>
       </c>
       <c r="I26" s="3">
-        <v>-69900</v>
+        <v>-131100</v>
       </c>
       <c r="J26" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-33600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-10900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>4900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1400</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-391600</v>
+        <v>-617000</v>
       </c>
       <c r="E27" s="3">
-        <v>-427700</v>
+        <v>-405800</v>
       </c>
       <c r="F27" s="3">
-        <v>-222600</v>
+        <v>-443300</v>
       </c>
       <c r="G27" s="3">
-        <v>-132800</v>
+        <v>-230700</v>
       </c>
       <c r="H27" s="3">
-        <v>-126500</v>
+        <v>-137600</v>
       </c>
       <c r="I27" s="3">
-        <v>-69900</v>
+        <v>-131100</v>
       </c>
       <c r="J27" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="K27" s="3">
         <v>-33600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-10900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>4900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1400</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1467,9 +1524,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1506,9 +1566,12 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1545,9 +1608,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1584,87 +1650,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-73300</v>
+        <v>-15500</v>
       </c>
       <c r="E32" s="3">
-        <v>88400</v>
+        <v>-75900</v>
       </c>
       <c r="F32" s="3">
-        <v>-9900</v>
+        <v>91700</v>
       </c>
       <c r="G32" s="3">
-        <v>-24900</v>
+        <v>-10300</v>
       </c>
       <c r="H32" s="3">
-        <v>13000</v>
+        <v>-25800</v>
       </c>
       <c r="I32" s="3">
-        <v>-4300</v>
+        <v>13500</v>
       </c>
       <c r="J32" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-8400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-391600</v>
+        <v>-617000</v>
       </c>
       <c r="E33" s="3">
-        <v>-427700</v>
+        <v>-405800</v>
       </c>
       <c r="F33" s="3">
-        <v>-222600</v>
+        <v>-443300</v>
       </c>
       <c r="G33" s="3">
-        <v>-132800</v>
+        <v>-230700</v>
       </c>
       <c r="H33" s="3">
-        <v>-126500</v>
+        <v>-137600</v>
       </c>
       <c r="I33" s="3">
-        <v>-69900</v>
+        <v>-131100</v>
       </c>
       <c r="J33" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="K33" s="3">
         <v>-33600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-10900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>4900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1400</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1701,92 +1776,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-391600</v>
+        <v>-617000</v>
       </c>
       <c r="E35" s="3">
-        <v>-427700</v>
+        <v>-405800</v>
       </c>
       <c r="F35" s="3">
-        <v>-222600</v>
+        <v>-443300</v>
       </c>
       <c r="G35" s="3">
-        <v>-132800</v>
+        <v>-230700</v>
       </c>
       <c r="H35" s="3">
-        <v>-126500</v>
+        <v>-137600</v>
       </c>
       <c r="I35" s="3">
-        <v>-69900</v>
+        <v>-131100</v>
       </c>
       <c r="J35" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="K35" s="3">
         <v>-33600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-10900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>4900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1400</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1802,8 +1886,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1819,58 +1904,62 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>455500</v>
+        <v>470600</v>
       </c>
       <c r="E41" s="3">
-        <v>596700</v>
+        <v>472200</v>
       </c>
       <c r="F41" s="3">
-        <v>604700</v>
+        <v>618400</v>
       </c>
       <c r="G41" s="3">
-        <v>283600</v>
+        <v>626700</v>
       </c>
       <c r="H41" s="3">
-        <v>199400</v>
+        <v>294000</v>
       </c>
       <c r="I41" s="3">
-        <v>184100</v>
+        <v>206700</v>
       </c>
       <c r="J41" s="3">
+        <v>190800</v>
+      </c>
+      <c r="K41" s="3">
         <v>122100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>56600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>16000</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>240700</v>
+        <v>307500</v>
       </c>
       <c r="E42" s="3">
-        <v>137100</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>249500</v>
+      </c>
+      <c r="F42" s="3">
+        <v>142100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1887,8 +1976,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1896,56 +1985,62 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23700</v>
+        <v>27100</v>
       </c>
       <c r="E43" s="3">
-        <v>7500</v>
+        <v>24500</v>
       </c>
       <c r="F43" s="3">
-        <v>5500</v>
+        <v>7800</v>
       </c>
       <c r="G43" s="3">
+        <v>5700</v>
+      </c>
+      <c r="H43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2700</v>
-      </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>6700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>77000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>138300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>79800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1962,8 +2057,8 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -1974,104 +2069,113 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>25800</v>
+        <v>33600</v>
       </c>
       <c r="E45" s="3">
-        <v>14300</v>
+        <v>26700</v>
       </c>
       <c r="F45" s="3">
-        <v>13700</v>
+        <v>14800</v>
       </c>
       <c r="G45" s="3">
-        <v>12700</v>
+        <v>14200</v>
       </c>
       <c r="H45" s="3">
-        <v>7100</v>
+        <v>13100</v>
       </c>
       <c r="I45" s="3">
-        <v>2000</v>
+        <v>7300</v>
       </c>
       <c r="J45" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K45" s="3">
         <v>3900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>700</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>822600</v>
+        <v>977000</v>
       </c>
       <c r="E46" s="3">
-        <v>755500</v>
+        <v>852600</v>
       </c>
       <c r="F46" s="3">
-        <v>623900</v>
+        <v>783100</v>
       </c>
       <c r="G46" s="3">
-        <v>299000</v>
+        <v>646600</v>
       </c>
       <c r="H46" s="3">
-        <v>208900</v>
+        <v>309900</v>
       </c>
       <c r="I46" s="3">
-        <v>187800</v>
+        <v>216500</v>
       </c>
       <c r="J46" s="3">
+        <v>194600</v>
+      </c>
+      <c r="K46" s="3">
         <v>128300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>60000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>25400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>22700</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>150800</v>
+        <v>34200</v>
       </c>
       <c r="E47" s="3">
-        <v>128400</v>
+        <v>156300</v>
       </c>
       <c r="F47" s="3">
-        <v>15900</v>
+        <v>133100</v>
       </c>
       <c r="G47" s="3">
-        <v>17400</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
+        <v>16400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>18100</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2088,90 +2192,99 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>128700</v>
+        <v>136600</v>
       </c>
       <c r="E48" s="3">
-        <v>110400</v>
+        <v>133400</v>
       </c>
       <c r="F48" s="3">
-        <v>46000</v>
+        <v>114400</v>
       </c>
       <c r="G48" s="3">
-        <v>4400</v>
+        <v>47700</v>
       </c>
       <c r="H48" s="3">
-        <v>2600</v>
+        <v>4600</v>
       </c>
       <c r="I48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K48" s="3">
         <v>2400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M48" s="3">
         <v>2400</v>
       </c>
-      <c r="K48" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L48" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1300</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="E49" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="F49" s="3">
+        <v>6000</v>
+      </c>
+      <c r="G49" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H49" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3600</v>
       </c>
-      <c r="G49" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H49" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2208,9 +2321,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2247,9 +2363,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2259,14 +2378,14 @@
       <c r="E52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="3">
         <v>1500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>300</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2275,20 +2394,23 @@
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>300</v>
+      </c>
+      <c r="L52" s="3">
         <v>200</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2325,48 +2447,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1107500</v>
+        <v>1152900</v>
       </c>
       <c r="E54" s="3">
-        <v>1000200</v>
+        <v>1147800</v>
       </c>
       <c r="F54" s="3">
-        <v>690800</v>
+        <v>1036600</v>
       </c>
       <c r="G54" s="3">
-        <v>325600</v>
+        <v>716000</v>
       </c>
       <c r="H54" s="3">
-        <v>215400</v>
+        <v>337500</v>
       </c>
       <c r="I54" s="3">
-        <v>194000</v>
+        <v>223200</v>
       </c>
       <c r="J54" s="3">
+        <v>201100</v>
+      </c>
+      <c r="K54" s="3">
         <v>134500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>66200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>31900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>27900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2510,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2399,61 +2528,65 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>60700</v>
+        <v>106900</v>
       </c>
       <c r="E57" s="3">
-        <v>22400</v>
+        <v>62900</v>
       </c>
       <c r="F57" s="3">
-        <v>28300</v>
+        <v>23200</v>
       </c>
       <c r="G57" s="3">
-        <v>20200</v>
+        <v>29400</v>
       </c>
       <c r="H57" s="3">
-        <v>24300</v>
+        <v>20900</v>
       </c>
       <c r="I57" s="3">
-        <v>13400</v>
+        <v>25100</v>
       </c>
       <c r="J57" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K57" s="3">
         <v>8500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2800</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7100</v>
+        <v>26900</v>
       </c>
       <c r="E58" s="3">
-        <v>7000</v>
+        <v>7400</v>
       </c>
       <c r="F58" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>7300</v>
+      </c>
+      <c r="G58" s="3">
+        <v>6200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2464,113 +2597,122 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>34700</v>
+        <v>47400</v>
       </c>
       <c r="E59" s="3">
-        <v>24500</v>
+        <v>35900</v>
       </c>
       <c r="F59" s="3">
-        <v>14600</v>
+        <v>25400</v>
       </c>
       <c r="G59" s="3">
-        <v>19600</v>
+        <v>15200</v>
       </c>
       <c r="H59" s="3">
-        <v>0</v>
+        <v>20300</v>
       </c>
       <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
         <v>400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>8900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>21400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>23200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>102400</v>
+        <v>181200</v>
       </c>
       <c r="E60" s="3">
-        <v>53900</v>
+        <v>106200</v>
       </c>
       <c r="F60" s="3">
-        <v>49000</v>
+        <v>55900</v>
       </c>
       <c r="G60" s="3">
-        <v>39700</v>
+        <v>50800</v>
       </c>
       <c r="H60" s="3">
-        <v>24300</v>
+        <v>41200</v>
       </c>
       <c r="I60" s="3">
-        <v>13700</v>
+        <v>25100</v>
       </c>
       <c r="J60" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K60" s="3">
         <v>11700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>14500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>24400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>26200</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100000</v>
+        <v>511000</v>
       </c>
       <c r="E61" s="3">
-        <v>86900</v>
+        <v>103600</v>
       </c>
       <c r="F61" s="3">
-        <v>31400</v>
+        <v>90100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2593,23 +2735,26 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>3000</v>
+        <v>182100</v>
       </c>
       <c r="E62" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F62" s="3">
-        <v>900</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>3300</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1000</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2626,15 +2771,18 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2671,9 +2819,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2710,9 +2861,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2749,48 +2903,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>205500</v>
+        <v>874300</v>
       </c>
       <c r="E66" s="3">
-        <v>144000</v>
+        <v>213000</v>
       </c>
       <c r="F66" s="3">
-        <v>81300</v>
+        <v>149300</v>
       </c>
       <c r="G66" s="3">
-        <v>39700</v>
+        <v>84200</v>
       </c>
       <c r="H66" s="3">
-        <v>24300</v>
+        <v>41200</v>
       </c>
       <c r="I66" s="3">
-        <v>13700</v>
+        <v>25100</v>
       </c>
       <c r="J66" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K66" s="3">
         <v>11700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26200</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2806,8 +2966,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2844,9 +3005,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2883,9 +3047,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2922,9 +3089,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2961,48 +3131,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1239200</v>
+        <v>-1968400</v>
       </c>
       <c r="E72" s="3">
-        <v>-915800</v>
+        <v>-1284300</v>
       </c>
       <c r="F72" s="3">
-        <v>-542400</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-949200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-562200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="3">
-        <v>175800</v>
+      <c r="I72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J72" s="3">
+        <v>182300</v>
+      </c>
+      <c r="K72" s="3">
         <v>119400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>49200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>5800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1300</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3039,9 +3215,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3078,9 +3257,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3117,48 +3299,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>902000</v>
+        <v>278600</v>
       </c>
       <c r="E76" s="3">
-        <v>856200</v>
+        <v>934900</v>
       </c>
       <c r="F76" s="3">
-        <v>609500</v>
+        <v>887400</v>
       </c>
       <c r="G76" s="3">
-        <v>285900</v>
+        <v>631700</v>
       </c>
       <c r="H76" s="3">
-        <v>191100</v>
+        <v>296300</v>
       </c>
       <c r="I76" s="3">
-        <v>180300</v>
+        <v>198100</v>
       </c>
       <c r="J76" s="3">
+        <v>186900</v>
+      </c>
+      <c r="K76" s="3">
         <v>122800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>7500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3195,92 +3383,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-391600</v>
+        <v>-617000</v>
       </c>
       <c r="E81" s="3">
-        <v>-427700</v>
+        <v>-405800</v>
       </c>
       <c r="F81" s="3">
-        <v>-222600</v>
+        <v>-443300</v>
       </c>
       <c r="G81" s="3">
-        <v>-132800</v>
+        <v>-230700</v>
       </c>
       <c r="H81" s="3">
-        <v>-126500</v>
+        <v>-137600</v>
       </c>
       <c r="I81" s="3">
-        <v>-69900</v>
+        <v>-131100</v>
       </c>
       <c r="J81" s="3">
+        <v>-72500</v>
+      </c>
+      <c r="K81" s="3">
         <v>-33600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-10900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>4900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1400</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3296,47 +3493,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15700</v>
+        <v>19000</v>
       </c>
       <c r="E83" s="3">
-        <v>9600</v>
+        <v>16300</v>
       </c>
       <c r="F83" s="3">
-        <v>6800</v>
+        <v>10000</v>
       </c>
       <c r="G83" s="3">
+        <v>7100</v>
+      </c>
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>800</v>
+      </c>
+      <c r="J83" s="3">
         <v>700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>600</v>
       </c>
       <c r="K83" s="3">
         <v>600</v>
       </c>
       <c r="L83" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>500</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,9 +3574,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3412,9 +3616,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3451,9 +3658,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3490,9 +3700,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3529,48 +3742,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-426300</v>
+        <v>-524400</v>
       </c>
       <c r="E89" s="3">
-        <v>-277200</v>
+        <v>-441900</v>
       </c>
       <c r="F89" s="3">
-        <v>-179600</v>
+        <v>-287300</v>
       </c>
       <c r="G89" s="3">
-        <v>-141700</v>
+        <v>-186100</v>
       </c>
       <c r="H89" s="3">
-        <v>-97100</v>
+        <v>-146900</v>
       </c>
       <c r="I89" s="3">
-        <v>-61400</v>
+        <v>-100600</v>
       </c>
       <c r="J89" s="3">
+        <v>-63700</v>
+      </c>
+      <c r="K89" s="3">
         <v>-44400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-20800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>7500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3586,47 +3805,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-24200</v>
+        <v>-15300</v>
       </c>
       <c r="E91" s="3">
-        <v>-20300</v>
+        <v>-25100</v>
       </c>
       <c r="F91" s="3">
-        <v>-5300</v>
+        <v>-21000</v>
       </c>
       <c r="G91" s="3">
-        <v>-2700</v>
+        <v>-5500</v>
       </c>
       <c r="H91" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3663,9 +3886,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3702,48 +3928,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-112900</v>
+        <v>65300</v>
       </c>
       <c r="E94" s="3">
-        <v>-297300</v>
+        <v>-117000</v>
       </c>
       <c r="F94" s="3">
-        <v>-5300</v>
+        <v>-308100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2700</v>
+        <v>-5500</v>
       </c>
       <c r="H94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3759,8 +3991,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3797,9 +4030,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3836,9 +4072,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3875,9 +4114,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3914,124 +4156,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>358700</v>
+        <v>419800</v>
       </c>
       <c r="E100" s="3">
-        <v>615200</v>
+        <v>371800</v>
       </c>
       <c r="F100" s="3">
-        <v>503900</v>
+        <v>637600</v>
       </c>
       <c r="G100" s="3">
-        <v>207500</v>
+        <v>522200</v>
       </c>
       <c r="H100" s="3">
-        <v>127300</v>
+        <v>215100</v>
       </c>
       <c r="I100" s="3">
-        <v>119900</v>
+        <v>132000</v>
       </c>
       <c r="J100" s="3">
+        <v>124300</v>
+      </c>
+      <c r="K100" s="3">
         <v>107900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>54100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>39400</v>
+        <v>37800</v>
       </c>
       <c r="E101" s="3">
-        <v>-54600</v>
+        <v>40800</v>
       </c>
       <c r="F101" s="3">
-        <v>7900</v>
+        <v>-56600</v>
       </c>
       <c r="G101" s="3">
-        <v>21100</v>
+        <v>8200</v>
       </c>
       <c r="H101" s="3">
-        <v>-13900</v>
+        <v>21900</v>
       </c>
       <c r="I101" s="3">
-        <v>4200</v>
+        <v>-14500</v>
       </c>
       <c r="J101" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K101" s="3">
         <v>8400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1800</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-141100</v>
+        <v>-1600</v>
       </c>
       <c r="E102" s="3">
-        <v>-13900</v>
+        <v>-146300</v>
       </c>
       <c r="F102" s="3">
-        <v>326900</v>
+        <v>-14400</v>
       </c>
       <c r="G102" s="3">
-        <v>84200</v>
+        <v>338800</v>
       </c>
       <c r="H102" s="3">
-        <v>15300</v>
+        <v>87300</v>
       </c>
       <c r="I102" s="3">
-        <v>61900</v>
+        <v>15900</v>
       </c>
       <c r="J102" s="3">
+        <v>64200</v>
+      </c>
+      <c r="K102" s="3">
         <v>70900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>34700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -727,25 +727,25 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>54100</v>
+        <v>55100</v>
       </c>
       <c r="E8" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="F8" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="G8" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="H8" s="3">
-        <v>11200</v>
+        <v>11400</v>
       </c>
       <c r="I8" s="3">
         <v>1600</v>
       </c>
       <c r="J8" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="K8" s="3">
         <v>8300</v>
@@ -769,10 +769,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="E9" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -811,10 +811,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>41300</v>
+        <v>42000</v>
       </c>
       <c r="E10" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>390100</v>
+        <v>397100</v>
       </c>
       <c r="E12" s="3">
-        <v>302300</v>
+        <v>307700</v>
       </c>
       <c r="F12" s="3">
-        <v>263100</v>
+        <v>267800</v>
       </c>
       <c r="G12" s="3">
-        <v>193000</v>
+        <v>196400</v>
       </c>
       <c r="H12" s="3">
-        <v>147500</v>
+        <v>150200</v>
       </c>
       <c r="I12" s="3">
-        <v>104600</v>
+        <v>106500</v>
       </c>
       <c r="J12" s="3">
-        <v>69200</v>
+        <v>70400</v>
       </c>
       <c r="K12" s="3">
         <v>40800</v>
@@ -997,16 +997,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>17200</v>
+        <v>17500</v>
       </c>
       <c r="E15" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="F15" s="3">
-        <v>17300</v>
+        <v>17600</v>
       </c>
       <c r="G15" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="H15" s="3">
         <v>900</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>648500</v>
+        <v>660100</v>
       </c>
       <c r="E17" s="3">
-        <v>486200</v>
+        <v>494900</v>
       </c>
       <c r="F17" s="3">
-        <v>357200</v>
+        <v>363500</v>
       </c>
       <c r="G17" s="3">
-        <v>254000</v>
+        <v>258600</v>
       </c>
       <c r="H17" s="3">
-        <v>174900</v>
+        <v>178100</v>
       </c>
       <c r="I17" s="3">
-        <v>119600</v>
+        <v>121800</v>
       </c>
       <c r="J17" s="3">
-        <v>82000</v>
+        <v>83500</v>
       </c>
       <c r="K17" s="3">
         <v>51000</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-594400</v>
+        <v>-605000</v>
       </c>
       <c r="E18" s="3">
-        <v>-478000</v>
+        <v>-486500</v>
       </c>
       <c r="F18" s="3">
-        <v>-349800</v>
+        <v>-356000</v>
       </c>
       <c r="G18" s="3">
-        <v>-239900</v>
+        <v>-244200</v>
       </c>
       <c r="H18" s="3">
-        <v>-163700</v>
+        <v>-166700</v>
       </c>
       <c r="I18" s="3">
-        <v>-118000</v>
+        <v>-120100</v>
       </c>
       <c r="J18" s="3">
-        <v>-77100</v>
+        <v>-78500</v>
       </c>
       <c r="K18" s="3">
         <v>-42700</v>
@@ -1156,25 +1156,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15500</v>
+        <v>15800</v>
       </c>
       <c r="E20" s="3">
-        <v>75900</v>
+        <v>77300</v>
       </c>
       <c r="F20" s="3">
-        <v>-91700</v>
+        <v>-93300</v>
       </c>
       <c r="G20" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="H20" s="3">
-        <v>25800</v>
+        <v>26300</v>
       </c>
       <c r="I20" s="3">
-        <v>-13500</v>
+        <v>-13700</v>
       </c>
       <c r="J20" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="K20" s="3">
         <v>8400</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-559900</v>
+        <v>-569700</v>
       </c>
       <c r="E21" s="3">
-        <v>-385800</v>
+        <v>-392600</v>
       </c>
       <c r="F21" s="3">
-        <v>-431500</v>
+        <v>-439100</v>
       </c>
       <c r="G21" s="3">
-        <v>-222600</v>
+        <v>-226500</v>
       </c>
       <c r="H21" s="3">
-        <v>-137000</v>
+        <v>-139400</v>
       </c>
       <c r="I21" s="3">
-        <v>-130700</v>
+        <v>-133000</v>
       </c>
       <c r="J21" s="3">
-        <v>-72000</v>
+        <v>-73300</v>
       </c>
       <c r="K21" s="3">
         <v>-33700</v>
@@ -1240,13 +1240,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32500</v>
+        <v>33000</v>
       </c>
       <c r="E22" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="F22" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G22" s="3">
         <v>1300</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-611300</v>
+        <v>-622300</v>
       </c>
       <c r="E23" s="3">
-        <v>-406200</v>
+        <v>-413500</v>
       </c>
       <c r="F23" s="3">
-        <v>-443500</v>
+        <v>-451400</v>
       </c>
       <c r="G23" s="3">
-        <v>-230900</v>
+        <v>-235000</v>
       </c>
       <c r="H23" s="3">
-        <v>-138100</v>
+        <v>-140500</v>
       </c>
       <c r="I23" s="3">
-        <v>-131600</v>
+        <v>-133900</v>
       </c>
       <c r="J23" s="3">
-        <v>-72700</v>
+        <v>-74000</v>
       </c>
       <c r="K23" s="3">
         <v>-34300</v>
@@ -1324,7 +1324,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="E24" s="3">
         <v>-400</v>
@@ -1333,7 +1333,7 @@
         <v>-200</v>
       </c>
       <c r="G24" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="H24" s="3">
         <v>-400</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-617000</v>
+        <v>-628000</v>
       </c>
       <c r="E26" s="3">
-        <v>-405800</v>
+        <v>-413100</v>
       </c>
       <c r="F26" s="3">
-        <v>-443300</v>
+        <v>-451200</v>
       </c>
       <c r="G26" s="3">
-        <v>-230700</v>
+        <v>-234800</v>
       </c>
       <c r="H26" s="3">
-        <v>-137600</v>
+        <v>-140100</v>
       </c>
       <c r="I26" s="3">
-        <v>-131100</v>
+        <v>-133400</v>
       </c>
       <c r="J26" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="K26" s="3">
         <v>-33600</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-617000</v>
+        <v>-628000</v>
       </c>
       <c r="E27" s="3">
-        <v>-405800</v>
+        <v>-413100</v>
       </c>
       <c r="F27" s="3">
-        <v>-443300</v>
+        <v>-451200</v>
       </c>
       <c r="G27" s="3">
-        <v>-230700</v>
+        <v>-234800</v>
       </c>
       <c r="H27" s="3">
-        <v>-137600</v>
+        <v>-140100</v>
       </c>
       <c r="I27" s="3">
-        <v>-131100</v>
+        <v>-133400</v>
       </c>
       <c r="J27" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="K27" s="3">
         <v>-33600</v>
@@ -1660,25 +1660,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15500</v>
+        <v>-15800</v>
       </c>
       <c r="E32" s="3">
-        <v>-75900</v>
+        <v>-77300</v>
       </c>
       <c r="F32" s="3">
-        <v>91700</v>
+        <v>93300</v>
       </c>
       <c r="G32" s="3">
-        <v>-10300</v>
+        <v>-10400</v>
       </c>
       <c r="H32" s="3">
-        <v>-25800</v>
+        <v>-26300</v>
       </c>
       <c r="I32" s="3">
-        <v>13500</v>
+        <v>13700</v>
       </c>
       <c r="J32" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="K32" s="3">
         <v>-8400</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-617000</v>
+        <v>-628000</v>
       </c>
       <c r="E33" s="3">
-        <v>-405800</v>
+        <v>-413100</v>
       </c>
       <c r="F33" s="3">
-        <v>-443300</v>
+        <v>-451200</v>
       </c>
       <c r="G33" s="3">
-        <v>-230700</v>
+        <v>-234800</v>
       </c>
       <c r="H33" s="3">
-        <v>-137600</v>
+        <v>-140100</v>
       </c>
       <c r="I33" s="3">
-        <v>-131100</v>
+        <v>-133400</v>
       </c>
       <c r="J33" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="K33" s="3">
         <v>-33600</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-617000</v>
+        <v>-628000</v>
       </c>
       <c r="E35" s="3">
-        <v>-405800</v>
+        <v>-413100</v>
       </c>
       <c r="F35" s="3">
-        <v>-443300</v>
+        <v>-451200</v>
       </c>
       <c r="G35" s="3">
-        <v>-230700</v>
+        <v>-234800</v>
       </c>
       <c r="H35" s="3">
-        <v>-137600</v>
+        <v>-140100</v>
       </c>
       <c r="I35" s="3">
-        <v>-131100</v>
+        <v>-133400</v>
       </c>
       <c r="J35" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="K35" s="3">
         <v>-33600</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>470600</v>
+        <v>479000</v>
       </c>
       <c r="E41" s="3">
-        <v>472200</v>
+        <v>480600</v>
       </c>
       <c r="F41" s="3">
-        <v>618400</v>
+        <v>629500</v>
       </c>
       <c r="G41" s="3">
-        <v>626700</v>
+        <v>637900</v>
       </c>
       <c r="H41" s="3">
-        <v>294000</v>
+        <v>299200</v>
       </c>
       <c r="I41" s="3">
-        <v>206700</v>
+        <v>210400</v>
       </c>
       <c r="J41" s="3">
-        <v>190800</v>
+        <v>194200</v>
       </c>
       <c r="K41" s="3">
         <v>122100</v>
@@ -1953,13 +1953,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>307500</v>
+        <v>313000</v>
       </c>
       <c r="E42" s="3">
-        <v>249500</v>
+        <v>253900</v>
       </c>
       <c r="F42" s="3">
-        <v>142100</v>
+        <v>144600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1995,22 +1995,22 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27100</v>
+        <v>27600</v>
       </c>
       <c r="E43" s="3">
-        <v>24500</v>
+        <v>25000</v>
       </c>
       <c r="F43" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G43" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H43" s="3">
         <v>2800</v>
       </c>
       <c r="I43" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="J43" s="3">
         <v>1800</v>
@@ -2037,10 +2037,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>138300</v>
+        <v>140700</v>
       </c>
       <c r="E44" s="3">
-        <v>79800</v>
+        <v>81200</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -2079,22 +2079,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>33600</v>
+        <v>34200</v>
       </c>
       <c r="E45" s="3">
-        <v>26700</v>
+        <v>27200</v>
       </c>
       <c r="F45" s="3">
-        <v>14800</v>
+        <v>15100</v>
       </c>
       <c r="G45" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="H45" s="3">
-        <v>13100</v>
+        <v>13400</v>
       </c>
       <c r="I45" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="J45" s="3">
         <v>2100</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>977000</v>
+        <v>994500</v>
       </c>
       <c r="E46" s="3">
-        <v>852600</v>
+        <v>867900</v>
       </c>
       <c r="F46" s="3">
-        <v>783100</v>
+        <v>797000</v>
       </c>
       <c r="G46" s="3">
-        <v>646600</v>
+        <v>658200</v>
       </c>
       <c r="H46" s="3">
-        <v>309900</v>
+        <v>315400</v>
       </c>
       <c r="I46" s="3">
-        <v>216500</v>
+        <v>220400</v>
       </c>
       <c r="J46" s="3">
-        <v>194600</v>
+        <v>198100</v>
       </c>
       <c r="K46" s="3">
         <v>128300</v>
@@ -2163,19 +2163,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34200</v>
+        <v>34800</v>
       </c>
       <c r="E47" s="3">
-        <v>156300</v>
+        <v>159100</v>
       </c>
       <c r="F47" s="3">
-        <v>133100</v>
+        <v>135500</v>
       </c>
       <c r="G47" s="3">
-        <v>16400</v>
+        <v>16700</v>
       </c>
       <c r="H47" s="3">
-        <v>18100</v>
+        <v>18400</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2205,22 +2205,22 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>136600</v>
+        <v>139000</v>
       </c>
       <c r="E48" s="3">
-        <v>133400</v>
+        <v>135700</v>
       </c>
       <c r="F48" s="3">
-        <v>114400</v>
+        <v>116400</v>
       </c>
       <c r="G48" s="3">
-        <v>47700</v>
+        <v>48500</v>
       </c>
       <c r="H48" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="I48" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="J48" s="3">
         <v>2500</v>
@@ -2247,25 +2247,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="E49" s="3">
-        <v>5600</v>
+        <v>5700</v>
       </c>
       <c r="F49" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="G49" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H49" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="I49" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="J49" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K49" s="3">
         <v>3600</v>
@@ -2382,7 +2382,7 @@
         <v>3</v>
       </c>
       <c r="G52" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="H52" s="3">
         <v>1200</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1152900</v>
+        <v>1173500</v>
       </c>
       <c r="E54" s="3">
-        <v>1147800</v>
+        <v>1168400</v>
       </c>
       <c r="F54" s="3">
-        <v>1036600</v>
+        <v>1055100</v>
       </c>
       <c r="G54" s="3">
-        <v>716000</v>
+        <v>728800</v>
       </c>
       <c r="H54" s="3">
-        <v>337500</v>
+        <v>343500</v>
       </c>
       <c r="I54" s="3">
-        <v>223200</v>
+        <v>227200</v>
       </c>
       <c r="J54" s="3">
-        <v>201100</v>
+        <v>204700</v>
       </c>
       <c r="K54" s="3">
         <v>134500</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>106900</v>
+        <v>108800</v>
       </c>
       <c r="E57" s="3">
-        <v>62900</v>
+        <v>64000</v>
       </c>
       <c r="F57" s="3">
-        <v>23200</v>
+        <v>23600</v>
       </c>
       <c r="G57" s="3">
-        <v>29400</v>
+        <v>29900</v>
       </c>
       <c r="H57" s="3">
-        <v>20900</v>
+        <v>21300</v>
       </c>
       <c r="I57" s="3">
-        <v>25100</v>
+        <v>25600</v>
       </c>
       <c r="J57" s="3">
-        <v>13800</v>
+        <v>14100</v>
       </c>
       <c r="K57" s="3">
         <v>8500</v>
@@ -2577,16 +2577,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="E58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F58" s="3">
         <v>7400</v>
       </c>
-      <c r="F58" s="3">
-        <v>7300</v>
-      </c>
       <c r="G58" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2619,19 +2619,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>47400</v>
+        <v>48300</v>
       </c>
       <c r="E59" s="3">
-        <v>35900</v>
+        <v>36600</v>
       </c>
       <c r="F59" s="3">
-        <v>25400</v>
+        <v>25900</v>
       </c>
       <c r="G59" s="3">
-        <v>15200</v>
+        <v>15400</v>
       </c>
       <c r="H59" s="3">
-        <v>20300</v>
+        <v>20700</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>181200</v>
+        <v>184400</v>
       </c>
       <c r="E60" s="3">
-        <v>106200</v>
+        <v>108100</v>
       </c>
       <c r="F60" s="3">
-        <v>55900</v>
+        <v>56900</v>
       </c>
       <c r="G60" s="3">
-        <v>50800</v>
+        <v>51700</v>
       </c>
       <c r="H60" s="3">
-        <v>41200</v>
+        <v>41900</v>
       </c>
       <c r="I60" s="3">
-        <v>25100</v>
+        <v>25600</v>
       </c>
       <c r="J60" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="K60" s="3">
         <v>11700</v>
@@ -2703,16 +2703,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>511000</v>
+        <v>520100</v>
       </c>
       <c r="E61" s="3">
-        <v>103600</v>
+        <v>105500</v>
       </c>
       <c r="F61" s="3">
-        <v>90100</v>
+        <v>91700</v>
       </c>
       <c r="G61" s="3">
-        <v>32500</v>
+        <v>33100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2745,13 +2745,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>182100</v>
+        <v>185400</v>
       </c>
       <c r="E62" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F62" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>874300</v>
+        <v>889900</v>
       </c>
       <c r="E66" s="3">
-        <v>213000</v>
+        <v>216800</v>
       </c>
       <c r="F66" s="3">
-        <v>149300</v>
+        <v>151900</v>
       </c>
       <c r="G66" s="3">
-        <v>84200</v>
+        <v>85700</v>
       </c>
       <c r="H66" s="3">
-        <v>41200</v>
+        <v>41900</v>
       </c>
       <c r="I66" s="3">
-        <v>25100</v>
+        <v>25600</v>
       </c>
       <c r="J66" s="3">
-        <v>14200</v>
+        <v>14500</v>
       </c>
       <c r="K66" s="3">
         <v>11700</v>
@@ -3141,16 +3141,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-1968400</v>
+        <v>-2003600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1284300</v>
+        <v>-1307300</v>
       </c>
       <c r="F72" s="3">
-        <v>-949200</v>
+        <v>-966200</v>
       </c>
       <c r="G72" s="3">
-        <v>-562200</v>
+        <v>-572300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3159,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="3">
-        <v>182300</v>
+        <v>185500</v>
       </c>
       <c r="K72" s="3">
         <v>119400</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>278600</v>
+        <v>283600</v>
       </c>
       <c r="E76" s="3">
-        <v>934900</v>
+        <v>951600</v>
       </c>
       <c r="F76" s="3">
-        <v>887400</v>
+        <v>903200</v>
       </c>
       <c r="G76" s="3">
-        <v>631700</v>
+        <v>643000</v>
       </c>
       <c r="H76" s="3">
-        <v>296300</v>
+        <v>301600</v>
       </c>
       <c r="I76" s="3">
-        <v>198100</v>
+        <v>201600</v>
       </c>
       <c r="J76" s="3">
-        <v>186900</v>
+        <v>190200</v>
       </c>
       <c r="K76" s="3">
         <v>122800</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-617000</v>
+        <v>-628000</v>
       </c>
       <c r="E81" s="3">
-        <v>-405800</v>
+        <v>-413100</v>
       </c>
       <c r="F81" s="3">
-        <v>-443300</v>
+        <v>-451200</v>
       </c>
       <c r="G81" s="3">
-        <v>-230700</v>
+        <v>-234800</v>
       </c>
       <c r="H81" s="3">
-        <v>-137600</v>
+        <v>-140100</v>
       </c>
       <c r="I81" s="3">
-        <v>-131100</v>
+        <v>-133400</v>
       </c>
       <c r="J81" s="3">
-        <v>-72500</v>
+        <v>-73800</v>
       </c>
       <c r="K81" s="3">
         <v>-33600</v>
@@ -3500,16 +3500,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19000</v>
+        <v>19300</v>
       </c>
       <c r="E83" s="3">
-        <v>16300</v>
+        <v>16600</v>
       </c>
       <c r="F83" s="3">
-        <v>10000</v>
+        <v>10200</v>
       </c>
       <c r="G83" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="H83" s="3">
         <v>900</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-524400</v>
+        <v>-533800</v>
       </c>
       <c r="E89" s="3">
-        <v>-441900</v>
+        <v>-449800</v>
       </c>
       <c r="F89" s="3">
-        <v>-287300</v>
+        <v>-292400</v>
       </c>
       <c r="G89" s="3">
-        <v>-186100</v>
+        <v>-189500</v>
       </c>
       <c r="H89" s="3">
-        <v>-146900</v>
+        <v>-149500</v>
       </c>
       <c r="I89" s="3">
-        <v>-100600</v>
+        <v>-102400</v>
       </c>
       <c r="J89" s="3">
-        <v>-63700</v>
+        <v>-64800</v>
       </c>
       <c r="K89" s="3">
         <v>-44400</v>
@@ -3812,19 +3812,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15300</v>
+        <v>-15600</v>
       </c>
       <c r="E91" s="3">
-        <v>-25100</v>
+        <v>-25500</v>
       </c>
       <c r="F91" s="3">
-        <v>-21000</v>
+        <v>-21400</v>
       </c>
       <c r="G91" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="H91" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="I91" s="3">
         <v>-1000</v>
@@ -3938,19 +3938,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>65300</v>
+        <v>66500</v>
       </c>
       <c r="E94" s="3">
-        <v>-117000</v>
+        <v>-119100</v>
       </c>
       <c r="F94" s="3">
-        <v>-308100</v>
+        <v>-313600</v>
       </c>
       <c r="G94" s="3">
-        <v>-5500</v>
+        <v>-5600</v>
       </c>
       <c r="H94" s="3">
-        <v>-2800</v>
+        <v>-2900</v>
       </c>
       <c r="I94" s="3">
         <v>-1000</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>419800</v>
+        <v>427300</v>
       </c>
       <c r="E100" s="3">
-        <v>371800</v>
+        <v>378400</v>
       </c>
       <c r="F100" s="3">
-        <v>637600</v>
+        <v>649000</v>
       </c>
       <c r="G100" s="3">
-        <v>522200</v>
+        <v>531600</v>
       </c>
       <c r="H100" s="3">
-        <v>215100</v>
+        <v>218900</v>
       </c>
       <c r="I100" s="3">
-        <v>132000</v>
+        <v>134300</v>
       </c>
       <c r="J100" s="3">
-        <v>124300</v>
+        <v>126500</v>
       </c>
       <c r="K100" s="3">
         <v>107900</v>
@@ -4208,25 +4208,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>37800</v>
+        <v>38400</v>
       </c>
       <c r="E101" s="3">
-        <v>40800</v>
+        <v>41600</v>
       </c>
       <c r="F101" s="3">
-        <v>-56600</v>
+        <v>-57600</v>
       </c>
       <c r="G101" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="H101" s="3">
-        <v>21900</v>
+        <v>22300</v>
       </c>
       <c r="I101" s="3">
-        <v>-14500</v>
+        <v>-14700</v>
       </c>
       <c r="J101" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="K101" s="3">
         <v>8400</v>
@@ -4253,22 +4253,22 @@
         <v>-1600</v>
       </c>
       <c r="E102" s="3">
-        <v>-146300</v>
+        <v>-148900</v>
       </c>
       <c r="F102" s="3">
-        <v>-14400</v>
+        <v>-14600</v>
       </c>
       <c r="G102" s="3">
-        <v>338800</v>
+        <v>344900</v>
       </c>
       <c r="H102" s="3">
-        <v>87300</v>
+        <v>88900</v>
       </c>
       <c r="I102" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="J102" s="3">
-        <v>64200</v>
+        <v>65300</v>
       </c>
       <c r="K102" s="3">
         <v>70900</v>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -727,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>55100</v>
+        <v>55500</v>
       </c>
       <c r="E8" s="3">
         <v>8400</v>
@@ -736,13 +736,13 @@
         <v>7500</v>
       </c>
       <c r="G8" s="3">
-        <v>14400</v>
+        <v>14500</v>
       </c>
       <c r="H8" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="I8" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J8" s="3">
         <v>5000</v>
@@ -769,7 +769,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>13100</v>
+        <v>13200</v>
       </c>
       <c r="E9" s="3">
         <v>3800</v>
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="E10" s="3">
         <v>4600</v>
@@ -871,25 +871,25 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>397100</v>
+        <v>399700</v>
       </c>
       <c r="E12" s="3">
-        <v>307700</v>
+        <v>309800</v>
       </c>
       <c r="F12" s="3">
-        <v>267800</v>
+        <v>269600</v>
       </c>
       <c r="G12" s="3">
-        <v>196400</v>
+        <v>197700</v>
       </c>
       <c r="H12" s="3">
-        <v>150200</v>
+        <v>151200</v>
       </c>
       <c r="I12" s="3">
-        <v>106500</v>
+        <v>107200</v>
       </c>
       <c r="J12" s="3">
-        <v>70400</v>
+        <v>70900</v>
       </c>
       <c r="K12" s="3">
         <v>40800</v>
@@ -997,19 +997,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>17500</v>
+        <v>17600</v>
       </c>
       <c r="E15" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="F15" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="G15" s="3">
-        <v>12800</v>
+        <v>12900</v>
       </c>
       <c r="H15" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I15" s="3">
         <v>800</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>660100</v>
+        <v>664500</v>
       </c>
       <c r="E17" s="3">
-        <v>494900</v>
+        <v>498200</v>
       </c>
       <c r="F17" s="3">
-        <v>363500</v>
+        <v>366000</v>
       </c>
       <c r="G17" s="3">
-        <v>258600</v>
+        <v>260300</v>
       </c>
       <c r="H17" s="3">
-        <v>178100</v>
+        <v>179200</v>
       </c>
       <c r="I17" s="3">
-        <v>121800</v>
+        <v>122600</v>
       </c>
       <c r="J17" s="3">
-        <v>83500</v>
+        <v>84000</v>
       </c>
       <c r="K17" s="3">
         <v>51000</v>
@@ -1096,25 +1096,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-605000</v>
+        <v>-609100</v>
       </c>
       <c r="E18" s="3">
-        <v>-486500</v>
+        <v>-489800</v>
       </c>
       <c r="F18" s="3">
-        <v>-356000</v>
+        <v>-358400</v>
       </c>
       <c r="G18" s="3">
-        <v>-244200</v>
+        <v>-245800</v>
       </c>
       <c r="H18" s="3">
-        <v>-166700</v>
+        <v>-167800</v>
       </c>
       <c r="I18" s="3">
-        <v>-120100</v>
+        <v>-120900</v>
       </c>
       <c r="J18" s="3">
-        <v>-78500</v>
+        <v>-79100</v>
       </c>
       <c r="K18" s="3">
         <v>-42700</v>
@@ -1156,22 +1156,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15800</v>
+        <v>15900</v>
       </c>
       <c r="E20" s="3">
-        <v>77300</v>
+        <v>77800</v>
       </c>
       <c r="F20" s="3">
-        <v>-93300</v>
+        <v>-93900</v>
       </c>
       <c r="G20" s="3">
-        <v>10400</v>
+        <v>10500</v>
       </c>
       <c r="H20" s="3">
-        <v>26300</v>
+        <v>26400</v>
       </c>
       <c r="I20" s="3">
-        <v>-13700</v>
+        <v>-13800</v>
       </c>
       <c r="J20" s="3">
         <v>4500</v>
@@ -1198,25 +1198,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-569700</v>
+        <v>-573700</v>
       </c>
       <c r="E21" s="3">
-        <v>-392600</v>
+        <v>-395300</v>
       </c>
       <c r="F21" s="3">
-        <v>-439100</v>
+        <v>-442100</v>
       </c>
       <c r="G21" s="3">
-        <v>-226500</v>
+        <v>-228000</v>
       </c>
       <c r="H21" s="3">
-        <v>-139400</v>
+        <v>-140400</v>
       </c>
       <c r="I21" s="3">
-        <v>-133000</v>
+        <v>-133900</v>
       </c>
       <c r="J21" s="3">
-        <v>-73300</v>
+        <v>-73800</v>
       </c>
       <c r="K21" s="3">
         <v>-33700</v>
@@ -1240,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33000</v>
+        <v>33300</v>
       </c>
       <c r="E22" s="3">
         <v>4200</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-622300</v>
+        <v>-626400</v>
       </c>
       <c r="E23" s="3">
-        <v>-413500</v>
+        <v>-416200</v>
       </c>
       <c r="F23" s="3">
-        <v>-451400</v>
+        <v>-454400</v>
       </c>
       <c r="G23" s="3">
-        <v>-235000</v>
+        <v>-236600</v>
       </c>
       <c r="H23" s="3">
-        <v>-140500</v>
+        <v>-141500</v>
       </c>
       <c r="I23" s="3">
-        <v>-133900</v>
+        <v>-134800</v>
       </c>
       <c r="J23" s="3">
-        <v>-74000</v>
+        <v>-74500</v>
       </c>
       <c r="K23" s="3">
         <v>-34300</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-628000</v>
+        <v>-632200</v>
       </c>
       <c r="E26" s="3">
-        <v>-413100</v>
+        <v>-415800</v>
       </c>
       <c r="F26" s="3">
-        <v>-451200</v>
+        <v>-454200</v>
       </c>
       <c r="G26" s="3">
-        <v>-234800</v>
+        <v>-236400</v>
       </c>
       <c r="H26" s="3">
-        <v>-140100</v>
+        <v>-141000</v>
       </c>
       <c r="I26" s="3">
-        <v>-133400</v>
+        <v>-134300</v>
       </c>
       <c r="J26" s="3">
-        <v>-73800</v>
+        <v>-74300</v>
       </c>
       <c r="K26" s="3">
         <v>-33600</v>
@@ -1450,25 +1450,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-628000</v>
+        <v>-632200</v>
       </c>
       <c r="E27" s="3">
-        <v>-413100</v>
+        <v>-415800</v>
       </c>
       <c r="F27" s="3">
-        <v>-451200</v>
+        <v>-454200</v>
       </c>
       <c r="G27" s="3">
-        <v>-234800</v>
+        <v>-236400</v>
       </c>
       <c r="H27" s="3">
-        <v>-140100</v>
+        <v>-141000</v>
       </c>
       <c r="I27" s="3">
-        <v>-133400</v>
+        <v>-134300</v>
       </c>
       <c r="J27" s="3">
-        <v>-73800</v>
+        <v>-74300</v>
       </c>
       <c r="K27" s="3">
         <v>-33600</v>
@@ -1660,22 +1660,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15800</v>
+        <v>-15900</v>
       </c>
       <c r="E32" s="3">
-        <v>-77300</v>
+        <v>-77800</v>
       </c>
       <c r="F32" s="3">
-        <v>93300</v>
+        <v>93900</v>
       </c>
       <c r="G32" s="3">
-        <v>-10400</v>
+        <v>-10500</v>
       </c>
       <c r="H32" s="3">
-        <v>-26300</v>
+        <v>-26400</v>
       </c>
       <c r="I32" s="3">
-        <v>13700</v>
+        <v>13800</v>
       </c>
       <c r="J32" s="3">
         <v>-4500</v>
@@ -1702,25 +1702,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-628000</v>
+        <v>-632200</v>
       </c>
       <c r="E33" s="3">
-        <v>-413100</v>
+        <v>-415800</v>
       </c>
       <c r="F33" s="3">
-        <v>-451200</v>
+        <v>-454200</v>
       </c>
       <c r="G33" s="3">
-        <v>-234800</v>
+        <v>-236400</v>
       </c>
       <c r="H33" s="3">
-        <v>-140100</v>
+        <v>-141000</v>
       </c>
       <c r="I33" s="3">
-        <v>-133400</v>
+        <v>-134300</v>
       </c>
       <c r="J33" s="3">
-        <v>-73800</v>
+        <v>-74300</v>
       </c>
       <c r="K33" s="3">
         <v>-33600</v>
@@ -1786,25 +1786,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-628000</v>
+        <v>-632200</v>
       </c>
       <c r="E35" s="3">
-        <v>-413100</v>
+        <v>-415800</v>
       </c>
       <c r="F35" s="3">
-        <v>-451200</v>
+        <v>-454200</v>
       </c>
       <c r="G35" s="3">
-        <v>-234800</v>
+        <v>-236400</v>
       </c>
       <c r="H35" s="3">
-        <v>-140100</v>
+        <v>-141000</v>
       </c>
       <c r="I35" s="3">
-        <v>-133400</v>
+        <v>-134300</v>
       </c>
       <c r="J35" s="3">
-        <v>-73800</v>
+        <v>-74300</v>
       </c>
       <c r="K35" s="3">
         <v>-33600</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>479000</v>
+        <v>482200</v>
       </c>
       <c r="E41" s="3">
-        <v>480600</v>
+        <v>483800</v>
       </c>
       <c r="F41" s="3">
-        <v>629500</v>
+        <v>633700</v>
       </c>
       <c r="G41" s="3">
-        <v>637900</v>
+        <v>642100</v>
       </c>
       <c r="H41" s="3">
-        <v>299200</v>
+        <v>301200</v>
       </c>
       <c r="I41" s="3">
-        <v>210400</v>
+        <v>211800</v>
       </c>
       <c r="J41" s="3">
-        <v>194200</v>
+        <v>195500</v>
       </c>
       <c r="K41" s="3">
         <v>122100</v>
@@ -1953,13 +1953,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>313000</v>
+        <v>315100</v>
       </c>
       <c r="E42" s="3">
-        <v>253900</v>
+        <v>255600</v>
       </c>
       <c r="F42" s="3">
-        <v>144600</v>
+        <v>145600</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1995,19 +1995,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>27600</v>
+        <v>27800</v>
       </c>
       <c r="E43" s="3">
-        <v>25000</v>
+        <v>25100</v>
       </c>
       <c r="F43" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G43" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="H43" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I43" s="3">
         <v>2600</v>
@@ -2037,10 +2037,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>140700</v>
+        <v>141700</v>
       </c>
       <c r="E44" s="3">
-        <v>81200</v>
+        <v>81700</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -2079,22 +2079,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>34200</v>
+        <v>34400</v>
       </c>
       <c r="E45" s="3">
-        <v>27200</v>
+        <v>27400</v>
       </c>
       <c r="F45" s="3">
-        <v>15100</v>
+        <v>15200</v>
       </c>
       <c r="G45" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="H45" s="3">
-        <v>13400</v>
+        <v>13500</v>
       </c>
       <c r="I45" s="3">
-        <v>7400</v>
+        <v>7500</v>
       </c>
       <c r="J45" s="3">
         <v>2100</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>994500</v>
+        <v>1001100</v>
       </c>
       <c r="E46" s="3">
-        <v>867900</v>
+        <v>873700</v>
       </c>
       <c r="F46" s="3">
-        <v>797000</v>
+        <v>802400</v>
       </c>
       <c r="G46" s="3">
-        <v>658200</v>
+        <v>662600</v>
       </c>
       <c r="H46" s="3">
-        <v>315400</v>
+        <v>317500</v>
       </c>
       <c r="I46" s="3">
-        <v>220400</v>
+        <v>221800</v>
       </c>
       <c r="J46" s="3">
-        <v>198100</v>
+        <v>199400</v>
       </c>
       <c r="K46" s="3">
         <v>128300</v>
@@ -2163,19 +2163,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>34800</v>
+        <v>35100</v>
       </c>
       <c r="E47" s="3">
-        <v>159100</v>
+        <v>160100</v>
       </c>
       <c r="F47" s="3">
-        <v>135500</v>
+        <v>136400</v>
       </c>
       <c r="G47" s="3">
-        <v>16700</v>
+        <v>16800</v>
       </c>
       <c r="H47" s="3">
-        <v>18400</v>
+        <v>18500</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
@@ -2205,16 +2205,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>139000</v>
+        <v>140000</v>
       </c>
       <c r="E48" s="3">
-        <v>135700</v>
+        <v>136600</v>
       </c>
       <c r="F48" s="3">
-        <v>116400</v>
+        <v>117200</v>
       </c>
       <c r="G48" s="3">
-        <v>48500</v>
+        <v>48900</v>
       </c>
       <c r="H48" s="3">
         <v>4700</v>
@@ -2385,7 +2385,7 @@
         <v>1600</v>
       </c>
       <c r="H52" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I52" s="3">
         <v>300</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1173500</v>
+        <v>1181400</v>
       </c>
       <c r="E54" s="3">
-        <v>1168400</v>
+        <v>1176200</v>
       </c>
       <c r="F54" s="3">
-        <v>1055100</v>
+        <v>1062200</v>
       </c>
       <c r="G54" s="3">
-        <v>728800</v>
+        <v>733600</v>
       </c>
       <c r="H54" s="3">
-        <v>343500</v>
+        <v>345800</v>
       </c>
       <c r="I54" s="3">
-        <v>227200</v>
+        <v>228700</v>
       </c>
       <c r="J54" s="3">
-        <v>204700</v>
+        <v>206100</v>
       </c>
       <c r="K54" s="3">
         <v>134500</v>
@@ -2535,25 +2535,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>108800</v>
+        <v>109500</v>
       </c>
       <c r="E57" s="3">
-        <v>64000</v>
+        <v>64400</v>
       </c>
       <c r="F57" s="3">
-        <v>23600</v>
+        <v>23700</v>
       </c>
       <c r="G57" s="3">
-        <v>29900</v>
+        <v>30100</v>
       </c>
       <c r="H57" s="3">
-        <v>21300</v>
+        <v>21400</v>
       </c>
       <c r="I57" s="3">
-        <v>25600</v>
+        <v>25800</v>
       </c>
       <c r="J57" s="3">
-        <v>14100</v>
+        <v>14200</v>
       </c>
       <c r="K57" s="3">
         <v>8500</v>
@@ -2577,10 +2577,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="E58" s="3">
-        <v>7500</v>
+        <v>7600</v>
       </c>
       <c r="F58" s="3">
         <v>7400</v>
@@ -2619,19 +2619,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>48300</v>
+        <v>48600</v>
       </c>
       <c r="E59" s="3">
-        <v>36600</v>
+        <v>36800</v>
       </c>
       <c r="F59" s="3">
-        <v>25900</v>
+        <v>26100</v>
       </c>
       <c r="G59" s="3">
-        <v>15400</v>
+        <v>15500</v>
       </c>
       <c r="H59" s="3">
-        <v>20700</v>
+        <v>20800</v>
       </c>
       <c r="I59" s="3">
         <v>0</v>
@@ -2661,25 +2661,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>184400</v>
+        <v>185700</v>
       </c>
       <c r="E60" s="3">
-        <v>108100</v>
+        <v>108800</v>
       </c>
       <c r="F60" s="3">
-        <v>56900</v>
+        <v>57200</v>
       </c>
       <c r="G60" s="3">
-        <v>51700</v>
+        <v>52000</v>
       </c>
       <c r="H60" s="3">
-        <v>41900</v>
+        <v>42200</v>
       </c>
       <c r="I60" s="3">
-        <v>25600</v>
+        <v>25800</v>
       </c>
       <c r="J60" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="K60" s="3">
         <v>11700</v>
@@ -2703,16 +2703,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>520100</v>
+        <v>523600</v>
       </c>
       <c r="E61" s="3">
-        <v>105500</v>
+        <v>106200</v>
       </c>
       <c r="F61" s="3">
-        <v>91700</v>
+        <v>92300</v>
       </c>
       <c r="G61" s="3">
-        <v>33100</v>
+        <v>33300</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>185400</v>
+        <v>186600</v>
       </c>
       <c r="E62" s="3">
         <v>3200</v>
@@ -2913,25 +2913,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>889900</v>
+        <v>895900</v>
       </c>
       <c r="E66" s="3">
-        <v>216800</v>
+        <v>218200</v>
       </c>
       <c r="F66" s="3">
-        <v>151900</v>
+        <v>152900</v>
       </c>
       <c r="G66" s="3">
-        <v>85700</v>
+        <v>86300</v>
       </c>
       <c r="H66" s="3">
-        <v>41900</v>
+        <v>42200</v>
       </c>
       <c r="I66" s="3">
-        <v>25600</v>
+        <v>25800</v>
       </c>
       <c r="J66" s="3">
-        <v>14500</v>
+        <v>14600</v>
       </c>
       <c r="K66" s="3">
         <v>11700</v>
@@ -3141,16 +3141,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2003600</v>
+        <v>-2017000</v>
       </c>
       <c r="E72" s="3">
-        <v>-1307300</v>
+        <v>-1316000</v>
       </c>
       <c r="F72" s="3">
-        <v>-966200</v>
+        <v>-972600</v>
       </c>
       <c r="G72" s="3">
-        <v>-572300</v>
+        <v>-576100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3159,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="3">
-        <v>185500</v>
+        <v>186700</v>
       </c>
       <c r="K72" s="3">
         <v>119400</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>283600</v>
+        <v>285500</v>
       </c>
       <c r="E76" s="3">
-        <v>951600</v>
+        <v>957900</v>
       </c>
       <c r="F76" s="3">
-        <v>903200</v>
+        <v>909200</v>
       </c>
       <c r="G76" s="3">
-        <v>643000</v>
+        <v>647300</v>
       </c>
       <c r="H76" s="3">
-        <v>301600</v>
+        <v>303600</v>
       </c>
       <c r="I76" s="3">
-        <v>201600</v>
+        <v>203000</v>
       </c>
       <c r="J76" s="3">
-        <v>190200</v>
+        <v>191500</v>
       </c>
       <c r="K76" s="3">
         <v>122800</v>
@@ -3440,25 +3440,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-628000</v>
+        <v>-632200</v>
       </c>
       <c r="E81" s="3">
-        <v>-413100</v>
+        <v>-415800</v>
       </c>
       <c r="F81" s="3">
-        <v>-451200</v>
+        <v>-454200</v>
       </c>
       <c r="G81" s="3">
-        <v>-234800</v>
+        <v>-236400</v>
       </c>
       <c r="H81" s="3">
-        <v>-140100</v>
+        <v>-141000</v>
       </c>
       <c r="I81" s="3">
-        <v>-133400</v>
+        <v>-134300</v>
       </c>
       <c r="J81" s="3">
-        <v>-73800</v>
+        <v>-74300</v>
       </c>
       <c r="K81" s="3">
         <v>-33600</v>
@@ -3500,19 +3500,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>19300</v>
+        <v>19500</v>
       </c>
       <c r="E83" s="3">
-        <v>16600</v>
+        <v>16700</v>
       </c>
       <c r="F83" s="3">
         <v>10200</v>
       </c>
       <c r="G83" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="H83" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-533800</v>
+        <v>-537400</v>
       </c>
       <c r="E89" s="3">
-        <v>-449800</v>
+        <v>-452800</v>
       </c>
       <c r="F89" s="3">
-        <v>-292400</v>
+        <v>-294400</v>
       </c>
       <c r="G89" s="3">
-        <v>-189500</v>
+        <v>-190700</v>
       </c>
       <c r="H89" s="3">
-        <v>-149500</v>
+        <v>-150500</v>
       </c>
       <c r="I89" s="3">
-        <v>-102400</v>
+        <v>-103100</v>
       </c>
       <c r="J89" s="3">
-        <v>-64800</v>
+        <v>-65200</v>
       </c>
       <c r="K89" s="3">
         <v>-44400</v>
@@ -3812,13 +3812,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15600</v>
+        <v>-15700</v>
       </c>
       <c r="E91" s="3">
-        <v>-25500</v>
+        <v>-25700</v>
       </c>
       <c r="F91" s="3">
-        <v>-21400</v>
+        <v>-21500</v>
       </c>
       <c r="G91" s="3">
         <v>-5600</v>
@@ -3938,13 +3938,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>66500</v>
+        <v>66900</v>
       </c>
       <c r="E94" s="3">
-        <v>-119100</v>
+        <v>-119900</v>
       </c>
       <c r="F94" s="3">
-        <v>-313600</v>
+        <v>-315700</v>
       </c>
       <c r="G94" s="3">
         <v>-5600</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>427300</v>
+        <v>430100</v>
       </c>
       <c r="E100" s="3">
-        <v>378400</v>
+        <v>380900</v>
       </c>
       <c r="F100" s="3">
-        <v>649000</v>
+        <v>653300</v>
       </c>
       <c r="G100" s="3">
-        <v>531600</v>
+        <v>535100</v>
       </c>
       <c r="H100" s="3">
-        <v>218900</v>
+        <v>220400</v>
       </c>
       <c r="I100" s="3">
-        <v>134300</v>
+        <v>135200</v>
       </c>
       <c r="J100" s="3">
-        <v>126500</v>
+        <v>127300</v>
       </c>
       <c r="K100" s="3">
         <v>107900</v>
@@ -4208,22 +4208,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>38400</v>
+        <v>38700</v>
       </c>
       <c r="E101" s="3">
-        <v>41600</v>
+        <v>41800</v>
       </c>
       <c r="F101" s="3">
-        <v>-57600</v>
+        <v>-58000</v>
       </c>
       <c r="G101" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="H101" s="3">
-        <v>22300</v>
+        <v>22400</v>
       </c>
       <c r="I101" s="3">
-        <v>-14700</v>
+        <v>-14800</v>
       </c>
       <c r="J101" s="3">
         <v>4400</v>
@@ -4253,22 +4253,22 @@
         <v>-1600</v>
       </c>
       <c r="E102" s="3">
-        <v>-148900</v>
+        <v>-149900</v>
       </c>
       <c r="F102" s="3">
-        <v>-14600</v>
+        <v>-14700</v>
       </c>
       <c r="G102" s="3">
-        <v>344900</v>
+        <v>347200</v>
       </c>
       <c r="H102" s="3">
-        <v>88900</v>
+        <v>89500</v>
       </c>
       <c r="I102" s="3">
-        <v>16200</v>
+        <v>16300</v>
       </c>
       <c r="J102" s="3">
-        <v>65300</v>
+        <v>65800</v>
       </c>
       <c r="K102" s="3">
         <v>70900</v>

--- a/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/ASND_YR_FIN.xlsx
@@ -811,7 +811,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>42300</v>
+        <v>42400</v>
       </c>
       <c r="E10" s="3">
         <v>4600</v>
@@ -871,22 +871,22 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>399700</v>
+        <v>400100</v>
       </c>
       <c r="E12" s="3">
-        <v>309800</v>
+        <v>310100</v>
       </c>
       <c r="F12" s="3">
-        <v>269600</v>
+        <v>269800</v>
       </c>
       <c r="G12" s="3">
-        <v>197700</v>
+        <v>197900</v>
       </c>
       <c r="H12" s="3">
-        <v>151200</v>
+        <v>151300</v>
       </c>
       <c r="I12" s="3">
-        <v>107200</v>
+        <v>107300</v>
       </c>
       <c r="J12" s="3">
         <v>70900</v>
@@ -997,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>17600</v>
+        <v>17700</v>
       </c>
       <c r="E15" s="3">
         <v>15900</v>
@@ -1054,25 +1054,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>664500</v>
+        <v>665100</v>
       </c>
       <c r="E17" s="3">
-        <v>498200</v>
+        <v>498600</v>
       </c>
       <c r="F17" s="3">
-        <v>366000</v>
+        <v>366300</v>
       </c>
       <c r="G17" s="3">
-        <v>260300</v>
+        <v>260500</v>
       </c>
       <c r="H17" s="3">
-        <v>179200</v>
+        <v>179400</v>
       </c>
       <c r="I17" s="3">
-        <v>122600</v>
+        <v>122700</v>
       </c>
       <c r="J17" s="3">
-        <v>84000</v>
+        <v>84100</v>
       </c>
       <c r="K17" s="3">
         <v>51000</v>
@@ -1096,22 +1096,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-609100</v>
+        <v>-609600</v>
       </c>
       <c r="E18" s="3">
-        <v>-489800</v>
+        <v>-490200</v>
       </c>
       <c r="F18" s="3">
-        <v>-358400</v>
+        <v>-358700</v>
       </c>
       <c r="G18" s="3">
-        <v>-245800</v>
+        <v>-246000</v>
       </c>
       <c r="H18" s="3">
-        <v>-167800</v>
+        <v>-167900</v>
       </c>
       <c r="I18" s="3">
-        <v>-120900</v>
+        <v>-121000</v>
       </c>
       <c r="J18" s="3">
         <v>-79100</v>
@@ -1159,16 +1159,16 @@
         <v>15900</v>
       </c>
       <c r="E20" s="3">
-        <v>77800</v>
+        <v>77900</v>
       </c>
       <c r="F20" s="3">
-        <v>-93900</v>
+        <v>-94000</v>
       </c>
       <c r="G20" s="3">
         <v>10500</v>
       </c>
       <c r="H20" s="3">
-        <v>26400</v>
+        <v>26500</v>
       </c>
       <c r="I20" s="3">
         <v>-13800</v>
@@ -1198,22 +1198,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-573700</v>
+        <v>-574200</v>
       </c>
       <c r="E21" s="3">
-        <v>-395300</v>
+        <v>-395600</v>
       </c>
       <c r="F21" s="3">
-        <v>-442100</v>
+        <v>-442500</v>
       </c>
       <c r="G21" s="3">
-        <v>-228000</v>
+        <v>-228200</v>
       </c>
       <c r="H21" s="3">
-        <v>-140400</v>
+        <v>-140500</v>
       </c>
       <c r="I21" s="3">
-        <v>-133900</v>
+        <v>-134000</v>
       </c>
       <c r="J21" s="3">
         <v>-73800</v>
@@ -1282,25 +1282,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-626400</v>
+        <v>-626900</v>
       </c>
       <c r="E23" s="3">
-        <v>-416200</v>
+        <v>-416600</v>
       </c>
       <c r="F23" s="3">
-        <v>-454400</v>
+        <v>-454800</v>
       </c>
       <c r="G23" s="3">
-        <v>-236600</v>
+        <v>-236800</v>
       </c>
       <c r="H23" s="3">
-        <v>-141500</v>
+        <v>-141600</v>
       </c>
       <c r="I23" s="3">
-        <v>-134800</v>
+        <v>-134900</v>
       </c>
       <c r="J23" s="3">
-        <v>-74500</v>
+        <v>-74600</v>
       </c>
       <c r="K23" s="3">
         <v>-34300</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-632200</v>
+        <v>-632800</v>
       </c>
       <c r="E26" s="3">
-        <v>-415800</v>
+        <v>-416200</v>
       </c>
       <c r="F26" s="3">
-        <v>-454200</v>
+        <v>-454600</v>
       </c>
       <c r="G26" s="3">
-        <v>-236400</v>
+        <v>-236500</v>
       </c>
       <c r="H26" s="3">
-        <v>-141000</v>
+        <v>-141200</v>
       </c>
       <c r="I26" s="3">
-        <v>-134300</v>
+        <v>-134400</v>
       </c>
       <c r="J26" s="3">
         <v>-74300</v>
@@ -1450,22 +1450,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-632200</v>
+        <v>-632800</v>
       </c>
       <c r="E27" s="3">
-        <v>-415800</v>
+        <v>-416200</v>
       </c>
       <c r="F27" s="3">
-        <v>-454200</v>
+        <v>-454600</v>
       </c>
       <c r="G27" s="3">
-        <v>-236400</v>
+        <v>-236500</v>
       </c>
       <c r="H27" s="3">
-        <v>-141000</v>
+        <v>-141200</v>
       </c>
       <c r="I27" s="3">
-        <v>-134300</v>
+        <v>-134400</v>
       </c>
       <c r="J27" s="3">
         <v>-74300</v>
@@ -1663,16 +1663,16 @@
         <v>-15900</v>
       </c>
       <c r="E32" s="3">
-        <v>-77800</v>
+        <v>-77900</v>
       </c>
       <c r="F32" s="3">
-        <v>93900</v>
+        <v>94000</v>
       </c>
       <c r="G32" s="3">
         <v>-10500</v>
       </c>
       <c r="H32" s="3">
-        <v>-26400</v>
+        <v>-26500</v>
       </c>
       <c r="I32" s="3">
         <v>13800</v>
@@ -1702,22 +1702,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-632200</v>
+        <v>-632800</v>
       </c>
       <c r="E33" s="3">
-        <v>-415800</v>
+        <v>-416200</v>
       </c>
       <c r="F33" s="3">
-        <v>-454200</v>
+        <v>-454600</v>
       </c>
       <c r="G33" s="3">
-        <v>-236400</v>
+        <v>-236500</v>
       </c>
       <c r="H33" s="3">
-        <v>-141000</v>
+        <v>-141200</v>
       </c>
       <c r="I33" s="3">
-        <v>-134300</v>
+        <v>-134400</v>
       </c>
       <c r="J33" s="3">
         <v>-74300</v>
@@ -1786,22 +1786,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-632200</v>
+        <v>-632800</v>
       </c>
       <c r="E35" s="3">
-        <v>-415800</v>
+        <v>-416200</v>
       </c>
       <c r="F35" s="3">
-        <v>-454200</v>
+        <v>-454600</v>
       </c>
       <c r="G35" s="3">
-        <v>-236400</v>
+        <v>-236500</v>
       </c>
       <c r="H35" s="3">
-        <v>-141000</v>
+        <v>-141200</v>
       </c>
       <c r="I35" s="3">
-        <v>-134300</v>
+        <v>-134400</v>
       </c>
       <c r="J35" s="3">
         <v>-74300</v>
@@ -1911,25 +1911,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>482200</v>
+        <v>482600</v>
       </c>
       <c r="E41" s="3">
-        <v>483800</v>
+        <v>484200</v>
       </c>
       <c r="F41" s="3">
-        <v>633700</v>
+        <v>634200</v>
       </c>
       <c r="G41" s="3">
-        <v>642100</v>
+        <v>642700</v>
       </c>
       <c r="H41" s="3">
-        <v>301200</v>
+        <v>301500</v>
       </c>
       <c r="I41" s="3">
-        <v>211800</v>
+        <v>212000</v>
       </c>
       <c r="J41" s="3">
-        <v>195500</v>
+        <v>195700</v>
       </c>
       <c r="K41" s="3">
         <v>122100</v>
@@ -1953,13 +1953,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>315100</v>
+        <v>315400</v>
       </c>
       <c r="E42" s="3">
-        <v>255600</v>
+        <v>255800</v>
       </c>
       <c r="F42" s="3">
-        <v>145600</v>
+        <v>145700</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1998,7 +1998,7 @@
         <v>27800</v>
       </c>
       <c r="E43" s="3">
-        <v>25100</v>
+        <v>25200</v>
       </c>
       <c r="F43" s="3">
         <v>8000</v>
@@ -2037,10 +2037,10 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>141700</v>
+        <v>141800</v>
       </c>
       <c r="E44" s="3">
-        <v>81700</v>
+        <v>81800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -2121,25 +2121,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1001100</v>
+        <v>1002000</v>
       </c>
       <c r="E46" s="3">
-        <v>873700</v>
+        <v>874400</v>
       </c>
       <c r="F46" s="3">
-        <v>802400</v>
+        <v>803000</v>
       </c>
       <c r="G46" s="3">
-        <v>662600</v>
+        <v>663100</v>
       </c>
       <c r="H46" s="3">
-        <v>317500</v>
+        <v>317800</v>
       </c>
       <c r="I46" s="3">
-        <v>221800</v>
+        <v>222000</v>
       </c>
       <c r="J46" s="3">
-        <v>199400</v>
+        <v>199600</v>
       </c>
       <c r="K46" s="3">
         <v>128300</v>
@@ -2166,13 +2166,13 @@
         <v>35100</v>
       </c>
       <c r="E47" s="3">
-        <v>160100</v>
+        <v>160300</v>
       </c>
       <c r="F47" s="3">
-        <v>136400</v>
+        <v>136500</v>
       </c>
       <c r="G47" s="3">
-        <v>16800</v>
+        <v>16900</v>
       </c>
       <c r="H47" s="3">
         <v>18500</v>
@@ -2205,13 +2205,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>140000</v>
+        <v>140100</v>
       </c>
       <c r="E48" s="3">
-        <v>136600</v>
+        <v>136800</v>
       </c>
       <c r="F48" s="3">
-        <v>117200</v>
+        <v>117300</v>
       </c>
       <c r="G48" s="3">
         <v>48900</v>
@@ -2457,25 +2457,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1181400</v>
+        <v>1182400</v>
       </c>
       <c r="E54" s="3">
-        <v>1176200</v>
+        <v>1177100</v>
       </c>
       <c r="F54" s="3">
-        <v>1062200</v>
+        <v>1063100</v>
       </c>
       <c r="G54" s="3">
-        <v>733600</v>
+        <v>734300</v>
       </c>
       <c r="H54" s="3">
-        <v>345800</v>
+        <v>346100</v>
       </c>
       <c r="I54" s="3">
-        <v>228700</v>
+        <v>228900</v>
       </c>
       <c r="J54" s="3">
-        <v>206100</v>
+        <v>206200</v>
       </c>
       <c r="K54" s="3">
         <v>134500</v>
@@ -2535,13 +2535,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>109500</v>
+        <v>109600</v>
       </c>
       <c r="E57" s="3">
-        <v>64400</v>
+        <v>64500</v>
       </c>
       <c r="F57" s="3">
-        <v>23700</v>
+        <v>23800</v>
       </c>
       <c r="G57" s="3">
         <v>30100</v>
@@ -2661,16 +2661,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>185700</v>
+        <v>185800</v>
       </c>
       <c r="E60" s="3">
-        <v>108800</v>
+        <v>108900</v>
       </c>
       <c r="F60" s="3">
-        <v>57200</v>
+        <v>57300</v>
       </c>
       <c r="G60" s="3">
-        <v>52000</v>
+        <v>52100</v>
       </c>
       <c r="H60" s="3">
         <v>42200</v>
@@ -2703,13 +2703,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>523600</v>
+        <v>524000</v>
       </c>
       <c r="E61" s="3">
-        <v>106200</v>
+        <v>106300</v>
       </c>
       <c r="F61" s="3">
-        <v>92300</v>
+        <v>92400</v>
       </c>
       <c r="G61" s="3">
         <v>33300</v>
@@ -2745,7 +2745,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>186600</v>
+        <v>186800</v>
       </c>
       <c r="E62" s="3">
         <v>3200</v>
@@ -2913,16 +2913,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>895900</v>
+        <v>896600</v>
       </c>
       <c r="E66" s="3">
-        <v>218200</v>
+        <v>218400</v>
       </c>
       <c r="F66" s="3">
-        <v>152900</v>
+        <v>153100</v>
       </c>
       <c r="G66" s="3">
-        <v>86300</v>
+        <v>86400</v>
       </c>
       <c r="H66" s="3">
         <v>42200</v>
@@ -3141,16 +3141,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-2017000</v>
+        <v>-2018600</v>
       </c>
       <c r="E72" s="3">
-        <v>-1316000</v>
+        <v>-1317100</v>
       </c>
       <c r="F72" s="3">
-        <v>-972600</v>
+        <v>-973400</v>
       </c>
       <c r="G72" s="3">
-        <v>-576100</v>
+        <v>-576600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -3159,7 +3159,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="3">
-        <v>186700</v>
+        <v>186900</v>
       </c>
       <c r="K72" s="3">
         <v>119400</v>
@@ -3309,25 +3309,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>285500</v>
+        <v>285700</v>
       </c>
       <c r="E76" s="3">
-        <v>957900</v>
+        <v>958700</v>
       </c>
       <c r="F76" s="3">
-        <v>909200</v>
+        <v>910000</v>
       </c>
       <c r="G76" s="3">
-        <v>647300</v>
+        <v>647900</v>
       </c>
       <c r="H76" s="3">
-        <v>303600</v>
+        <v>303900</v>
       </c>
       <c r="I76" s="3">
-        <v>203000</v>
+        <v>203100</v>
       </c>
       <c r="J76" s="3">
-        <v>191500</v>
+        <v>191600</v>
       </c>
       <c r="K76" s="3">
         <v>122800</v>
@@ -3440,22 +3440,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-632200</v>
+        <v>-632800</v>
       </c>
       <c r="E81" s="3">
-        <v>-415800</v>
+        <v>-416200</v>
       </c>
       <c r="F81" s="3">
-        <v>-454200</v>
+        <v>-454600</v>
       </c>
       <c r="G81" s="3">
-        <v>-236400</v>
+        <v>-236500</v>
       </c>
       <c r="H81" s="3">
-        <v>-141000</v>
+        <v>-141200</v>
       </c>
       <c r="I81" s="3">
-        <v>-134300</v>
+        <v>-134400</v>
       </c>
       <c r="J81" s="3">
         <v>-74300</v>
@@ -3506,7 +3506,7 @@
         <v>16700</v>
       </c>
       <c r="F83" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="G83" s="3">
         <v>7300</v>
@@ -3752,25 +3752,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-537400</v>
+        <v>-537800</v>
       </c>
       <c r="E89" s="3">
-        <v>-452800</v>
+        <v>-453100</v>
       </c>
       <c r="F89" s="3">
-        <v>-294400</v>
+        <v>-294600</v>
       </c>
       <c r="G89" s="3">
-        <v>-190700</v>
+        <v>-190900</v>
       </c>
       <c r="H89" s="3">
-        <v>-150500</v>
+        <v>-150600</v>
       </c>
       <c r="I89" s="3">
-        <v>-103100</v>
+        <v>-103200</v>
       </c>
       <c r="J89" s="3">
-        <v>-65200</v>
+        <v>-65300</v>
       </c>
       <c r="K89" s="3">
         <v>-44400</v>
@@ -3938,13 +3938,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>66900</v>
+        <v>67000</v>
       </c>
       <c r="E94" s="3">
-        <v>-119900</v>
+        <v>-120000</v>
       </c>
       <c r="F94" s="3">
-        <v>-315700</v>
+        <v>-316000</v>
       </c>
       <c r="G94" s="3">
         <v>-5600</v>
@@ -4166,25 +4166,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>430100</v>
+        <v>430500</v>
       </c>
       <c r="E100" s="3">
-        <v>380900</v>
+        <v>381300</v>
       </c>
       <c r="F100" s="3">
-        <v>653300</v>
+        <v>653900</v>
       </c>
       <c r="G100" s="3">
-        <v>535100</v>
+        <v>535500</v>
       </c>
       <c r="H100" s="3">
-        <v>220400</v>
+        <v>220500</v>
       </c>
       <c r="I100" s="3">
-        <v>135200</v>
+        <v>135300</v>
       </c>
       <c r="J100" s="3">
-        <v>127300</v>
+        <v>127400</v>
       </c>
       <c r="K100" s="3">
         <v>107900</v>
@@ -4211,7 +4211,7 @@
         <v>38700</v>
       </c>
       <c r="E101" s="3">
-        <v>41800</v>
+        <v>41900</v>
       </c>
       <c r="F101" s="3">
         <v>-58000</v>
@@ -4220,7 +4220,7 @@
         <v>8400</v>
       </c>
       <c r="H101" s="3">
-        <v>22400</v>
+        <v>22500</v>
       </c>
       <c r="I101" s="3">
         <v>-14800</v>
@@ -4253,13 +4253,13 @@
         <v>-1600</v>
       </c>
       <c r="E102" s="3">
-        <v>-149900</v>
+        <v>-150000</v>
       </c>
       <c r="F102" s="3">
         <v>-14700</v>
       </c>
       <c r="G102" s="3">
-        <v>347200</v>
+        <v>347500</v>
       </c>
       <c r="H102" s="3">
         <v>89500</v>
